--- a/testData/testData.xlsx
+++ b/testData/testData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="934"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="934" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="GetAccount" sheetId="1" r:id="rId1"/>
@@ -26,16 +26,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="196">
   <si>
     <t>post</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "method": "GetAccount",
- "params": {"chainId":"2", "address":""}
-}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -57,81 +50,761 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>chainId含有转义字符\或者请求的值加上""</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>签名信息错误</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求的方法名为空或不存在</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>转账金额为空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "errMsg": "invalid address"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>address含有转义字符\或者请求的值加上""</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chainId为空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入的chainId超过所能挂载的最大值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>传入的chainId为int类型（非string类型）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>toChainId为int类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chainId为空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chainId不存在</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chainId为非string类型（如输入int类型）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易hash为空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易hash不存在</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "method": "GetTransactio",
+ "params": {
+ "chainId": "1",
+ "hash":"0x55ef76bb4dc58f2cad45f606014626605484ec9f09defb42ce34a256b3ee4946"
+ }
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"errMsg":"method undefiend"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "method": "GetTransactionByHash",
+ "params": {
+ "chainId": "",
+ "hash":"0x55ef76bb4dc58f2cad45f606014626605484ec9f09defb42ce34a256b3ee4946"
+ }
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"errMsg":"rpc error: code = Unknown desc = not found"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "method": "GetTransactionByHash",
+ "params": {
+ "chainId": "3",
+ "hash":"0x55ef76bb4dc58f2cad45f606014626605484ec9f09defb42ce34a256b3ee4946"
+ }
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接服务器错误</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "method": "GetTransactionByHash",
+ "params": {
+ "chainId": "-3",
+ "hash":"0x7060542c12f8835c92cf67d2f610921c7065fe791d0bdb28f680ea2223a4cb39"
+ }
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "errMsg": "rpc error: code = Unknown desc = not found"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "method": "GetTransactionByHash",
+ "params": {
+ "chainId": "\3",
+ "hash":"0x7060542c12f8835c92cf67d2f610921c7065fe791d0bdb28f680ea2223a4cb39"
+ }
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chainId字段包含字符\、""等</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"errMsg":"Unmarshal request body err"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "method": "GetTransactionByHash",
+ "params": {
+ "chainId": 3,
+ "hash":"0x7060542c12f8835c92cf67d2f610921c7065fe791d0bdb28f680ea2223a4cb39"
+ }
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "method": "GetTransactionByHash",
+ "params": {
+ "chainId": "1",
+ "hash":"0x7060542c12f8835c92cf67d2f610921c7065fe791d0bdb28f680ea2223a4cb39"
+ }
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入的chainId超过挂载分片链的最大数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "method": "GetTransactionByHash",
+ "params": {
+ "chainId": "10",
+ "hash":"0x7060542c12f8835c92cf67d2f610921c7065fe791d0bdb28f680ea2223a4cb39"
+ }
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chainId为负数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "errMsg": "hash format error"
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "method": "GetTransactionByHash",
+ "params": {
+ "chainId": "3",
+ "hash":""
+ }
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "method": "GetTransactionByHash",
+ "params": {
+ "chainId": "3",
+ "hash":"0x7060542c12f8835c92cf67d2f610921c7065fe791d0bdb28f680ea2223a4cb37"
+ }
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易hash正确，但chainId输入错误</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "method": "GetTransactionByHash",
+ "params": {
+ "chainId": "3",
+ "hash":"0x7060542c12f8835c92cf67d2f610921c7065fe791d0bdb28f680ea2223a4cb09"
+ }
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chainId正确，交易hash错误（长度符合规则）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "method": "GetTransactionByHash",
+ "params": {
+ "chainId": "3",
+ "hash":"0x7060542c12f8835c92cf67d2f610921c7028f680ea2223a4cb39"
+ }
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入的交易hash长度不满足66位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "method": "CompileContract",
+ "params": {
+  "chainId": "3",
+  "contract": "pragma solidity &gt;= 0.4.22;contract test {function multiply(uint a) public returns(uint d) {return a * 7;}}"
+ }
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求方法正确，包含chainId字段，合约符合solidity编码规范</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chainId为空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "method": "CompileContract",
+ "params": {
+  "chainId":"",
+  "contract": "pragma solidity &gt;= 0.4.22;contract test {function multiply(uint a) public returns(uint d) {return a * 7;}}"
+ }
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chainId为任意字段</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "method": "CompileContract",
+ "params": {
+  "chainId":"QT",
+  "contract": "pragma solidity &gt;= 0.4.22;contract test {function multiply(uint a) public returns(uint d) {return a * 7;}}"
+ }
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chainId为负数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "method": "CompileContract",
+ "params": {
+  "chainId":"-9",
+  "contract": "pragma solidity &gt;= 0.4.22;contract test {function multiply(uint a) public returns(uint d) {return a * 7;}}"
+ }
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "method": "CompileContract",
+ "params": {
+  "chainId":"\9",
+  "contract": "pragma solidity &gt;= 0.4.22;contract test {function multiply(uint a) public returns(uint d) {return a * 7;}}"
+ }
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chainId带有转义\字符</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入的contract合约信息为空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "method": "CompileContract",
+ "params": {
+  "chainId":"3",
+  "contract": ""
+ }
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入的contract合约不满足solidity编码规范</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "method": "CompileContract",
+ "params": {
+  "chainId":"3",
+  "contract": "pragma solidity &gt;= 0.4.22QT;contract test {function multiply(uint a) public returns(uint d) {return a * 7;}}"
+ }
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求的方法为空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "method": "",
+ "params": {
+  "chainId":"3",
+  "contract": "pragma solidity &gt;= 0.4.22;contract test {function multiply(uint a) public returns(uint d) {return a * 7;}}"
+ }
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求的方法错误</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "method": "CompileContrac",
+ "params": {
+  "chainId":"3",
+  "contract": "pragma solidity &gt;= 0.4.22;contract test {function multiply(uint a) public returns(uint d) {return a * 7;}}"
+ }
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求参数不包含chainId字段</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "method": "CompileContract",
+ "params": {
+  "contract": "pragma solidity &gt;= 0.4.22;contract test {function multiply(uint a) public returns(uint d) {return a * 7;}}"
+ }
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>path</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>method</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CaseNo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sceneName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CaseName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>body</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>expect_content</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/chaininfo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetChainInfo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetBlockHeader</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetBlockTxs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetStats</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CallTransaction</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetTransactions</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SaveContract</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetContract</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CompileContract</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetTransactionByHash</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetAccount</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CaseName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>链ID存在，地址符合规则，请求方法正确</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sceneName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SendTx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ping</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/chaininfo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>正向用例</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常用例</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常用例</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>expect_code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>expect_content</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>body</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>200</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>200</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>400</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>500</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>expect_code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>expect_code</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入的chainId为负数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chainId为小数点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>500 Internal Server Error</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"errMsg":"strconv.Atoi: parsing \"&amp;、&gt;、\": invalid syntax"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"errMsg":"Unmarshal request body err"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求的方法名不存在</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求的方法名为空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>address为非法字符（不包括转义字符\）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"errMsg":"method undefiend"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"errMsg":"method undefiend"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"errMsg":"chainId is too big"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>500 Internal Server Error</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"errMsg":"strconv.Atoi: parsing \"1.9\": invalid syntax"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求的方法名为空或不存在</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>签名公钥均与交易信息匹配，交易信息正常填写</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>正向用例</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "method": "",
+    "params": {
+        "chainId": "3",
+     "fromChainId": "3",
+     "toChainId": "3",
+     "from": "0x2c7536e3605d9c16a7a3d7b1898e529396a65c23",
+     "nonce": "203",
+     "to": "0x2c7536e3605d9c16a7a3d7b1898e529396a452a3",
+     "input": "",
+     "value": "300",
+        "sig": "0x4a887f2674367f17576779554abba1af704524ea73b4edef4b4d45fe7fcfc6fd71b563e9d35d60df429010980710f3d9dcd816f9d4e4be445511158ba31ee0491c",
+        "pub": "0x043d85aa2a649fa5fd421988cebff58d7173f7b563b8a9594e92bcf3e9f5e43037c3463121af51aacc8a8cf2d8cfcc6fa717b774fc0aceec04d7185c87e279c1f6"
+    }
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"TXhash":"0x1030c3c41bae41667dd95d8bff069f972fb2cfcd645edc75a3a13fc190ac9a6c"}</t>
+  </si>
+  <si>
+    <t>{"TXhash":"0x1030c3c41bae41667dd95d8bff069f972fb2cfcd645edc75a3a13fc190ac9a6c"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"errMsg":"method undefiend"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回错误code码，输入的toChainId应为string类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "method": "SendTx",
+    "params": {
+        "chainId": "3",
+     "fromChainId": "3",
+     "toChainId": "3",
+     "from": "0x2c7536e3605d9c16a7a3d7b1898e529396a65c23",
+     "nonce": "204",
+     "to": "0x2c7536e3605d9c16a7a3d7b1898e529",
+     "input": "",
+     "value": "300",
+        "sig": "0x17334c99d043b5bf7187f54b2722ff2252ed11e658905da478f4aa008363b11c670728caef51713da730945204955ce97d07d72712d984ea698eee5f74e37d651c",
+        "pub": "0x043d85aa2a649fa5fd421988cebff58d7173f7b563b8a9594e92bcf3e9f5e43037c3463121af51aacc8a8cf2d8cfcc6fa717b774fc0aceec04d7185c87e279c1f6"
+    }
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"errMsg":"invalid address"}</t>
+  </si>
+  <si>
+    <t>转出账户地址无余额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"TXhash":"0x28b929272ece462f820ec0f7de3cd8ccbfe8b6a7d6f8e603f127f0a6cba3797e"}</t>
+  </si>
+  <si>
+    <t>{
+    "method": "SendTx",
+    "params": {
+        "chainId": "3",
+     "fromChainId": "3",
+     "toChainId": "3",
+     "from": "0x2c7536e3605d9c16a7a3d7b1898e529396a65c20",
+     "nonce": "0",
+     "to": "0x2c7536e3605d9c16a7a3d7b1898e529396a452a3",
+     "input": "",
+     "value": "300",
+        "sig": "0x7c66e98014189ac20baa2cd5b9a6475066d650edb2f42f42e487d757f22291347f4e4cb9b3f173b2fb39c6e946b9cca8dce51abb540f4a66fabcce898ad73f691c",
+        "pub": "0x043d85aa2a649fa5fd421988cebff58d7173f7b563b8a9594e92bcf3e9f5e43037c3463121af51aacc8a8cf2d8cfcc6fa717b774fc0aceec04d7185c87e279c1f6"
+    }
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>转账金额超过账户本身余额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "method": "SendTx",
+    "params": {
+      "chainId": "3",
+     "fromChainId": "3",
+     "toChainId": "3",
+     "from": "0x2c7536e3605d9c16a7a3d7b1898e529396a452a3",
+     "nonce": "0",
+     "to": "0x2c7536e3605d9c16a7a3d7b1898e529396a45228",
+     "input": "",
+     "value": "300000",
+        "sig": "0xdee958288a017782d0359814f307e8e10fe56783807f92e30b2f498cf176042d27e4b677c14505e4ebef8cedc59d12e6d2b466c7707e617282567756e2a670351b",
+        "pub": "0x043d85aa2a649fa5fd421988cebff58d7173f7b563b8a9594e92bcf3e9f5e43037c3463121af51aacc8a8cf2d8cfcc6fa717b774fc0aceec04d7185c87e279c1f6"
+    }
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"TXhash":"0x19ea1618fbe43412c9b053cd768cf29986f652c99599e75596df44a9d92b8753"}</t>
+  </si>
+  <si>
+    <t>转账金额包含小数点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "method": "SendTx",
+    "params": {
+     "chainId": "3",
+     "fromChainId": "3",
+     "toChainId": "3",
+     "from": "0x2c7536e3605d9c16a7a3d7b1898e529396a65c23",
+     "nonce": "204",
+     "to": "0x2c7536e3605d9c16a7a3d7b1898e529396a452a3",
+     "input": "",
+     "value": "300.85",
+        "sig": "0x65e91012f3883d09bc61d2f30a3e4e8caa25660ff0ff14cd771c1113c60f0d844d9e40d43dcc7813ddd8534d9c16cf247d7aea53eebbacb6b59539a326eda6c31b",
+        "pub": "0x043d85aa2a649fa5fd421988cebff58d7173f7b563b8a9594e92bcf3e9f5e43037c3463121af51aacc8a8cf2d8cfcc6fa717b774fc0aceec04d7185c87e279c1f6"
+    }
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"errMsg":"rpc error: code = Unknown desc = invalid transaction signature"}</t>
   </si>
   <si>
     <t>{
  "method": "SendTx",
  "params": {
-  "chainId": "2",
-  "fromChainId": "2",
-  "toChainId": "2",
+  "chainId": "3",
+  "fromChainId": "3",
+  "toChainId": "3",
   "from": "0x2c7536e3605d9c16a7a3d7b1898e529396a65c23",
-  "nonce": "899882",
+  "nonce": "204",
   "to": "0xa561712AD5d1Ba59Ac1F962124b8b9d316cb544e",
   "input": "",
-  "value": "3",
-  "sig": "0xef1d3795e344ff8a7aadc3dd4b2d5b271bd1d24800bfdf18bd525b3bdba3b07d7dd31f7490ac1c3307c089fd8d648c8ed28c244bfc43acc28fa5b4229585154f1b",
+  "value": "",
+  "sig": "0x92c6b494b39c48f5b7b964fa740159af5fd6fe7f787893979e8aec16e9eb7df26a6df0c133cfac62cda9d7248c3163cb9d084ad57f05deec6dc5190ab821e5561b",
   "pub": "0x043d85aa2a649fa5fd421988cebff58d7173f7b563b8a9594e92bcf3e9f5e43037c3463121af51aacc8a8cf2d8cfcc6fa717b774fc0aceec04d7185c87e279c1f6"
  }
 }</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>chainId与fromChainId不一致时</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>{
  "method": "SendTx",
  "params": {
-  "chainId": "2",
+  "chainId": "3",
   "fromChainId": "2",
-  "toChainId": "2",
-  "from": "0x2c7536e3605d9c16a7a3d7b1898e529396a65c20",
-  "nonce": "0",
+  "toChainId": "3",
+  "from": "0x2c7536e3605d9c16a7a3d7b1898e529396a65c23",
+  "nonce": "204",
   "to": "0xa561712AD5d1Ba59Ac1F962124b8b9d316cb544e",
   "input": "",
-  "value": "3",
-  "sig": "0x2f4b66508dde85d3cd7392dfdba2c07f0325571338efea79778070844df1256e2599c4b454d0a7ba99912d483cb35ba6688b7daf18a01a738523f8e1cfe0971c1b",
+  "value": "50",
+  "sig": "0x216c24950dd856e94d875c47e5d2945e0baf370b3cacc5884770b187be55867405c730b6b0653f4c24719b631ce8f191b7a79038623cc0ec7e9dd6bcd8cde3a31b",
   "pub": "0x043d85aa2a649fa5fd421988cebff58d7173f7b563b8a9594e92bcf3e9f5e43037c3463121af51aacc8a8cf2d8cfcc6fa717b774fc0aceec04d7185c87e279c1f6"
  }
 }</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>转出账户地址无效</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>签名信息错误</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "method": "SendTx",
- "params": {
-  "chainId": "2",
-  "fromChainId": "2",
-  "toChainId": "2",
-  "from": "0x2c7536e3605d9c16a7a3d7b1898e529396a65c20",
-  "nonce": "0",
-  "to": "0xa561712AD5d1Ba59Ac1F962124b8b9d316cb544e",
-  "input": "",
-  "value": "3",
-  "sig": "0x2f4b66508dde85d3cd7392dfdba2c07f0325571338efea12345678844df1256e2599c4b454d0a7ba99912d483cb35ba6688b7daf18a01a738523f8e1cfe0971c1b",
-  "pub": "0x043d85aa2a649fa5fd421988cebff58d7173f7b563b8a9594e92bcf3e9f5e43037c3463121af51aacc8a8cf2d8cfcc6fa717b774fc0aceec04d7185c87e279c1f6"
- }
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>公钥信息输入错误</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求的方法名为空或不存在</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>chainId与fromChainId不一致时</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -153,308 +826,77 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>转账金额超过账户本身余额</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>跨链转账（fromChainId和toChainId不同）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"TXhash":"0x6bbbe0fc642e3080c1cb6b1d12af3ba9906f52a3a8fbd8f4e74b1c0910b05728"}</t>
   </si>
   <si>
     <t>{
  "method": "SendTx",
  "params": {
-  "chainId": "2",
-  "fromChainId": "2",
+  "chainId": "3",
+  "fromChainId": "3",
   "toChainId": "2",
-  "from": "0xa561712AD5d1Ba59Ac1F962124b8b9d316cb544e",
-  "nonce": "0",
-  "to": "0x2c7536e3605d9c16a7a3d7b1898e529396a65c23",
+  "from": "0x2c7536e3605d9c16a7a3d7b1898e529396a65c23",
+  "nonce": "204",
+  "to": "0xa561712AD5d1Ba59Ac1F962124b8b9d316cb544e",
   "input": "",
-  "value": "10000000000",
-  "sig": "0xb5f26fc7f9382e17e84e8abd95195aed81e0d471958420f958aaac1d02bd872056c75034f626593f1c59baa82b01b7000270cbea7e23b6419d880c37e5c167f31c",
+  "value": "50",
+  "sig": "0x216c24950dd856e94d875c47e5d2945e0baf370b3cacc5884770b187be55867405c730b6b0653f4c24719b631ce8f191b7a79038623cc0ec7e9dd6bcd8cd123456",
   "pub": "0x043d85aa2a649fa5fd421988cebff58d7173f7b563b8a9594e92bcf3e9f5e43037c3463121af51aacc8a8cf2d8cfcc6fa717b774fc0aceec04d7185c87e279c1f6"
  }
 }</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>生成交易hash，交易hash执行过程中，应返回错误code码，提示账户余额不足</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>生成交易hash</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>应提示错误code码，说明chainId与fromchainId不一致导致交易请求失败</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回错误code码，提示方法错误或方法名不能为空再或者提示方法未定义</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回错误code码，公钥错误</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>生成交易hash(交易hash执行过程中，应返回错误code码，提示账户余额不足交易失败）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>生成交易hash</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>转账金额为空</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回错误code码，提示转账金额不为空</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>生成交易hash</t>
+    <t>{
+    "method": "SendTx",
+    "params": {
+        "chainId": "3",
+     "fromChainId": "3",
+     "toChainId": "3",
+     "from": "0x2c7536e3605d9c16a7a3d7b1898e529396a65c23",
+     "nonce": "204",
+     "to": "",
+     "input": "",
+     "value": "300",
+        "sig": "0xeca84bf256f0f3d79eaa10365b8b9e71f54f7b31e0c6983f57df5eb76702b76034f48999f20c70ab9a2a3b6de79d82750c5c1b935a34f63b8db3a06c3723ab341b",
+        "pub": "0x043d85aa2a649fa5fd421988cebff58d7173f7b563b8a9594e92bcf3e9f5e43037c3463121af51aacc8a8cf2d8cfcc6fa717b774fc0aceec04d7185c87e279c1f6"
+    }
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收币账户地址为空，input信息为空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>转出账户地址无效</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>转出账户地址为空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收币地址为空，input信息不为空</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{
  "method": "SendTx",
  "params": {
-  "chainId": "0",
-  "fromChainId": "0",
-  "toChainId": "0",
-  "from": "0x2c7536e3605d9c16a7a3d7b1898e529396a65c23",
-  "nonce": "4000",
-  "to": "0xa561712AD5d1Ba59Ac1F962124b8b9d316cb544e",
-  "input": "",
-  "value": "1.5",
-  "sig": "0x376364d4993cc27d749f371d2f4ba81bb5abd0a83bf3cfaa0afcc87dfabd3cf750329b90b4f7366acd742d17dcf8076846c2165c52da9cd2ef9f22a03b3af4191b",
-  "pub": "0x043d85aa2a649fa5fd421988cebff58d7173f7b563b8a9594e92bcf3e9f5e43037c3463121af51aacc8a8cf2d8cfcc6fa717b774fc0aceec04d7185c87e279c1f6"
- }
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回错误code码，提示转出地址错误</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回错误code码，提示交易签名信息错误</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "errMsg": "invalid address"
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>address含有转义字符\或者请求的值加上""</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "method": "GetAccount",
- "params": {"chainId":"2", "address":"0x22C7300A7B84d3b0f6B"}
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>签名公钥均与交易信息匹配，交易信息正常填写</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>跨链转账（fromChainId和toChainId不同）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "method": "GetAccount",
- "params": {"chainId":"50", "address":"0x2c7536e3605d9c16a7a3d7b1898e529396a65c23"}
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>chainId为空</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入的chainId超过所能挂载的最大值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>传入的chainId为int类型（非string类型）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>转出账户地址为空</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>转出账户地址无余额</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "method": "SendTx",
- "params": {
-  "chainId": "2",
-  "fromChainId": "2",
-  "toChainId": "2",
-  "from": "0x2c7536e3605d9c16a7a3d7b1898e529396a65c23",
-  "nonce": "899882",
-  "to": "0xa561712AD5d1Ba59Ac1F962ucasdadwdadwad",
-  "input": "",
-  "value": "3",
-  "sig": "0xef1d3795e344ff8a7aadc3dd4b2d5b271bd1d24800bfdf18bd525b3bdba3b07d7dd31f7490ac1c3307c089fd8d648c8ed28c244bfc43acc28fa5b4229585154f1b",
-  "pub": "0x043d85aa2a649fa5fd421988cebff58d7173f7b563b8a9594e92bcf3e9f5e43037c3463121af51aacc8a8cf2d8cfcc6fa717b774fc0aceec04d7185c87e279c1f6"
- }
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "method": "SendTx",
- "params": {
-  "chainId": "2",
-  "fromChainId": "2",
-  "toChainId": "2",
-  "from": "0x2c7536e3605d9c16a7a3d7b1898e529396a65c20",
-  "nonce": "0",
-  "to": "0xa561712AD5d1Ba59Ac1F962124b8b9d316cb544e",
-  "input": "",
-  "value": "3",
-  "sig": "0x2f4b66508dde85d3cd7392dfdba2c07f0325571338efea79778070844df1256e2599c4b454d0a7ba99912d483cb35ba6688b7daf18a01a738523f8e1cfe0971c1b",
-  "pub": "0x043d85aa2a649fa5fd421988cebff58d7173f7b563b8a9594e92bcf3e9f5e43037c3463121af51aacc8a8cf2d8cfcc6fa717b774fc0123456787185c87e279c1f6"
- }
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "method": "SendTx",
- "params": {
-  "chainId": "1",
-  "fromChainId": "2",
-  "toChainId": "3",
-  "from": "0x2c7536e3605d9c16a7a3d7b1898e529396a65c23",
-  "nonce": "899882",
-  "to": "0xa561712AD5d1Ba59Ac1F962124b8b9d316cb544e",
-  "input": "",
-  "value": "3",
-  "sig": "0x28f04f695ea2fcd2da23866440fab10f6b10548698666a741ea64356106e84c030a4479f7c6238b24f6dca85e4ec6c840b6dea4af234fe33d392469d1b8c2b771b",
-  "pub": "0x043d85aa2a649fa5fd421988cebff58d7173f7b563b8a9594e92bcf3e9f5e43037c3463121af51aacc8a8cf2d8cfcc6fa717b774fc0aceec04d7185c87e279c1f6"
- }
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "method": "SendTx",
- "params": {
-  "chainId": "0",
-  "fromChainId": "0",
-  "toChainId": "0",
-  "from": "0x2c7536e3605d9c16a7a3d7b1898e529396a65c23",
-  "nonce": "4000",
-  "to": "0xa561712AD5d1Ba59Ac1F962124b8b9d316cb544e",
-  "input": "",
-  "value": "",
-  "sig": "0xebeadba8ab01827ef3d713d44b9978b22e5f57400ac4b3efa05210acb8c6161f57a00e2b2c943efde63847bec6aba16ab4c830fc763db573846c8c696d95f1f31c",
-  "pub": "0x043d85aa2a649fa5fd421988cebff58d7173f7b563b8a9594e92bcf3e9f5e43037c3463121af51aacc8a8cf2d8cfcc6fa717b774fc0aceec04d7185c87e279c1f6"
- }
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "method": "SendTx",
- "params": {
-  "chainId": "0",
-  "fromChainId": "0",
-  "toChainId": "0",
-  "from": "0x2c7536e3605d9c16a7a3d7b1898e529396a65c23",
-  "nonce": "4000",
-  "to": "",
-  "input": "",
-  "value": "3",
-  "sig": "0x1ca39759628c851a0f05793e5ea66808c3753efa7eb9451bc9541ec62c28f6b664e58a99605af8a0b9e46afbe5c449fdfc8ba86f121159b015ba5b3dee0c8d291b",
-  "pub": "0x043d85aa2a649fa5fd421988cebff58d7173f7b563b8a9594e92bcf3e9f5e43037c3463121af51aacc8a8cf2d8cfcc6fa717b774fc0aceec04d7185c87e279c1f6"
- }
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回错误code码，提示收币账户不能为空</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "method": "SendTx",
- "params": {
-  "chainId": "0",
-  "fromChainId": "0",
-  "toChainId": "0",
-  "from": "",
-  "nonce": "0",
-  "to": "0xa561712AD5d1Ba59Ac1F962124b8b9d316cb544e",
-  "input": "",
-  "value": "3",
-  "sig": "0xb5fb7396bb06d2dc21ee34668c2badfb7ef377b6a5c140815af990528920bd3c7a7cf81b2824a41b2a05593f8aefade9ef0131ae9c46cfbcca08a8a16fd383e11b",
-  "pub": "0x043d85aa2a649fa5fd421988cebff58d7173f7b563b8a9594e92bcf3e9f5e43037c3463121af51aacc8a8cf2d8cfcc6fa717b774fc0aceec04d7185c87e279c1f6"
- }
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收币账户地址无效</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回错误code码，提示收币账户地址无效</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回错误code码，提示转出地址无效</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "method": "SendTx",
- "params": {
-  "chainId": "0",
-  "fromChainId": "0",
-  "toChainId": "0",
-  "from": "0x2c7536e3605d9c16a7a3d7b1898e529396a65c23",
-  "nonce": "4000",
-  "to": "0xa561712AD5d1Ba59Ac1F962124b8b9d316cb544e",
-  "input": "",
-  "value": "3",
-  "sig": "0x629d9a73caddcf4f6227d9bdd1b6a8240f7d1a799fc7046523f39b39f602da07477eb65bd7cdfc5b35f6ef913f6f1ef27a1978e4b887da31dc76597c84ec5c461b",
-  "pub": "0x043d85aa2a649fa5fd421988cebff58d7173f7b563b8a9594e92bcf3e9f5e43037c3463121af51aacc8a8cf2d8cfcc6fa717b774fc0aceec04d7185c87e279c1f6"
- }
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>生成交易hash，交易hash执行过程中，应返回错误code码，提示nonce值错误</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收币账户地址为空，input信息为空</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "method": "SendTx",
- "params": {
-    "chainId": "0",
-    "fromChainId": "0",
-    "toChainId": "0",
-    "from": "0x2c7536e3605d9c16a7a3d7b1898e529396a65c23",
-    "nonce": "40000",
-    "to": "0xa561712AD5d1Ba59A6cb544e",
-    "input": "",
-    "value": "3",
- "sig": "0xc1f3e88738bb6065f94d44020ddec245eb6f22fbd62469d95787eb84ccdb24a215efd4fc018809949e4fe256765c35242338e75c4fd810fbe03dd2ce232a9bed1b",
+ "chainId": "3",
+ "fromChainId": "3",
+ "toChainId": "3",
+ "from": "0x2c7536e3605d9c16a7a3d7b1898e529396a65c23",
+ "nonce": "204",
+ "to": "",
+ "input": "",
+ "value": "300",
+ "sig": "0xeca84bf256f0f3d79eaa10365b8b9e71f54f7b31e0c6983f57df5eb76702b76034f48999f20c70ab9a2a3b6de79d82750c5c1b935a34f63b8db3a06c3723ab341b",
  "pub": "0x043d85aa2a649fa5fd421988cebff58d7173f7b563b8a9594e92bcf3e9f5e43037c3463121af51aacc8a8cf2d8cfcc6fa717b774fc0aceec04d7185c87e279c1f6"
  }
 }</t>
@@ -479,19 +921,28 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>生成交易hash，交易hash执行过程中，应返回错误code码，提示发布合约失败</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收币地址为空，input信息不为空</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>toChainId为int类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>转账金额包含小数点</t>
+    <t>{"TXhash":"0xe99ebad1fbc1feb94ec94e5b792de9d1d48b2a1f089a568ec1df600c75b281fb"}</t>
+  </si>
+  <si>
+    <t>收币账户地址无效</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "method": "SendTx",
+ "params": {
+    "chainId": "3",
+    "fromChainId": "3",
+    "toChainId": "3",
+    "from": "0x2c7536e3605d9c16a7a3d7b1898e529396a65c23",
+    "nonce": "204",
+    "to": "0xa561712AD5d1Ba59A6cb544e",
+    "input": "",
+    "value": "3",
+ "sig": "0x32752e07a3a16f924f74c60f73d25a8ecdf569a2348e5b5958e4c52a1e2690b06f7a658773631bbacfba385833bd487367f3d1b2500e21951dffcd4fcef9734b1b",
+ "pub": "0x043d85aa2a649fa5fd421988cebff58d7173f7b563b8a9594e92bcf3e9f5e43037c3463121af51aacc8a8cf2d8cfcc6fa717b774fc0aceec04d7185c87e279c1f6"
+ }
+}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -499,27 +950,123 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>{"TXhash":"0x44b02a18cb831378c2e61373395b2414e5038cd4479b03db957575877ce1cebe"}</t>
+  </si>
+  <si>
+    <t>{
+    "method": "SendTx",
+    "params": {
+        "chainId": "3",
+     "fromChainId": "3",
+     "toChainId": "3",
+     "from": "0x2c7536e3605d9c16a7a3d7b1898e529396a65c23",
+     "nonce": "1",
+     "to": "0x2c7536e3605d9c16a7a3d7b1898e529396a452a3",
+     "input": "",
+     "value": "300",
+        "sig": "0x78e827772fb29a09cdd07b17f3175ebab33f2487a4bb0c683b78b6c052a0e28921aa15a7ac41b09b6bed35351b25f0b5a7e043796d57596b5c4bcdf4a6f5f8641c",
+        "pub": "0x043d85aa2a649fa5fd421988cebff58d7173f7b563b8a9594e92bcf3e9f5e43037c3463121af51aacc8a8cf2d8cfcc6fa717b774fc0aceec04d7185c87e279c1f6"
+    }
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>chainId为int类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>chainId为空</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>chainId不存在</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>chainId为非string类型（如输入int类型）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易hash为空</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易hash不存在</t>
+    <t>{
+    "method": "SendTx",
+    "params": {
+        "chainId": 3,
+     "fromChainId": "3",
+     "toChainId": "3",
+     "from": "0x2c7536e3605d9c16a7a3d7b1898e529396a65c23",
+     "nonce": "204",
+     "to": "0x2c7536e3605d9c16a7a3d7b1898e529396a452a3",
+     "input": "",
+     "value": "300",
+        "sig": "0x78e827772fb29a09cdd07b17f3175ebab33f2487a4bb0c683b78b6c052a0e28921aa15a7ac41b09b6bed35351b25f0b5a7e043796d57596b5c4bcdf4a6f5f8641c",
+        "pub": "0x043d85aa2a649fa5fd421988cebff58d7173f7b563b8a9594e92bcf3e9f5e43037c3463121af51aacc8a8cf2d8cfcc6fa717b774fc0aceec04d7185c87e279c1f6"
+    }
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>200</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"TXhash":"0x1b998248120cd1ca412631af76ac362427e1eac726ba5aeb5b62cb5607ce7c21"}</t>
+  </si>
+  <si>
+    <t>异常用例</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>500</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fromchainId为int类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>异常用例</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>400</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>body</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>expect_content</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>body</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回错误code码，输入的fromChainId应为string类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "method": "SendTx",
+    "params": {
+        "chainId": "3",
+     "fromChainId": 3,
+     "toChainId": "3",
+     "from": "0x2c7536e3605d9c16a7a3d7b1898e529396a65c23",
+     "nonce": "204",
+     "to": "0x2c7536e3605d9c16a7a3d7b1898e529396a452a3",
+     "input": "",
+     "value": "300",
+        "sig": "0x59acddea62dbc236c98102821b050806968ea3f2a2830efbac14c972ced863354cecffef2b3e0d7cef52cfdf148e717bac0cff8af9168dd93f08b8b5dfe5d72c1c",
+        "pub": "0x043d85aa2a649fa5fd421988cebff58d7173f7b563b8a9594e92bcf3e9f5e43037c3463121af51aacc8a8cf2d8cfcc6fa717b774fc0aceec04d7185c87e279c1f6"
+    }
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chainId正确，chainid与交易hash匹配，请求方法正确</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"TXhash":"0x93ad0e758b30e848df79c9b199a1215a2e4830a9e49c4bfb2dfaa26c98099680"}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -544,48 +1091,124 @@
   </si>
   <si>
     <t>{
- "method": "GetTransactio",
- "params": {
- "chainId": "1",
- "hash":"0x55ef76bb4dc58f2cad45f606014626605484ec9f09defb42ce34a256b3ee4946"
- }
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"errMsg":"method undefiend"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "method": "GetTransactionByHash",
- "params": {
- "chainId": "",
- "hash":"0x55ef76bb4dc58f2cad45f606014626605484ec9f09defb42ce34a256b3ee4946"
- }
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"errMsg":"rpc error: code = Unknown desc = not found"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
  "method": "GetTransactionByHash",
  "params": {
  "chainId": "3",
- "hash":"0x55ef76bb4dc58f2cad45f606014626605484ec9f09defb42ce34a256b3ee4946"
+"hash":"0x93ad0e758b30e848df79c9b199a1215a2e4830a9e49c4bfb2dfaa26c98099680"
  }
 }</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>chainId正确，chainid与交易hash匹配，请求方法正确</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>连接服务器错误</t>
+    <t>{"errMsg":"invalid address"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "method": "GetAccount",
+ "params": {"chainId":"2", "address":"0x2c7536e3605d9c16a7a3d7b1898e529396a65c23"}
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"address":"0x2c7536e3605d9c16a7a3d7b1898e529396a65c23","balance":1e+27,"codeHash":null,"nonce":5,"storageRoot":null}</t>
+  </si>
+  <si>
+    <t>{
+ "method": "GetAccount",
+ "params": {"chainId":"", "address":"0x2c7536e3605d9c16a7a3d7b1898e529396a65c23"}
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"errMsg":"strconv.Atoi: parsing \"\": invalid syntax"}</t>
+  </si>
+  <si>
+    <t>{
+ "method": "GetAccount",
+ "params": {"chainId":"1.9", "address":"0x22C73038A2571F02948585b13170A7B84d3b0f6B"}
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "method": "GetAccount",
+ "params": {"chainId":"50", "address":"0x2c7536e3605d9c16a7a3d7b1898e529396a65c23"}
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chainId含有转义字符\或者请求的值加上""</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "method": "GetAccount",
+ "params": {"chainId":"&amp;、&gt;、", "address":"0x2c7536e3605d9c16a7a3d7b1898e529396a65c23"}
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "method": "GetAccount",
+ "params": {"chainId":"2", "address":"0x22C7300A7B84d3b0f6B"}
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "method": "GetAccount",
+ "params": {"chainId":"2", "address":"0x&gt;^&amp;#、@&lt;/*-+!@#$%^&amp;*()_+=-][,./\;[]-~、"}
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "method": "GetAccount",
+ "params": {"chainId":"2", "address":"0x&gt;^&amp;#、@&lt;/*-+!@#$%^&amp;*()_+=-][,./''awd&gt;;"}
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "method": "",
+ "params": {"chainId":"2", "address":"0x2c7536e3605d9c16a7a3d7b1898e529396a65c23"}
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "method": "GetAccoun",
+ "params": {"chainId":"2", "address":"0x2c7536e3605d9c16a7a3d7b1898e529396a65c23"}
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "method": "GetAccount",
+ "params": {"chainId":"2", "address":""}
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "method": "GetAccount",
+ "params": {"chainId":"\""、", "address":"0x2c7536e3605d9c16a7a3d7b1898e529396a65c23"}
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "method": "GetAccount",
+ "params": {"chainId":2, "address":"0x2c7536e3605d9c16a7a3d7b1898e529396a65c23"}
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "method": "GetAccount",
+ "params": {"chainId":"-5", "address":"0x2c7536e3605d9c16a7a3d7b1898e529396a65c23"}
+}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -594,13 +1217,13 @@
     "params": {
         "chainId": "3",
      "fromChainId": "3",
-     "toChainId": 3,
+     "toChainId": "3",
      "from": "0x2c7536e3605d9c16a7a3d7b1898e529396a65c23",
-     "nonce": "4",
-     "to": "0xa561712AD5d1Ba59Ac1F962124b8b9d316cb544e",
+     "nonce": "203",
+     "to": "0x2c7536e3605d9c16a7a3d7b1898e529396a452a3",
      "input": "",
-     "value": "3",
-        "sig": "0x8cefcabacf232ad7364f5f68c0926b2d361fda20bac29e5357c502e5e055c11342832cc5c755f3f71cd3f3a1a374c1aef4e506e9ffec3b9abbdcb6a2fdf824cb1b",
+     "value": "300",
+        "sig": "0x4a887f2674367f17576779554abba1af704524ea73b4edef4b4d45fe7fcfc6fd71b563e9d35d60df429010980710f3d9dcd816f9d4e4be445511158ba31ee0491c",
         "pub": "0x043d85aa2a649fa5fd421988cebff58d7173f7b563b8a9594e92bcf3e9f5e43037c3463121af51aacc8a8cf2d8cfcc6fa717b774fc0aceec04d7185c87e279c1f6"
     }
 }</t>
@@ -611,612 +1234,39 @@
     "method": "SendTx",
     "params": {
         "chainId": "3",
+     "fromChainId": "3",
+     "toChainId": "3",
+     "from": "0x2c7536e3605d9c16a7a3d7b1898e529396a65c23",
+     "nonce": "204",
+     "to": "",
+     "input": "",
+     "value": "300",
+        "sig": "0xeca84bf256f0f3d79eaa10365b8b9e71f54f7b31e0c6983f57df5eb76702b76034f48999f20c70ab9a2a3b6de79d82750c5c1b935a34f63b8db3a06c3723ab341b",
+        "pub": "0x043d85aa2a649fa5fd421988cebff58d7173f7b563b8a9594e92bcf3e9f5e43037c3463121af51aacc8a8cf2d8cfcc6fa717b774fc0acee12345685c87e279c1f6"
+    }
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公钥信息输入错误</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "method": "SendTx",
+    "params": {
+     "chainId": "3",
      "fromChainId": 3,
      "toChainId": "3",
      "from": "0x2c7536e3605d9c16a7a3d7b1898e529396a65c23",
-     "nonce": "4",
-     "to": "0xa561712AD5d1Ba59Ac1F962124b8b9d316cb544e",
+     "nonce": "204",
+     "to": "0x2c7536e3605d9c16a7a3d7b1898e529396a452a3",
      "input": "",
-     "value": "3",
-        "sig": "0x8cefcabacf232ad7364f5f68c0926b2d361fda20bac29e5357c502e5e055c11342832cc5c755f3f71cd3f3a1a374c1aef4e506e9ffec3b9abbdcb6a2fdf824cb1b",
+     "value": "300",
+        "sig": "0x59acddea62dbc236c98102821b050806968ea3f2a2830efbac14c972ced863354cecffef2b3e0d7cef52cfdf148e717bac0cff8af9168dd93f08b8b5dfe5d72c1c",
         "pub": "0x043d85aa2a649fa5fd421988cebff58d7173f7b563b8a9594e92bcf3e9f5e43037c3463121af51aacc8a8cf2d8cfcc6fa717b774fc0aceec04d7185c87e279c1f6"
     }
 }</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回错误code码，输入的chainId应为string类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回错误code码，输入的toChainId应为string类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "method": "GetTransactionByHash",
- "params": {
- "chainId": "1",
- "hash":"0x55ef76bb4dc58f2cad45f606014626605484ec9f09defb42ce34a256b3ee4946"
- }
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "method": "",
- "params": {
-  "chainId": "2",
-  "fromChainId": "2",
-  "toChainId": "2",
-  "from": "0x2c7536e3605d9c16a7a3d7b1898e529396a65c20",
-  "nonce": "0",
-  "to": "0xa561712AD5d1Ba59Ac1F962124b8b9d316cb544e",
-  "input": "",
-  "value": "3",
-  "sig": "0x2f4b66508dde85d3cd7392dfdba2c07f0325571338efea79778070844df1256e2599c4b454d0a7ba99912d483cb35ba6688b7daf18a01a738523f8e1cfe0971c1b",
-  "pub": "0x043d85aa2a649fa5fd421988cebff58d7173f7b563b8a9594e92bcf3e9f5e43037c3463121af51aacc8a8cf2d8cfcc6fa717b774fc0aceec04d7185c87e279c1f6"
- }
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "method": "GetTransactionByHash",
- "params": {
- "chainId": "-3",
- "hash":"0x7060542c12f8835c92cf67d2f610921c7065fe791d0bdb28f680ea2223a4cb39"
- }
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "errMsg": "rpc error: code = Unknown desc = not found"
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "method": "GetTransactionByHash",
- "params": {
- "chainId": "\3",
- "hash":"0x7060542c12f8835c92cf67d2f610921c7065fe791d0bdb28f680ea2223a4cb39"
- }
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>chainId字段包含字符\、""等</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"errMsg":"Unmarshal request body err"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "method": "GetTransactionByHash",
- "params": {
- "chainId": 3,
- "hash":"0x7060542c12f8835c92cf67d2f610921c7065fe791d0bdb28f680ea2223a4cb39"
- }
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "method": "GetTransactionByHash",
- "params": {
- "chainId": "1",
- "hash":"0x7060542c12f8835c92cf67d2f610921c7065fe791d0bdb28f680ea2223a4cb39"
- }
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入的chainId超过挂载分片链的最大数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "method": "GetTransactionByHash",
- "params": {
- "chainId": "10",
- "hash":"0x7060542c12f8835c92cf67d2f610921c7065fe791d0bdb28f680ea2223a4cb39"
- }
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>chainId为负数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
-    "errMsg": "hash format error"
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "method": "GetTransactionByHash",
- "params": {
- "chainId": "3",
- "hash":""
- }
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "method": "GetTransactionByHash",
- "params": {
- "chainId": "3",
- "hash":"0x7060542c12f8835c92cf67d2f610921c7065fe791d0bdb28f680ea2223a4cb37"
- }
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易hash正确，但chainId输入错误</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "method": "GetTransactionByHash",
- "params": {
- "chainId": "3",
- "hash":"0x7060542c12f8835c92cf67d2f610921c7065fe791d0bdb28f680ea2223a4cb09"
- }
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>chainId正确，交易hash错误（长度符合规则）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "method": "GetTransactionByHash",
- "params": {
- "chainId": "3",
- "hash":"0x7060542c12f8835c92cf67d2f610921c7028f680ea2223a4cb39"
- }
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入的交易hash长度不满足66位</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "method": "CompileContract",
- "params": {
-  "chainId": "3",
-  "contract": "pragma solidity &gt;= 0.4.22;contract test {function multiply(uint a) public returns(uint d) {return a * 7;}}"
- }
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求方法正确，包含chainId字段，合约符合solidity编码规范</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>chainId为空</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "method": "CompileContract",
- "params": {
-  "chainId":"",
-  "contract": "pragma solidity &gt;= 0.4.22;contract test {function multiply(uint a) public returns(uint d) {return a * 7;}}"
- }
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>chainId为任意字段</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "method": "CompileContract",
- "params": {
-  "chainId":"QT",
-  "contract": "pragma solidity &gt;= 0.4.22;contract test {function multiply(uint a) public returns(uint d) {return a * 7;}}"
- }
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>chainId为负数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "method": "CompileContract",
- "params": {
-  "chainId":"-9",
-  "contract": "pragma solidity &gt;= 0.4.22;contract test {function multiply(uint a) public returns(uint d) {return a * 7;}}"
- }
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "method": "CompileContract",
- "params": {
-  "chainId":"\9",
-  "contract": "pragma solidity &gt;= 0.4.22;contract test {function multiply(uint a) public returns(uint d) {return a * 7;}}"
- }
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>chainId带有转义\字符</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入的contract合约信息为空</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "method": "CompileContract",
- "params": {
-  "chainId":"3",
-  "contract": ""
- }
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入的contract合约不满足solidity编码规范</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "method": "CompileContract",
- "params": {
-  "chainId":"3",
-  "contract": "pragma solidity &gt;= 0.4.22QT;contract test {function multiply(uint a) public returns(uint d) {return a * 7;}}"
- }
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求的方法为空</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "method": "",
- "params": {
-  "chainId":"3",
-  "contract": "pragma solidity &gt;= 0.4.22;contract test {function multiply(uint a) public returns(uint d) {return a * 7;}}"
- }
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求的方法错误</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "method": "CompileContrac",
- "params": {
-  "chainId":"3",
-  "contract": "pragma solidity &gt;= 0.4.22;contract test {function multiply(uint a) public returns(uint d) {return a * 7;}}"
- }
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求参数不包含chainId字段</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "method": "CompileContract",
- "params": {
-  "contract": "pragma solidity &gt;= 0.4.22;contract test {function multiply(uint a) public returns(uint d) {return a * 7;}}"
- }
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>path</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>method</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CaseNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sceneName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CaseName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Description</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>body</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>expect_content</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/chaininfo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetChainInfo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetBlockHeader</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetBlockTxs</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetStats</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CallTransaction</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetTransactions</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SaveContract</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetContract</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CompileContract</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetTransactionByHash</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>GetAccount</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CaseName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>链ID存在，地址符合规则，请求方法正确</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>sceneName</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SendTx</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ping</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/chaininfo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>正向用例</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>异常用例</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>异常用例</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>expect_code</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>expect_content</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>body</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Description</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>200</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>200</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>400</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>500</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>expect_code</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>expect_code</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"errMsg":"strconv.Atoi: parsing \"\": invalid syntax"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "method": "GetAccount",
- "params": {"chainId":"3", "address":"0x2c7536e3605d9c16a7a3d7b1898e529396a65c23"}
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"address":"0x2c7536e3605d9c16a7a3d7b1898e529396a65c23","balance":1.000000000004e+27,"codeHash":null,"nonce":5,"storageRoot":null}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "method": "GetAccount",
- "params": {"chainId":"", "address":"0x22C73038A2571F02948585b1312345B84d3b0f6B"}
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "method": "GetAccount",
- "params": {"chainId":"-5", "address":"0x2c7536e3605d9c16a7a3d7b1898e529396a65c23"}
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入的chainId为负数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>chainId为小数点</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "method": "GetAccount",
- "params": {"chainId":"1.9", "address":"0x22C73038A2571F02948585b13170A7B84d3b0f6B"}
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "method": "GetAccount",
- "params": {"chainId":1, "address":"0x2c7536e3605d9c16a7a3d7b1898e529396a65c23"}
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>500 Internal Server Error</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "method": "GetAccount",
- "params": {"chainId":"&amp;、&gt;、", "address":"0x2c7536e3605d9c16a7a3d7b1898e529396a65c23"}
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"errMsg":"strconv.Atoi: parsing \"&amp;、&gt;、\": invalid syntax"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"errMsg":"Unmarshal request body err"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "method": "GetAccount",
- "params": {"chainId":"1", "address":"0x&gt;^&amp;#、@&lt;/*-+!@#$%^&amp;*()_+=-][,./\;[]-~、"}
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "method": "GetAccoun",
- "params": {"chainId":"1", "address":"0x2c7536e3605d9c16a7a3d7b1898e529396a65c23"}
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求的方法名不存在</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求的方法名为空</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>address为非法字符（不包括转义字符\）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"errMsg":"invalid address"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "method": "GetAccount",
- "params": {"chainId":"1", "address":"0x&gt;^&amp;#、@&lt;/*-+!@#$%^&amp;*()_+=-][,./''awd&gt;;"}
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "method": "",
- "params": {"chainId":"1", "address":"0x2c7536e3605d9c16a7a3d7b1898e529396a65c23"}
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"errMsg":"method undefiend"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"errMsg":"method undefiend"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"errMsg":"chainId is too big"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>500 Internal Server Error</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"errMsg":"strconv.Atoi: parsing \"1.9\": invalid syntax"}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1278,7 +1328,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1351,6 +1401,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1359,7 +1433,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1419,6 +1493,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1726,25 +1815,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="15.625" style="13"/>
-    <col min="3" max="3" width="42.25" customWidth="1"/>
-    <col min="4" max="4" width="37.625" customWidth="1"/>
+    <col min="3" max="3" width="40.625" customWidth="1"/>
+    <col min="4" max="4" width="55.625" customWidth="1"/>
     <col min="5" max="5" width="12" style="22" customWidth="1"/>
-    <col min="6" max="6" width="43.25" customWidth="1"/>
+    <col min="6" max="6" width="55.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>142</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>139</v>
+        <v>82</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -1753,7 +1842,7 @@
     </row>
     <row r="2" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>120</v>
+        <v>63</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -1763,7 +1852,7 @@
     </row>
     <row r="3" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -1775,22 +1864,22 @@
     </row>
     <row r="4" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>122</v>
+        <v>65</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>140</v>
+        <v>83</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>152</v>
+        <v>95</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>151</v>
+        <v>94</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>149</v>
+        <v>92</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>150</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1798,19 +1887,19 @@
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>146</v>
+        <v>89</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>141</v>
+        <v>84</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>153</v>
+        <v>96</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1818,19 +1907,19 @@
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>147</v>
+        <v>90</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>153</v>
+        <v>96</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1838,19 +1927,19 @@
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>148</v>
+        <v>91</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>165</v>
+        <v>103</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>156</v>
+        <v>99</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>184</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1858,19 +1947,19 @@
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>147</v>
+        <v>90</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>164</v>
+        <v>102</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>156</v>
+        <v>99</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>183</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1878,19 +1967,19 @@
         <v>5</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>148</v>
+        <v>91</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>36</v>
+        <v>180</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>153</v>
+        <v>96</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>182</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1898,19 +1987,19 @@
         <v>6</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>147</v>
+        <v>90</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>156</v>
+        <v>99</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>168</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1918,19 +2007,19 @@
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>148</v>
+        <v>91</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>153</v>
+        <v>96</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>170</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1938,19 +2027,19 @@
         <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>147</v>
+        <v>90</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>6</v>
+        <v>181</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>155</v>
+        <v>98</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>171</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1958,19 +2047,19 @@
         <v>9</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>148</v>
+        <v>91</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13" s="9" t="s">
         <v>1</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1978,19 +2067,19 @@
         <v>10</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>147</v>
+        <v>90</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>33</v>
+        <v>183</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>153</v>
+        <v>96</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1998,19 +2087,19 @@
         <v>11</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>148</v>
+        <v>91</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>174</v>
+        <v>107</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>154</v>
+        <v>97</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>180</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2018,19 +2107,19 @@
         <v>12</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>148</v>
+        <v>91</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>175</v>
+        <v>108</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>153</v>
+        <v>96</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>181</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2038,19 +2127,19 @@
         <v>13</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>147</v>
+        <v>90</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>176</v>
+        <v>109</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>153</v>
+        <v>96</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2058,19 +2147,19 @@
         <v>14</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>148</v>
+        <v>91</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>155</v>
+        <v>98</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>171</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -2494,20 +2583,23 @@
   <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="3" max="3" width="40.625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="55.625" style="13" customWidth="1"/>
     <col min="5" max="5" width="15.625" style="22"/>
+    <col min="6" max="6" width="55.625" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>123</v>
+        <v>66</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -2516,7 +2608,7 @@
     </row>
     <row r="2" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>120</v>
+        <v>63</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
@@ -2526,7 +2618,7 @@
     </row>
     <row r="3" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -2538,28 +2630,28 @@
     </row>
     <row r="4" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>122</v>
+        <v>65</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>125</v>
+        <v>67</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>164</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>126</v>
+        <v>167</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>157</v>
+        <v>100</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>127</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
       <c r="B5" s="3"/>
-      <c r="C5" s="5"/>
+      <c r="C5" s="3"/>
       <c r="D5" s="6"/>
       <c r="E5" s="20"/>
       <c r="F5" s="6"/>
@@ -2568,7 +2660,7 @@
       <c r="A6" s="8"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="9"/>
+      <c r="D6" s="2"/>
       <c r="E6" s="21"/>
       <c r="F6" s="2"/>
     </row>
@@ -2632,7 +2724,7 @@
       <c r="A14" s="8"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="9"/>
+      <c r="D14" s="2"/>
       <c r="E14" s="21"/>
       <c r="F14" s="2"/>
     </row>
@@ -2640,7 +2732,7 @@
       <c r="A15" s="7"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="9"/>
+      <c r="D15" s="2"/>
       <c r="E15" s="21"/>
       <c r="F15" s="2"/>
     </row>
@@ -2869,78 +2961,103 @@
       <c r="F43" s="2"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C44" s="1"/>
       <c r="E44" s="21"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C45" s="1"/>
       <c r="E45" s="21"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C46" s="1"/>
       <c r="E46" s="21"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C47" s="1"/>
       <c r="E47" s="21"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C48" s="1"/>
       <c r="E48" s="21"/>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="49" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C49" s="1"/>
       <c r="E49" s="21"/>
     </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="50" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C50" s="1"/>
       <c r="E50" s="21"/>
     </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="51" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C51" s="1"/>
       <c r="E51" s="21"/>
     </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="52" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C52" s="1"/>
       <c r="E52" s="21"/>
     </row>
-    <row r="53" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="53" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C53" s="1"/>
       <c r="E53" s="21"/>
     </row>
-    <row r="54" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="54" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C54" s="1"/>
       <c r="E54" s="21"/>
     </row>
-    <row r="55" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="55" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C55" s="1"/>
       <c r="E55" s="21"/>
     </row>
-    <row r="56" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="56" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C56" s="1"/>
       <c r="E56" s="21"/>
     </row>
-    <row r="57" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="57" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C57" s="1"/>
       <c r="E57" s="21"/>
     </row>
-    <row r="58" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="58" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C58" s="1"/>
       <c r="E58" s="21"/>
     </row>
-    <row r="59" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="59" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C59" s="1"/>
       <c r="E59" s="21"/>
     </row>
-    <row r="60" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="60" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C60" s="1"/>
       <c r="E60" s="21"/>
     </row>
-    <row r="61" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="61" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C61" s="1"/>
       <c r="E61" s="21"/>
     </row>
-    <row r="62" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="62" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C62" s="1"/>
       <c r="E62" s="21"/>
     </row>
-    <row r="63" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="63" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C63" s="1"/>
       <c r="E63" s="21"/>
     </row>
-    <row r="64" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="64" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C64" s="1"/>
       <c r="E64" s="21"/>
     </row>
-    <row r="65" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="65" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C65" s="1"/>
       <c r="E65" s="21"/>
     </row>
-    <row r="66" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="66" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C66" s="1"/>
       <c r="E66" s="21"/>
     </row>
-    <row r="67" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="67" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C67" s="1"/>
       <c r="E67" s="21"/>
     </row>
-    <row r="68" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="68" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C68" s="1"/>
       <c r="E68" s="21"/>
     </row>
   </sheetData>
@@ -2954,20 +3071,23 @@
   <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H1048576"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="3" max="3" width="40.625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="55.625" style="13" customWidth="1"/>
     <col min="5" max="5" width="15.625" style="22"/>
+    <col min="6" max="6" width="55.625" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>123</v>
+        <v>66</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -2976,7 +3096,7 @@
     </row>
     <row r="2" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>120</v>
+        <v>63</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
@@ -2986,7 +3106,7 @@
     </row>
     <row r="3" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -2998,28 +3118,28 @@
     </row>
     <row r="4" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>122</v>
+        <v>65</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>125</v>
+        <v>67</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>163</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>126</v>
+        <v>167</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>157</v>
+        <v>100</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>127</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
       <c r="B5" s="3"/>
-      <c r="C5" s="5"/>
+      <c r="C5" s="3"/>
       <c r="D5" s="6"/>
       <c r="E5" s="20"/>
       <c r="F5" s="6"/>
@@ -3028,7 +3148,7 @@
       <c r="A6" s="8"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="9"/>
+      <c r="D6" s="2"/>
       <c r="E6" s="21"/>
       <c r="F6" s="2"/>
     </row>
@@ -3092,7 +3212,7 @@
       <c r="A14" s="8"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="9"/>
+      <c r="D14" s="2"/>
       <c r="E14" s="21"/>
       <c r="F14" s="2"/>
     </row>
@@ -3100,7 +3220,7 @@
       <c r="A15" s="7"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="9"/>
+      <c r="D15" s="2"/>
       <c r="E15" s="21"/>
       <c r="F15" s="2"/>
     </row>
@@ -3329,78 +3449,103 @@
       <c r="F43" s="2"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C44" s="1"/>
       <c r="E44" s="21"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C45" s="1"/>
       <c r="E45" s="21"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C46" s="1"/>
       <c r="E46" s="21"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C47" s="1"/>
       <c r="E47" s="21"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C48" s="1"/>
       <c r="E48" s="21"/>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="49" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C49" s="1"/>
       <c r="E49" s="21"/>
     </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="50" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C50" s="1"/>
       <c r="E50" s="21"/>
     </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="51" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C51" s="1"/>
       <c r="E51" s="21"/>
     </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="52" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C52" s="1"/>
       <c r="E52" s="21"/>
     </row>
-    <row r="53" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="53" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C53" s="1"/>
       <c r="E53" s="21"/>
     </row>
-    <row r="54" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="54" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C54" s="1"/>
       <c r="E54" s="21"/>
     </row>
-    <row r="55" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="55" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C55" s="1"/>
       <c r="E55" s="21"/>
     </row>
-    <row r="56" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="56" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C56" s="1"/>
       <c r="E56" s="21"/>
     </row>
-    <row r="57" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="57" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C57" s="1"/>
       <c r="E57" s="21"/>
     </row>
-    <row r="58" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="58" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C58" s="1"/>
       <c r="E58" s="21"/>
     </row>
-    <row r="59" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="59" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C59" s="1"/>
       <c r="E59" s="21"/>
     </row>
-    <row r="60" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="60" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C60" s="1"/>
       <c r="E60" s="21"/>
     </row>
-    <row r="61" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="61" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C61" s="1"/>
       <c r="E61" s="21"/>
     </row>
-    <row r="62" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="62" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C62" s="1"/>
       <c r="E62" s="21"/>
     </row>
-    <row r="63" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="63" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C63" s="1"/>
       <c r="E63" s="21"/>
     </row>
-    <row r="64" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="64" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C64" s="1"/>
       <c r="E64" s="21"/>
     </row>
-    <row r="65" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="65" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C65" s="1"/>
       <c r="E65" s="21"/>
     </row>
-    <row r="66" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="66" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C66" s="1"/>
       <c r="E66" s="21"/>
     </row>
-    <row r="67" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="67" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C67" s="1"/>
       <c r="E67" s="21"/>
     </row>
-    <row r="68" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="68" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C68" s="1"/>
       <c r="E68" s="21"/>
     </row>
   </sheetData>
@@ -3414,20 +3559,23 @@
   <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H1048576"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="3" max="3" width="40.625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="55.625" style="13" customWidth="1"/>
     <col min="5" max="5" width="15.625" style="22"/>
+    <col min="6" max="6" width="55.625" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>123</v>
+        <v>66</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>144</v>
+        <v>87</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -3436,10 +3584,10 @@
     </row>
     <row r="2" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>120</v>
+        <v>63</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>128</v>
+        <v>71</v>
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
@@ -3448,7 +3596,7 @@
     </row>
     <row r="3" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -3460,28 +3608,28 @@
     </row>
     <row r="4" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>122</v>
+        <v>65</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>125</v>
+        <v>67</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>163</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>126</v>
+        <v>167</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>157</v>
+        <v>100</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>127</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
       <c r="B5" s="3"/>
-      <c r="C5" s="5"/>
+      <c r="C5" s="3"/>
       <c r="D5" s="6"/>
       <c r="E5" s="20"/>
       <c r="F5" s="6"/>
@@ -3490,7 +3638,7 @@
       <c r="A6" s="8"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="9"/>
+      <c r="D6" s="2"/>
       <c r="E6" s="21"/>
       <c r="F6" s="2"/>
     </row>
@@ -3554,7 +3702,7 @@
       <c r="A14" s="8"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="9"/>
+      <c r="D14" s="2"/>
       <c r="E14" s="21"/>
       <c r="F14" s="2"/>
     </row>
@@ -3562,7 +3710,7 @@
       <c r="A15" s="7"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="9"/>
+      <c r="D15" s="2"/>
       <c r="E15" s="21"/>
       <c r="F15" s="2"/>
     </row>
@@ -3791,78 +3939,103 @@
       <c r="F43" s="2"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C44" s="1"/>
       <c r="E44" s="21"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C45" s="1"/>
       <c r="E45" s="21"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C46" s="1"/>
       <c r="E46" s="21"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C47" s="1"/>
       <c r="E47" s="21"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C48" s="1"/>
       <c r="E48" s="21"/>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="49" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C49" s="1"/>
       <c r="E49" s="21"/>
     </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="50" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C50" s="1"/>
       <c r="E50" s="21"/>
     </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="51" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C51" s="1"/>
       <c r="E51" s="21"/>
     </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="52" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C52" s="1"/>
       <c r="E52" s="21"/>
     </row>
-    <row r="53" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="53" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C53" s="1"/>
       <c r="E53" s="21"/>
     </row>
-    <row r="54" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="54" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C54" s="1"/>
       <c r="E54" s="21"/>
     </row>
-    <row r="55" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="55" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C55" s="1"/>
       <c r="E55" s="21"/>
     </row>
-    <row r="56" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="56" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C56" s="1"/>
       <c r="E56" s="21"/>
     </row>
-    <row r="57" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="57" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C57" s="1"/>
       <c r="E57" s="21"/>
     </row>
-    <row r="58" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="58" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C58" s="1"/>
       <c r="E58" s="21"/>
     </row>
-    <row r="59" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="59" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C59" s="1"/>
       <c r="E59" s="21"/>
     </row>
-    <row r="60" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="60" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C60" s="1"/>
       <c r="E60" s="21"/>
     </row>
-    <row r="61" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="61" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C61" s="1"/>
       <c r="E61" s="21"/>
     </row>
-    <row r="62" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="62" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C62" s="1"/>
       <c r="E62" s="21"/>
     </row>
-    <row r="63" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="63" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C63" s="1"/>
       <c r="E63" s="21"/>
     </row>
-    <row r="64" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="64" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C64" s="1"/>
       <c r="E64" s="21"/>
     </row>
-    <row r="65" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="65" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C65" s="1"/>
       <c r="E65" s="21"/>
     </row>
-    <row r="66" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="66" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C66" s="1"/>
       <c r="E66" s="21"/>
     </row>
-    <row r="67" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="67" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C67" s="1"/>
       <c r="E67" s="21"/>
     </row>
-    <row r="68" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="68" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C68" s="1"/>
       <c r="E68" s="21"/>
     </row>
   </sheetData>
@@ -3876,20 +4049,23 @@
   <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="3" max="3" width="40.625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="55.625" style="13" customWidth="1"/>
     <col min="5" max="5" width="15.625" style="22"/>
+    <col min="6" max="6" width="55.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>123</v>
+        <v>66</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>129</v>
+        <v>72</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -3898,10 +4074,10 @@
     </row>
     <row r="2" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>120</v>
+        <v>63</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>145</v>
+        <v>88</v>
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="17"/>
@@ -3910,7 +4086,7 @@
     </row>
     <row r="3" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -3922,28 +4098,28 @@
     </row>
     <row r="4" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>122</v>
+        <v>65</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>125</v>
+        <v>67</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>164</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>126</v>
+        <v>165</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>157</v>
+        <v>100</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>127</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
       <c r="B5" s="3"/>
-      <c r="C5" s="5"/>
+      <c r="C5" s="3"/>
       <c r="D5" s="6"/>
       <c r="E5" s="20"/>
       <c r="F5" s="6"/>
@@ -3952,7 +4128,7 @@
       <c r="A6" s="8"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="9"/>
+      <c r="D6" s="2"/>
       <c r="E6" s="21"/>
       <c r="F6" s="2"/>
     </row>
@@ -4016,7 +4192,7 @@
       <c r="A14" s="8"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="9"/>
+      <c r="D14" s="2"/>
       <c r="E14" s="21"/>
       <c r="F14" s="2"/>
     </row>
@@ -4024,7 +4200,7 @@
       <c r="A15" s="7"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="9"/>
+      <c r="D15" s="2"/>
       <c r="E15" s="21"/>
       <c r="F15" s="2"/>
     </row>
@@ -4253,78 +4429,103 @@
       <c r="F43" s="2"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C44" s="1"/>
       <c r="E44" s="21"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C45" s="1"/>
       <c r="E45" s="21"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C46" s="1"/>
       <c r="E46" s="21"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C47" s="1"/>
       <c r="E47" s="21"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C48" s="1"/>
       <c r="E48" s="21"/>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="49" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C49" s="1"/>
       <c r="E49" s="21"/>
     </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="50" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C50" s="1"/>
       <c r="E50" s="21"/>
     </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="51" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C51" s="1"/>
       <c r="E51" s="21"/>
     </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="52" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C52" s="1"/>
       <c r="E52" s="21"/>
     </row>
-    <row r="53" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="53" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C53" s="1"/>
       <c r="E53" s="21"/>
     </row>
-    <row r="54" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="54" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C54" s="1"/>
       <c r="E54" s="21"/>
     </row>
-    <row r="55" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="55" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C55" s="1"/>
       <c r="E55" s="21"/>
     </row>
-    <row r="56" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="56" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C56" s="1"/>
       <c r="E56" s="21"/>
     </row>
-    <row r="57" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="57" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C57" s="1"/>
       <c r="E57" s="21"/>
     </row>
-    <row r="58" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="58" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C58" s="1"/>
       <c r="E58" s="21"/>
     </row>
-    <row r="59" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="59" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C59" s="1"/>
       <c r="E59" s="21"/>
     </row>
-    <row r="60" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="60" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C60" s="1"/>
       <c r="E60" s="21"/>
     </row>
-    <row r="61" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="61" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C61" s="1"/>
       <c r="E61" s="21"/>
     </row>
-    <row r="62" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="62" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C62" s="1"/>
       <c r="E62" s="21"/>
     </row>
-    <row r="63" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="63" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C63" s="1"/>
       <c r="E63" s="21"/>
     </row>
-    <row r="64" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="64" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C64" s="1"/>
       <c r="E64" s="21"/>
     </row>
-    <row r="65" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="65" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C65" s="1"/>
       <c r="E65" s="21"/>
     </row>
-    <row r="66" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="66" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C66" s="1"/>
       <c r="E66" s="21"/>
     </row>
-    <row r="67" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="67" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C67" s="1"/>
       <c r="E67" s="21"/>
     </row>
-    <row r="68" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="68" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C68" s="1"/>
       <c r="E68" s="21"/>
     </row>
   </sheetData>
@@ -4337,21 +4538,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="3" max="3" width="40.625" customWidth="1"/>
+    <col min="4" max="4" width="55.625" customWidth="1"/>
     <col min="5" max="5" width="15.625" style="22"/>
+    <col min="6" max="6" width="55.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>123</v>
+        <v>66</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>143</v>
+        <v>86</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -4360,7 +4564,7 @@
     </row>
     <row r="2" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>120</v>
+        <v>63</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
@@ -4370,7 +4574,7 @@
     </row>
     <row r="3" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -4382,355 +4586,403 @@
     </row>
     <row r="4" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>122</v>
+        <v>65</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>124</v>
+        <v>67</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>157</v>
+        <v>100</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>127</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="8">
+      <c r="A5" s="7">
         <v>1</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="E5" s="20">
+      <c r="B5" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="E5" s="21">
         <v>200</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>21</v>
+      <c r="F5" s="2" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="7">
+      <c r="A6" s="8">
         <v>2</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="21">
+      <c r="B6" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="E6" s="20">
         <v>200</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>24</v>
+      <c r="F6" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>3</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="C7" s="2" t="s">
-        <v>40</v>
+        <v>144</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>48</v>
+        <v>141</v>
       </c>
       <c r="E7" s="21">
         <v>200</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>29</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="7">
         <v>4</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="C8" s="2" t="s">
-        <v>9</v>
+        <v>143</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>42</v>
+        <v>123</v>
       </c>
       <c r="E8" s="21">
         <v>200</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>51</v>
+      <c r="F8" s="2" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="8">
         <v>5</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="C9" s="2" t="s">
-        <v>41</v>
+        <v>125</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>8</v>
+        <v>127</v>
       </c>
       <c r="E9" s="21">
         <v>200</v>
       </c>
-      <c r="F9" s="9" t="s">
-        <v>23</v>
+      <c r="F9" s="2" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="7">
         <v>6</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="C10" s="2" t="s">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>17</v>
+        <v>129</v>
       </c>
       <c r="E10" s="21">
         <v>200</v>
       </c>
-      <c r="F10" s="9" t="s">
-        <v>18</v>
+      <c r="F10" s="2" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
         <v>7</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="C11" s="2" t="s">
-        <v>60</v>
+        <v>131</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>28</v>
+        <v>132</v>
       </c>
       <c r="E11" s="21">
         <v>200</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>27</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="7">
         <v>8</v>
       </c>
-      <c r="B12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="C12" s="2" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>45</v>
+        <v>134</v>
       </c>
       <c r="E12" s="21">
         <v>200</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>26</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="8">
         <v>9</v>
       </c>
-      <c r="B13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="C13" s="2" t="s">
-        <v>14</v>
+        <v>135</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>44</v>
+        <v>136</v>
       </c>
       <c r="E13" s="21">
         <v>200</v>
       </c>
-      <c r="F13" s="9" t="s">
-        <v>20</v>
+      <c r="F13" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="7">
         <v>10</v>
       </c>
-      <c r="B14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="C14" s="2" t="s">
-        <v>35</v>
+        <v>138</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>15</v>
+        <v>137</v>
       </c>
       <c r="E14" s="21">
         <v>200</v>
       </c>
-      <c r="F14" s="9" t="s">
-        <v>19</v>
+      <c r="F14" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="8">
         <v>11</v>
       </c>
-      <c r="B15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="C15" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>11</v>
+        <v>140</v>
       </c>
       <c r="E15" s="21">
         <v>200</v>
       </c>
-      <c r="F15" s="9" t="s">
-        <v>30</v>
+      <c r="F15" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="7">
         <v>12</v>
       </c>
-      <c r="B16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="C16" s="2" t="s">
-        <v>12</v>
+        <v>194</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>43</v>
+        <v>193</v>
       </c>
       <c r="E16" s="21">
         <v>200</v>
       </c>
-      <c r="F16" s="9" t="s">
-        <v>22</v>
+      <c r="F16" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="8">
         <v>13</v>
       </c>
-      <c r="B17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="C17" s="2" t="s">
-        <v>54</v>
+        <v>142</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>46</v>
+        <v>146</v>
       </c>
       <c r="E17" s="21">
         <v>200</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>47</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="7">
         <v>14</v>
       </c>
-      <c r="B18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="C18" s="2" t="s">
-        <v>58</v>
+        <v>145</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>56</v>
+        <v>147</v>
       </c>
       <c r="E18" s="21">
         <v>200</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>57</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="8">
         <v>15</v>
       </c>
-      <c r="B19" s="3"/>
+      <c r="B19" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="C19" s="2" t="s">
-        <v>49</v>
+        <v>149</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="E19" s="21">
         <v>200</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>50</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="7">
         <v>16</v>
       </c>
-      <c r="B20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="C20" s="2" t="s">
-        <v>61</v>
+        <v>151</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>52</v>
+        <v>153</v>
       </c>
       <c r="E20" s="21">
         <v>200</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>53</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="8">
+      <c r="A21" s="7">
         <v>17</v>
       </c>
-      <c r="B21" s="3"/>
+      <c r="B21" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="C21" s="2" t="s">
-        <v>62</v>
+        <v>154</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="E21" s="21">
+        <v>155</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="8">
+        <v>18</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="7">
+        <v>19</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E23" s="21">
         <v>500</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="7">
-        <v>18</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="E22" s="21">
-        <v>500</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="2"/>
+      <c r="F23" s="2" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2"/>
@@ -4983,20 +5235,23 @@
   <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H1048576"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="3" max="3" width="40.625" customWidth="1"/>
+    <col min="4" max="4" width="55.625" customWidth="1"/>
     <col min="5" max="5" width="15.625" style="22"/>
+    <col min="6" max="6" width="55.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>123</v>
+        <v>66</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -5005,7 +5260,7 @@
     </row>
     <row r="2" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>120</v>
+        <v>63</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
@@ -5015,7 +5270,7 @@
     </row>
     <row r="3" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -5027,109 +5282,119 @@
     </row>
     <row r="4" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>122</v>
+        <v>65</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>124</v>
+        <v>67</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>125</v>
+        <v>68</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>126</v>
+        <v>69</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>157</v>
+        <v>100</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>127</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7">
         <v>1</v>
       </c>
-      <c r="B5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>117</v>
+      </c>
       <c r="C5" s="4" t="s">
-        <v>74</v>
+        <v>170</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" s="20">
-        <v>200</v>
+        <v>173</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>156</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>68</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="8">
         <v>2</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" s="21">
-        <v>200</v>
+        <v>19</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>156</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="7">
         <v>3</v>
       </c>
-      <c r="B7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="C7" s="2" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" s="21">
-        <v>200</v>
+        <v>21</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>156</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="8">
         <v>4</v>
       </c>
-      <c r="B8" s="2"/>
+      <c r="B8" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="C8" s="2" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="E8" s="21">
-        <v>500</v>
+        <v>23</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>159</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>75</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
         <v>5</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="C9" s="2" t="s">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="E9" s="21">
-        <v>200</v>
+        <v>31</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>156</v>
       </c>
       <c r="F9" s="9"/>
     </row>
@@ -5137,15 +5402,17 @@
       <c r="A10" s="8">
         <v>6</v>
       </c>
-      <c r="B10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="C10" s="2" t="s">
-        <v>89</v>
+        <v>32</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="E10" s="21">
-        <v>200</v>
+        <v>33</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>156</v>
       </c>
       <c r="F10" s="9"/>
     </row>
@@ -5153,15 +5420,17 @@
       <c r="A11" s="7">
         <v>7</v>
       </c>
-      <c r="B11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="C11" s="2" t="s">
-        <v>91</v>
+        <v>34</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="E11" s="21">
-        <v>200</v>
+        <v>25</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>156</v>
       </c>
       <c r="F11" s="9"/>
     </row>
@@ -5169,33 +5438,37 @@
       <c r="A12" s="8">
         <v>8</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="C12" s="2" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="E12" s="21">
-        <v>400</v>
+        <v>27</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>162</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>86</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
         <v>9</v>
       </c>
-      <c r="B13" s="2"/>
+      <c r="B13" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="C13" s="2" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="E13" s="21">
-        <v>500</v>
+        <v>30</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>159</v>
       </c>
       <c r="F13" s="9"/>
     </row>
@@ -5203,51 +5476,57 @@
       <c r="A14" s="8">
         <v>10</v>
       </c>
-      <c r="B14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="C14" s="2" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="E14" s="21">
-        <v>200</v>
+        <v>36</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>156</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>92</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="7">
         <v>11</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="C15" s="2" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="E15" s="21">
-        <v>200</v>
+        <v>37</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>156</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>83</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="8">
         <v>12</v>
       </c>
-      <c r="B16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="C16" s="2" t="s">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="E16" s="21">
-        <v>200</v>
+        <v>39</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>156</v>
       </c>
       <c r="F16" s="9"/>
     </row>
@@ -5255,15 +5534,17 @@
       <c r="A17" s="7">
         <v>13</v>
       </c>
-      <c r="B17" s="2"/>
+      <c r="B17" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="C17" s="2" t="s">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="E17" s="21">
-        <v>200</v>
+        <v>41</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>156</v>
       </c>
       <c r="F17" s="9"/>
     </row>
@@ -5581,20 +5862,23 @@
   <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H1048576"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="3" max="3" width="40.625" customWidth="1"/>
+    <col min="4" max="4" width="55.625" customWidth="1"/>
     <col min="5" max="5" width="15.625" style="22"/>
+    <col min="6" max="6" width="55.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>123</v>
+        <v>66</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>133</v>
+        <v>76</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -5603,7 +5887,7 @@
     </row>
     <row r="2" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>120</v>
+        <v>63</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
@@ -5611,45 +5895,45 @@
       <c r="E2" s="18"/>
       <c r="F2" s="17"/>
     </row>
-    <row r="3" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>157</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>127</v>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="24"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="7"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="3"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="6"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="8"/>
@@ -5684,7 +5968,7 @@
       <c r="F9" s="9"/>
     </row>
     <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="7"/>
+      <c r="A10" s="8"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="9"/>
@@ -5724,7 +6008,7 @@
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="7"/>
+      <c r="A15" s="8"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="9"/>
@@ -5956,79 +6240,204 @@
       <c r="F43" s="2"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
       <c r="E44" s="21"/>
+      <c r="F44" s="1"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
       <c r="E45" s="21"/>
+      <c r="F45" s="1"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
       <c r="E46" s="21"/>
+      <c r="F46" s="1"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
       <c r="E47" s="21"/>
+      <c r="F47" s="1"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
       <c r="E48" s="21"/>
-    </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="F48" s="1"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
       <c r="E49" s="21"/>
-    </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="F49" s="1"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
       <c r="E50" s="21"/>
-    </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="F50" s="1"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
       <c r="E51" s="21"/>
-    </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="F51" s="1"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
       <c r="E52" s="21"/>
-    </row>
-    <row r="53" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="F52" s="1"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
       <c r="E53" s="21"/>
-    </row>
-    <row r="54" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="F53" s="1"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
       <c r="E54" s="21"/>
-    </row>
-    <row r="55" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="F54" s="1"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
       <c r="E55" s="21"/>
-    </row>
-    <row r="56" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="F55" s="1"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
       <c r="E56" s="21"/>
-    </row>
-    <row r="57" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="F56" s="1"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
       <c r="E57" s="21"/>
-    </row>
-    <row r="58" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="F57" s="1"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
       <c r="E58" s="21"/>
-    </row>
-    <row r="59" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="F58" s="1"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
       <c r="E59" s="21"/>
-    </row>
-    <row r="60" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="F59" s="1"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
       <c r="E60" s="21"/>
-    </row>
-    <row r="61" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="F60" s="1"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
       <c r="E61" s="21"/>
-    </row>
-    <row r="62" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="F61" s="1"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
       <c r="E62" s="21"/>
-    </row>
-    <row r="63" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="F62" s="1"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
       <c r="E63" s="21"/>
-    </row>
-    <row r="64" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="F63" s="1"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
       <c r="E64" s="21"/>
-    </row>
-    <row r="65" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="F64" s="1"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
       <c r="E65" s="21"/>
-    </row>
-    <row r="66" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="F65" s="1"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
       <c r="E66" s="21"/>
-    </row>
-    <row r="67" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="F66" s="1"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
       <c r="E67" s="21"/>
-    </row>
-    <row r="68" spans="5:5" x14ac:dyDescent="0.15">
+      <c r="F67" s="1"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
       <c r="E68" s="21"/>
+      <c r="F68" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -6041,20 +6450,23 @@
   <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H1048576"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="3" max="3" width="40.625" customWidth="1"/>
+    <col min="4" max="4" width="55.625" customWidth="1"/>
     <col min="5" max="5" width="15.625" style="22"/>
+    <col min="6" max="6" width="55.625" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>123</v>
+        <v>66</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>130</v>
+        <v>73</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -6063,7 +6475,7 @@
     </row>
     <row r="2" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>120</v>
+        <v>63</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
@@ -6073,7 +6485,7 @@
     </row>
     <row r="3" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -6084,31 +6496,31 @@
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>158</v>
+      <c r="A4" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>92</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>127</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="7"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="3"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="20"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="21"/>
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6144,7 +6556,7 @@
       <c r="F9" s="9"/>
     </row>
     <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="7"/>
+      <c r="A10" s="8"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="9"/>
@@ -6184,7 +6596,7 @@
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="7"/>
+      <c r="A15" s="8"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="9"/>
@@ -6416,78 +6828,178 @@
       <c r="F43" s="2"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
       <c r="E44" s="21"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
       <c r="E45" s="21"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
       <c r="E46" s="21"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
       <c r="E47" s="21"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
       <c r="E48" s="21"/>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
       <c r="E49" s="21"/>
     </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
       <c r="E50" s="21"/>
     </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
       <c r="E51" s="21"/>
     </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
       <c r="E52" s="21"/>
     </row>
-    <row r="53" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
       <c r="E53" s="21"/>
     </row>
-    <row r="54" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
       <c r="E54" s="21"/>
     </row>
-    <row r="55" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
       <c r="E55" s="21"/>
     </row>
-    <row r="56" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
       <c r="E56" s="21"/>
     </row>
-    <row r="57" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
       <c r="E57" s="21"/>
     </row>
-    <row r="58" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
       <c r="E58" s="21"/>
     </row>
-    <row r="59" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
       <c r="E59" s="21"/>
     </row>
-    <row r="60" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
       <c r="E60" s="21"/>
     </row>
-    <row r="61" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
       <c r="E61" s="21"/>
     </row>
-    <row r="62" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
       <c r="E62" s="21"/>
     </row>
-    <row r="63" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
       <c r="E63" s="21"/>
     </row>
-    <row r="64" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
       <c r="E64" s="21"/>
     </row>
-    <row r="65" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
       <c r="E65" s="21"/>
     </row>
-    <row r="66" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
       <c r="E66" s="21"/>
     </row>
-    <row r="67" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
       <c r="E67" s="21"/>
     </row>
-    <row r="68" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
       <c r="E68" s="21"/>
     </row>
   </sheetData>
@@ -6501,20 +7013,23 @@
   <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H1048576"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="3" max="3" width="40.625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="55.625" style="13" customWidth="1"/>
     <col min="5" max="5" width="15.625" style="22"/>
+    <col min="6" max="6" width="55.625" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>123</v>
+        <v>66</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>131</v>
+        <v>74</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -6523,7 +7038,7 @@
     </row>
     <row r="2" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>120</v>
+        <v>63</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
@@ -6533,7 +7048,7 @@
     </row>
     <row r="3" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -6545,28 +7060,28 @@
     </row>
     <row r="4" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>122</v>
+        <v>65</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>125</v>
+        <v>67</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>163</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>126</v>
+        <v>167</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>157</v>
+        <v>100</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>127</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
       <c r="B5" s="3"/>
-      <c r="C5" s="5"/>
+      <c r="C5" s="3"/>
       <c r="D5" s="6"/>
       <c r="E5" s="20"/>
       <c r="F5" s="6"/>
@@ -6575,7 +7090,7 @@
       <c r="A6" s="8"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="9"/>
+      <c r="D6" s="2"/>
       <c r="E6" s="21"/>
       <c r="F6" s="2"/>
     </row>
@@ -6639,7 +7154,7 @@
       <c r="A14" s="8"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="9"/>
+      <c r="D14" s="2"/>
       <c r="E14" s="21"/>
       <c r="F14" s="2"/>
     </row>
@@ -6647,7 +7162,7 @@
       <c r="A15" s="7"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="9"/>
+      <c r="D15" s="2"/>
       <c r="E15" s="21"/>
       <c r="F15" s="2"/>
     </row>
@@ -6876,78 +7391,103 @@
       <c r="F43" s="2"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C44" s="1"/>
       <c r="E44" s="21"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C45" s="1"/>
       <c r="E45" s="21"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C46" s="1"/>
       <c r="E46" s="21"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C47" s="1"/>
       <c r="E47" s="21"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C48" s="1"/>
       <c r="E48" s="21"/>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="49" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C49" s="1"/>
       <c r="E49" s="21"/>
     </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="50" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C50" s="1"/>
       <c r="E50" s="21"/>
     </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="51" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C51" s="1"/>
       <c r="E51" s="21"/>
     </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="52" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C52" s="1"/>
       <c r="E52" s="21"/>
     </row>
-    <row r="53" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="53" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C53" s="1"/>
       <c r="E53" s="21"/>
     </row>
-    <row r="54" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="54" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C54" s="1"/>
       <c r="E54" s="21"/>
     </row>
-    <row r="55" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="55" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C55" s="1"/>
       <c r="E55" s="21"/>
     </row>
-    <row r="56" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="56" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C56" s="1"/>
       <c r="E56" s="21"/>
     </row>
-    <row r="57" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="57" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C57" s="1"/>
       <c r="E57" s="21"/>
     </row>
-    <row r="58" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="58" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C58" s="1"/>
       <c r="E58" s="21"/>
     </row>
-    <row r="59" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="59" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C59" s="1"/>
       <c r="E59" s="21"/>
     </row>
-    <row r="60" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="60" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C60" s="1"/>
       <c r="E60" s="21"/>
     </row>
-    <row r="61" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="61" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C61" s="1"/>
       <c r="E61" s="21"/>
     </row>
-    <row r="62" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="62" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C62" s="1"/>
       <c r="E62" s="21"/>
     </row>
-    <row r="63" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="63" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C63" s="1"/>
       <c r="E63" s="21"/>
     </row>
-    <row r="64" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="64" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C64" s="1"/>
       <c r="E64" s="21"/>
     </row>
-    <row r="65" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="65" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C65" s="1"/>
       <c r="E65" s="21"/>
     </row>
-    <row r="66" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="66" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C66" s="1"/>
       <c r="E66" s="21"/>
     </row>
-    <row r="67" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="67" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C67" s="1"/>
       <c r="E67" s="21"/>
     </row>
-    <row r="68" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="68" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C68" s="1"/>
       <c r="E68" s="21"/>
     </row>
   </sheetData>
@@ -6961,21 +7501,24 @@
   <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H1048576"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15.625" style="12"/>
+    <col min="3" max="3" width="40.625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="55.625" style="13" customWidth="1"/>
     <col min="5" max="5" width="15.625" style="22"/>
+    <col min="6" max="6" width="55.625" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>123</v>
+        <v>66</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>137</v>
+        <v>80</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -6984,7 +7527,7 @@
     </row>
     <row r="2" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>120</v>
+        <v>63</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
@@ -6994,7 +7537,7 @@
     </row>
     <row r="3" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -7006,22 +7549,22 @@
     </row>
     <row r="4" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>122</v>
+        <v>65</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>125</v>
+        <v>67</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>163</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>126</v>
+        <v>167</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>157</v>
+        <v>100</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>127</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7029,11 +7572,11 @@
         <v>1</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="4" t="s">
-        <v>101</v>
+      <c r="C5" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="E5" s="20">
         <v>200</v>
@@ -7045,43 +7588,43 @@
         <v>2</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>119</v>
+      <c r="C6" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="E6" s="21">
         <v>200</v>
       </c>
-      <c r="F6" s="6"/>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="11">
         <v>3</v>
       </c>
       <c r="B7" s="1"/>
-      <c r="C7" s="2" t="s">
-        <v>102</v>
+      <c r="C7" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="E7" s="21">
         <v>200</v>
       </c>
-      <c r="F7" s="2"/>
+      <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="11">
         <v>4</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="2" t="s">
-        <v>104</v>
+      <c r="C8" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="E8" s="21">
         <v>200</v>
@@ -7093,11 +7636,11 @@
         <v>5</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="2" t="s">
-        <v>106</v>
+      <c r="C9" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>107</v>
+        <v>50</v>
       </c>
       <c r="E9" s="21">
         <v>200</v>
@@ -7109,11 +7652,11 @@
         <v>6</v>
       </c>
       <c r="B10" s="1"/>
-      <c r="C10" s="2" t="s">
-        <v>109</v>
+      <c r="C10" s="3" t="s">
+        <v>52</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>108</v>
+        <v>51</v>
       </c>
       <c r="E10" s="21">
         <v>400</v>
@@ -7125,11 +7668,11 @@
         <v>7</v>
       </c>
       <c r="B11" s="1"/>
-      <c r="C11" s="2" t="s">
-        <v>110</v>
+      <c r="C11" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>111</v>
+        <v>54</v>
       </c>
       <c r="E11" s="21">
         <v>200</v>
@@ -7141,11 +7684,11 @@
         <v>8</v>
       </c>
       <c r="B12" s="1"/>
-      <c r="C12" s="2" t="s">
-        <v>112</v>
+      <c r="C12" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>113</v>
+        <v>56</v>
       </c>
       <c r="E12" s="21">
         <v>200</v>
@@ -7157,11 +7700,11 @@
         <v>9</v>
       </c>
       <c r="B13" s="1"/>
-      <c r="C13" s="2" t="s">
-        <v>114</v>
+      <c r="C13" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>115</v>
+        <v>58</v>
       </c>
       <c r="E13" s="21">
         <v>200</v>
@@ -7173,22 +7716,22 @@
         <v>10</v>
       </c>
       <c r="B14" s="1"/>
-      <c r="C14" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>117</v>
+      <c r="C14" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="E14" s="21">
         <v>200</v>
       </c>
-      <c r="F14" s="9"/>
+      <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="11"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="9"/>
+      <c r="D15" s="2"/>
       <c r="E15" s="21"/>
       <c r="F15" s="2"/>
     </row>
@@ -7196,7 +7739,7 @@
       <c r="A16" s="8"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="9"/>
+      <c r="D16" s="2"/>
       <c r="E16" s="21"/>
       <c r="F16" s="2"/>
     </row>
@@ -7419,81 +7962,103 @@
     <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="8"/>
       <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="2"/>
+      <c r="C44" s="1"/>
       <c r="E44" s="21"/>
-      <c r="F44" s="2"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C45" s="1"/>
       <c r="E45" s="21"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C46" s="1"/>
       <c r="E46" s="21"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C47" s="1"/>
       <c r="E47" s="21"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C48" s="1"/>
       <c r="E48" s="21"/>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="49" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C49" s="1"/>
       <c r="E49" s="21"/>
     </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="50" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C50" s="1"/>
       <c r="E50" s="21"/>
     </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="51" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C51" s="1"/>
       <c r="E51" s="21"/>
     </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="52" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C52" s="1"/>
       <c r="E52" s="21"/>
     </row>
-    <row r="53" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="53" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C53" s="1"/>
       <c r="E53" s="21"/>
     </row>
-    <row r="54" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="54" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C54" s="1"/>
       <c r="E54" s="21"/>
     </row>
-    <row r="55" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="55" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C55" s="1"/>
       <c r="E55" s="21"/>
     </row>
-    <row r="56" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="56" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C56" s="1"/>
       <c r="E56" s="21"/>
     </row>
-    <row r="57" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="57" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C57" s="1"/>
       <c r="E57" s="21"/>
     </row>
-    <row r="58" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="58" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C58" s="1"/>
       <c r="E58" s="21"/>
     </row>
-    <row r="59" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="59" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C59" s="1"/>
       <c r="E59" s="21"/>
     </row>
-    <row r="60" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="60" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C60" s="1"/>
       <c r="E60" s="21"/>
     </row>
-    <row r="61" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="61" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C61" s="1"/>
       <c r="E61" s="21"/>
     </row>
-    <row r="62" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="62" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C62" s="1"/>
       <c r="E62" s="21"/>
     </row>
-    <row r="63" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="63" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C63" s="1"/>
       <c r="E63" s="21"/>
     </row>
-    <row r="64" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="64" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C64" s="1"/>
       <c r="E64" s="21"/>
     </row>
-    <row r="65" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="65" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C65" s="1"/>
       <c r="E65" s="21"/>
     </row>
-    <row r="66" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="66" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C66" s="1"/>
       <c r="E66" s="21"/>
     </row>
-    <row r="67" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="67" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C67" s="1"/>
       <c r="E67" s="21"/>
     </row>
-    <row r="68" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="68" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C68" s="1"/>
       <c r="E68" s="21"/>
     </row>
   </sheetData>
@@ -7507,20 +8072,23 @@
   <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H1048576"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="3" max="3" width="40.625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="55.625" style="13" customWidth="1"/>
     <col min="5" max="5" width="15.625" style="22"/>
+    <col min="6" max="6" width="55.625" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>123</v>
+        <v>66</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -7529,7 +8097,7 @@
     </row>
     <row r="2" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>120</v>
+        <v>63</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
@@ -7539,7 +8107,7 @@
     </row>
     <row r="3" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -7551,28 +8119,28 @@
     </row>
     <row r="4" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>122</v>
+        <v>65</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>125</v>
+        <v>67</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>163</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>126</v>
+        <v>167</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>158</v>
+        <v>101</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>127</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
       <c r="B5" s="3"/>
-      <c r="C5" s="5"/>
+      <c r="C5" s="3"/>
       <c r="D5" s="6"/>
       <c r="E5" s="20"/>
       <c r="F5" s="6"/>
@@ -7581,7 +8149,7 @@
       <c r="A6" s="8"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="9"/>
+      <c r="D6" s="2"/>
       <c r="E6" s="21"/>
       <c r="F6" s="2"/>
     </row>
@@ -7645,7 +8213,7 @@
       <c r="A14" s="8"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="9"/>
+      <c r="D14" s="2"/>
       <c r="E14" s="21"/>
       <c r="F14" s="2"/>
     </row>
@@ -7653,7 +8221,7 @@
       <c r="A15" s="7"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="9"/>
+      <c r="D15" s="2"/>
       <c r="E15" s="21"/>
       <c r="F15" s="2"/>
     </row>
@@ -7882,78 +8450,103 @@
       <c r="F43" s="2"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C44" s="1"/>
       <c r="E44" s="21"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C45" s="1"/>
       <c r="E45" s="21"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C46" s="1"/>
       <c r="E46" s="21"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C47" s="1"/>
       <c r="E47" s="21"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C48" s="1"/>
       <c r="E48" s="21"/>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="49" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C49" s="1"/>
       <c r="E49" s="21"/>
     </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="50" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C50" s="1"/>
       <c r="E50" s="21"/>
     </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="51" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C51" s="1"/>
       <c r="E51" s="21"/>
     </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="52" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C52" s="1"/>
       <c r="E52" s="21"/>
     </row>
-    <row r="53" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="53" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C53" s="1"/>
       <c r="E53" s="21"/>
     </row>
-    <row r="54" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="54" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C54" s="1"/>
       <c r="E54" s="21"/>
     </row>
-    <row r="55" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="55" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C55" s="1"/>
       <c r="E55" s="21"/>
     </row>
-    <row r="56" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="56" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C56" s="1"/>
       <c r="E56" s="21"/>
     </row>
-    <row r="57" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="57" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C57" s="1"/>
       <c r="E57" s="21"/>
     </row>
-    <row r="58" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="58" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C58" s="1"/>
       <c r="E58" s="21"/>
     </row>
-    <row r="59" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="59" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C59" s="1"/>
       <c r="E59" s="21"/>
     </row>
-    <row r="60" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="60" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C60" s="1"/>
       <c r="E60" s="21"/>
     </row>
-    <row r="61" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="61" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C61" s="1"/>
       <c r="E61" s="21"/>
     </row>
-    <row r="62" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="62" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C62" s="1"/>
       <c r="E62" s="21"/>
     </row>
-    <row r="63" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="63" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C63" s="1"/>
       <c r="E63" s="21"/>
     </row>
-    <row r="64" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="64" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C64" s="1"/>
       <c r="E64" s="21"/>
     </row>
-    <row r="65" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="65" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C65" s="1"/>
       <c r="E65" s="21"/>
     </row>
-    <row r="66" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="66" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C66" s="1"/>
       <c r="E66" s="21"/>
     </row>
-    <row r="67" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="67" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C67" s="1"/>
       <c r="E67" s="21"/>
     </row>
-    <row r="68" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="68" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C68" s="1"/>
       <c r="E68" s="21"/>
     </row>
   </sheetData>
@@ -7967,20 +8560,23 @@
   <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H1048576"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="3" max="3" width="40.625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="55.625" style="13" customWidth="1"/>
     <col min="5" max="5" width="15.625" style="22"/>
+    <col min="6" max="6" width="55.625" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>123</v>
+        <v>66</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>135</v>
+        <v>78</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -7989,7 +8585,7 @@
     </row>
     <row r="2" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>120</v>
+        <v>63</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
@@ -7999,7 +8595,7 @@
     </row>
     <row r="3" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -8011,28 +8607,28 @@
     </row>
     <row r="4" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>122</v>
+        <v>65</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>125</v>
+        <v>67</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>163</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>126</v>
+        <v>165</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>158</v>
+        <v>101</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>127</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="7"/>
       <c r="B5" s="3"/>
-      <c r="C5" s="5"/>
+      <c r="C5" s="3"/>
       <c r="D5" s="6"/>
       <c r="E5" s="20"/>
       <c r="F5" s="6"/>
@@ -8041,7 +8637,7 @@
       <c r="A6" s="8"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="9"/>
+      <c r="D6" s="2"/>
       <c r="E6" s="21"/>
       <c r="F6" s="2"/>
     </row>
@@ -8105,7 +8701,7 @@
       <c r="A14" s="8"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="9"/>
+      <c r="D14" s="2"/>
       <c r="E14" s="21"/>
       <c r="F14" s="2"/>
     </row>
@@ -8113,7 +8709,7 @@
       <c r="A15" s="7"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="9"/>
+      <c r="D15" s="2"/>
       <c r="E15" s="21"/>
       <c r="F15" s="2"/>
     </row>
@@ -8342,78 +8938,103 @@
       <c r="F43" s="2"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C44" s="1"/>
       <c r="E44" s="21"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C45" s="1"/>
       <c r="E45" s="21"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C46" s="1"/>
       <c r="E46" s="21"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C47" s="1"/>
       <c r="E47" s="21"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="C48" s="1"/>
       <c r="E48" s="21"/>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="49" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C49" s="1"/>
       <c r="E49" s="21"/>
     </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="50" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C50" s="1"/>
       <c r="E50" s="21"/>
     </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="51" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C51" s="1"/>
       <c r="E51" s="21"/>
     </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="52" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C52" s="1"/>
       <c r="E52" s="21"/>
     </row>
-    <row r="53" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="53" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C53" s="1"/>
       <c r="E53" s="21"/>
     </row>
-    <row r="54" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="54" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C54" s="1"/>
       <c r="E54" s="21"/>
     </row>
-    <row r="55" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="55" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C55" s="1"/>
       <c r="E55" s="21"/>
     </row>
-    <row r="56" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="56" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C56" s="1"/>
       <c r="E56" s="21"/>
     </row>
-    <row r="57" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="57" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C57" s="1"/>
       <c r="E57" s="21"/>
     </row>
-    <row r="58" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="58" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C58" s="1"/>
       <c r="E58" s="21"/>
     </row>
-    <row r="59" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="59" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C59" s="1"/>
       <c r="E59" s="21"/>
     </row>
-    <row r="60" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="60" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C60" s="1"/>
       <c r="E60" s="21"/>
     </row>
-    <row r="61" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="61" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C61" s="1"/>
       <c r="E61" s="21"/>
     </row>
-    <row r="62" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="62" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C62" s="1"/>
       <c r="E62" s="21"/>
     </row>
-    <row r="63" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="63" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C63" s="1"/>
       <c r="E63" s="21"/>
     </row>
-    <row r="64" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="64" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C64" s="1"/>
       <c r="E64" s="21"/>
     </row>
-    <row r="65" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="65" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C65" s="1"/>
       <c r="E65" s="21"/>
     </row>
-    <row r="66" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="66" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C66" s="1"/>
       <c r="E66" s="21"/>
     </row>
-    <row r="67" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="67" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C67" s="1"/>
       <c r="E67" s="21"/>
     </row>
-    <row r="68" spans="5:5" x14ac:dyDescent="0.15">
+    <row r="68" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C68" s="1"/>
       <c r="E68" s="21"/>
     </row>
   </sheetData>

--- a/testData/testData.xlsx
+++ b/testData/testData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="934"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="934" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="GetAccount" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="560">
   <si>
     <t>post</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -895,8 +895,148 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{
- "method": "",
+    <t>Description</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求方法为空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求方法输入错误</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chainId正确，chainid与交易hash匹配，请求方法正确</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求的方法名为空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求的方法名不存在</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chainId为空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chainId为小数点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入的chainId超过挂载分片链的最大数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chainId为负数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chainId为非string类型（如输入int类型）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>签名公钥均与交易信息匹配，交易信息正常填写</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求的方法名为空或不存在</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>转出账户地址为空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>转出账户地址无效</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>转出账户地址无余额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>转账金额超过账户本身余额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>转账金额包含小数点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>转账金额为空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chainId与fromChainId不一致时</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>跨链转账（fromChainId和toChainId不同）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>签名信息错误</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公钥信息输入错误</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收币账户地址为空，input信息为空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>链ID存在，地址符合规则，请求方法正确</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chainId为空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chainId为小数点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入的chainId为负数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入的chainId超过所能挂载的最大值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>传入的chainId为int类型（非string类型）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chainId为非法字符串（不包括转义字符\）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址为空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址错误</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "method": "GetChainIfo",
  "params": {
   "chainIds":"2"
  }
@@ -904,235 +1044,78 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Description</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求方法为空</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求方法输入错误</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Description</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Description</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>chainId正确，chainid与交易hash匹配，请求方法正确</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求的方法名为空</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求的方法名不存在</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>chainId为空</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>chainId为小数点</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入的chainId超过挂载分片链的最大数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>chainId为负数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>chainId为非string类型（如输入int类型）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>签名公钥均与交易信息匹配，交易信息正常填写</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求的方法名为空或不存在</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>转出账户地址为空</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>转出账户地址无效</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>转出账户地址无余额</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>转账金额超过账户本身余额</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>转账金额包含小数点</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>转账金额为空</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>chainId与fromChainId不一致时</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>跨链转账（fromChainId和toChainId不同）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>签名信息错误</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>公钥信息输入错误</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收币账户地址为空，input信息为空</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>链ID存在，地址符合规则，请求方法正确</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>chainId为空</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>chainId为小数点</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入的chainId为负数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入的chainId超过所能挂载的最大值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>传入的chainId为int类型（非string类型）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>chainId为非法字符串（不包括转义字符\）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>地址为空</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>地址错误</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "method": "GetChainIfo",
+    <t>200</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chainIds输入为空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "method": "GetChainInfo",
+ "params": {
+  "chainIds":""
+ }
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"errMsg":"chainIds err"}</t>
+  </si>
+  <si>
+    <t>chainIds输入含小数点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chainIds输入字段为负数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "method": "GetChainInfo",
+ "params": {
+  "chainIds":"-5"
+ }
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "method": "GetChainInfo",
+ "params": {
+  "chainIds":"1.99"
+ }
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"nodeId":"0x5e17128ba224a96d6e84be0c7f899febea26c55c78940610d78a0d22dbd0ab03cc3233491de0b5eb770dbf850b509bd191723df4fc40520bcbab565d46543d6e","version":"V1.0.0","isDataNode":true,"dataNodeOf":0,"lastMsgTime":1562052941,"lastEventTime":1562052941,"lastBlockTime":1562052940,"overflow":false,"lastBlocks":{"0":15759},"opTypes":{"0":["DATA"]}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求方法正确，chainIds为数组格式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{"chainId":2,"datanodes":[{"dataNodeId":"0xa93b150f11c422d8700554859281be8e34a91a859e0e021af186002c7e4a2661ea2467a63b417030d68e2fdddeb4342943dff13225da77124abf912fd092f71f","dataNodeIp":"192.168.1.11","dataNodePort":22018}],"mode":6,"parent":0}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chainIds输入为非数组类型，如int类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chainIds输入字段为string类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "method": "GetChainInfo",
  "params": {
   "chainIds":"2"
  }
 }</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>200</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>chainIds输入为空</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "method": "GetChainInfo",
- "params": {
-  "chainIds":""
- }
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"errMsg":"chainIds err"}</t>
-  </si>
-  <si>
-    <t>[{"chainId":0,"datanodes":[{"dataNodeId":"0x5e17128ba224a96d6e84be0c7f899febea26c55c78940610d78a0d22dbd0ab03cc3233491de0b5eb770dbf850b509bd191723df4fc40520bcbab565d46543d6e","dataNodeIp":"192.168.1.11","dataNodePort":22010}],"mode":5,"parent":1048576},{"chainId":1,"datanodes":[{"dataNodeId":"0x96dc94580e0eadd78691807f6eac9759b9964daa8b46da4378902b040e0eb102cb48413308d2131e9e5557321f30ba9287794f689854e6d2e63928a082e79286","dataNodeIp":"192.168.1.11","dataNodePort":22014}],"mode":6,"parent":0},{"chainId":2,"datanodes":[{"dataNodeId":"0xa93b150f11c422d8700554859281be8e34a91a859e0e021af186002c7e4a2661ea2467a63b417030d68e2fdddeb4342943dff13225da77124abf912fd092f71f","dataNodeIp":"192.168.1.11","dataNodePort":22018}],"mode":6,"parent":0},{"chainId":3,"datanodes":[{"dataNodeId":"0x783f4b2490461ecfd8ee8d3451e434de06bacb0ffff56de53a33fe545589094fa0b929eeaa62dc5203d1e831ccdd37d206d0b85b193921efb223bf0cb2f37b4c","dataNodeIp":"192.168.1.12","dataNodePort":22010}],"mode":7,"parent":1},{"chainId":4,"datanodes":[{"dataNodeId":"0x44c98ab831f3ca4553e491bba06753e959ceb55d43e18bc76539572feb1e0dbaf2fbfc19f571d6544e82be1c7c39760f6a023d4be4dcb9473dd580c731d03926","dataNodeIp":"192.168.1.12","dataNodePort":22014}],"mode":7,"parent":1}]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>chainIds输入含小数点</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>chainIds输入字段为负数</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "method": "GetChainInfo",
- "params": {
-  "chainIds":"-5"
- }
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "method": "GetChainInfo",
- "params": {
-  "chainIds":"1.99"
- }
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"nodeId":"0x5e17128ba224a96d6e84be0c7f899febea26c55c78940610d78a0d22dbd0ab03cc3233491de0b5eb770dbf850b509bd191723df4fc40520bcbab565d46543d6e","version":"V1.0.0","isDataNode":true,"dataNodeOf":0,"lastMsgTime":1562052941,"lastEventTime":1562052941,"lastBlockTime":1562052940,"overflow":false,"lastBlocks":{"0":15759},"opTypes":{"0":["DATA"]}}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求方法正确，chainIds为数组格式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"chainId":2,"datanodes":[{"dataNodeId":"0xa93b150f11c422d8700554859281be8e34a91a859e0e021af186002c7e4a2661ea2467a63b417030d68e2fdddeb4342943dff13225da77124abf912fd092f71f","dataNodeIp":"192.168.1.11","dataNodePort":22018}],"mode":6,"parent":0}]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>chainIds输入为非数组类型，如int类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>chainIds输入字段为string类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "method": "GetChainInfo",
- "params": {
-  "chainIds":"2"
- }
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>[{"chainId":0,"datanodes":[{"dataNodeId":"0x5e17128ba224a96d6e84be0c7f899febea26c55c78940610d78a0d22dbd0ab03cc3233491de0b5eb770dbf850b509bd191723df4fc40520bcbab565d46543d6e","dataNodeIp":"192.168.1.11","dataNodePort":22010}],"mode":5,"parent":1048576},{"chainId":1,"datanodes":[{"dataNodeId":"0x96dc94580e0eadd78691807f6eac9759b9964daa8b46da4378902b040e0eb102cb48413308d2131e9e5557321f30ba9287794f689854e6d2e63928a082e79286","dataNodeIp":"192.168.1.11","dataNodePort":22014}],"mode":6,"parent":0},{"chainId":2,"datanodes":[{"dataNodeId":"0xa93b150f11c422d8700554859281be8e34a91a859e0e021af186002c7e4a2661ea2467a63b417030d68e2fdddeb4342943dff13225da77124abf912fd092f71f","dataNodeIp":"192.168.1.11","dataNodePort":22018}],"mode":6,"parent":0},{"chainId":3,"datanodes":[{"dataNodeId":"0x783f4b2490461ecfd8ee8d3451e434de06bacb0ffff56de53a33fe545589094fa0b929eeaa62dc5203d1e831ccdd37d206d0b85b193921efb223bf0cb2f37b4c","dataNodeIp":"192.168.1.12","dataNodePort":22010}],"mode":7,"parent":1},{"chainId":4,"datanodes":[{"dataNodeId":"0x44c98ab831f3ca4553e491bba06753e959ceb55d43e18bc76539572feb1e0dbaf2fbfc19f571d6544e82be1c7c39760f6a023d4be4dcb9473dd580c731d03926","dataNodeIp":"192.168.1.12","dataNodePort":22014}],"mode":7,"parent":1}]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -3244,10 +3227,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>请求body缺乏字段to</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>请求body缺乏字段nonce</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3425,17 +3404,6 @@
  "method": "GetTransactions",
  "params": {
   "chainId":"2",
-  "startHeight": "53119", 
-  "endHeight": "53250"
- }
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "method": "GetTransactions",
- "params": {
-  "chainId":"2",
   "address":"0x2c7536e3605d9c16a7a3d7b1898e529396a65c23", 
   "endHeight": "53250"
  }
@@ -3614,8 +3582,69 @@
   </si>
   <si>
     <t>{
+ "method": "Ping",
+ "params": {
+  "address":"192.168.1.11:22010"
+ }
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求body缺乏字段address</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "params": {
+  "address":"192.168.1.11:22010"
+ }
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "method": "Ping",
+ "params": {
+ }
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"errMsg":"param address is must"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回错误code码，输入的toChainId应为string类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回错误code码，输入的fromChainId应为string类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求body缺少字段method</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求body缺少字段address</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"errMsg":"rpc error: code = Unknown desc = address length not match"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
  "method": "GetChainInfo",
  "params": {
+ }
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "method": "GetChainInfo",
+ "params": {
   "chainIds":[2]
  }
 }</t>
@@ -3623,35 +3652,32 @@
   </si>
   <si>
     <t>{
- "method": "Ping",
- "params": {
-  "address":"192.168.1.11:22010"
- }
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求body缺乏字段address</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "params": {
-  "address":"192.168.1.11:22010"
- }
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "method": "Ping",
- "params": {
- }
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"errMsg":"param address is must"}</t>
+ "method": "",
+ "params": {
+  "chainIds":"2"
+ }
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看所有链结构</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "method": "GetChainInfo",
+ "params": {
+  "chainIds":[]
+ }
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>200</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"errMsg":"param chainIds is must"}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -3663,35 +3689,26 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{
- "method": "GetChainInfo",
- "params": {
- }
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"errMsg":"param chainIds is must"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回错误code码，输入的toChainId应为string类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回错误code码，输入的fromChainId应为string类型</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求body缺少字段method</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>请求body缺少字段address</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"errMsg":"rpc error: code = Unknown desc = address length not match"}</t>
+    <t>[{"chainId":0,"datanodes":[{"dataNodeId":"0x5e17128ba224a96d6e84be0c7f899febea26c55c78940610d78a0d22dbd0ab03cc3233491de0b5eb770dbf850b509bd191723df4fc40520bcbab565d46543d6e","dataNodeIp":"192.168.1.11","dataNodePort":22010}],"mode":5,"parent":1048576},{"chainId":1,"datanodes":[{"dataNodeId":"0x96dc94580e0eadd78691807f6eac9759b9964daa8b46da4378902b040e0eb102cb48413308d2131e9e5557321f30ba9287794f689854e6d2e63928a082e79286","dataNodeIp":"192.168.1.11","dataNodePort":22014}],"mode":6,"parent":0},{"chainId":2,"datanodes":[{"dataNodeId":"0xa93b150f11c422d8700554859281be8e34a91a859e0e021af186002c7e4a2661ea2467a63b417030d68e2fdddeb4342943dff13225da77124abf912fd092f71f","dataNodeIp":"192.168.1.11","dataNodePort":22018}],"mode":6,"parent":0},{"chainId":3,"datanodes":[{"dataNodeId":"0x783f4b2490461ecfd8ee8d3451e434de06bacb0ffff56de53a33fe545589094fa0b929eeaa62dc5203d1e831ccdd37d206d0b85b193921efb223bf0cb2f37b4c","dataNodeIp":"192.168.1.12","dataNodePort":22010}],"mode":7,"parent":1},{"chainId":4,"datanodes":[{"dataNodeId":"0x44c98ab831f3ca4553e491bba06753e959ceb55d43e18bc76539572feb1e0dbaf2fbfc19f571d6544e82be1c7c39760f6a023d4be4dcb9473dd580c731d03926","dataNodeIp":"192.168.1.12","dataNodePort":22014}],"mode":7,"parent":1}]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求body缺乏字段to</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"errMsg":"param \"from\" is must"}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "method": "GetTransactions",
+ "params": {
+  "chainId":"2",
+  "startHeight": "53119", 
+  "endHeight": "53250"
+ }
+}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4314,8 +4331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4369,7 +4386,7 @@
         <v>33</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>43</v>
@@ -4389,16 +4406,16 @@
         <v>38</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>44</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4409,10 +4426,10 @@
         <v>40</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="E6" s="21" t="s">
         <v>45</v>
@@ -4429,10 +4446,10 @@
         <v>40</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E7" s="21" t="s">
         <v>44</v>
@@ -4449,16 +4466,16 @@
         <v>39</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>428</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>431</v>
-      </c>
       <c r="E8" s="21" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4469,16 +4486,16 @@
         <v>39</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="E9" s="21" t="s">
         <v>44</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4489,16 +4506,16 @@
         <v>40</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E10" s="21" t="s">
         <v>44</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4509,10 +4526,10 @@
         <v>39</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E11" s="21" t="s">
         <v>47</v>
@@ -4527,10 +4544,10 @@
         <v>40</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="E12" s="21" t="s">
         <v>44</v>
@@ -4547,10 +4564,10 @@
         <v>39</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="E13" s="21" t="s">
         <v>47</v>
@@ -4565,16 +4582,16 @@
         <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="E14" s="21" t="s">
         <v>44</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4585,16 +4602,16 @@
         <v>39</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4605,10 +4622,10 @@
         <v>39</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="E16" s="21" t="s">
         <v>44</v>
@@ -4625,10 +4642,10 @@
         <v>39</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="E17" s="21" t="s">
         <v>44</v>
@@ -4645,16 +4662,16 @@
         <v>39</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="E18" s="21" t="s">
         <v>44</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4665,10 +4682,10 @@
         <v>39</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="E19" s="21" t="s">
         <v>46</v>
@@ -4685,13 +4702,13 @@
         <v>39</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>554</v>
+        <v>545</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F20" s="9" t="s">
         <v>3</v>
@@ -4705,16 +4722,16 @@
         <v>39</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4725,16 +4742,16 @@
         <v>39</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>555</v>
+        <v>546</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>556</v>
+        <v>547</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5179,7 +5196,7 @@
         <v>18</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D4" s="28" t="s">
         <v>87</v>
@@ -5199,16 +5216,16 @@
         <v>111</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>101</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5222,13 +5239,13 @@
         <v>144</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E6" s="21" t="s">
         <v>101</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5239,10 +5256,10 @@
         <v>113</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E7" s="20" t="s">
         <v>100</v>
@@ -5259,16 +5276,16 @@
         <v>113</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E8" s="21" t="s">
         <v>100</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5279,16 +5296,16 @@
         <v>120</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E9" s="21" t="s">
         <v>101</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5299,16 +5316,16 @@
         <v>113</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E10" s="21" t="s">
         <v>101</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5319,16 +5336,16 @@
         <v>113</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E11" s="21" t="s">
         <v>101</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5339,16 +5356,16 @@
         <v>113</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E12" s="21" t="s">
         <v>101</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5359,16 +5376,16 @@
         <v>113</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E13" s="21" t="s">
         <v>101</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5379,13 +5396,13 @@
         <v>113</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F14" s="2"/>
     </row>
@@ -5397,10 +5414,10 @@
         <v>113</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E15" s="21" t="s">
         <v>122</v>
@@ -5417,13 +5434,13 @@
         <v>39</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>3</v>
@@ -5437,16 +5454,16 @@
         <v>39</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5457,16 +5474,16 @@
         <v>39</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>526</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>422</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>523</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>531</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>425</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5477,16 +5494,16 @@
         <v>39</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5497,16 +5514,16 @@
         <v>39</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5807,7 +5824,7 @@
   <dimension ref="A1:F69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:E17"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5860,7 +5877,7 @@
         <v>18</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D4" s="28" t="s">
         <v>87</v>
@@ -5880,16 +5897,16 @@
         <v>111</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>101</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5900,10 +5917,10 @@
         <v>113</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E6" s="21" t="s">
         <v>101</v>
@@ -5920,10 +5937,10 @@
         <v>113</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E7" s="21" t="s">
         <v>101</v>
@@ -5940,16 +5957,16 @@
         <v>113</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E8" s="21" t="s">
         <v>101</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5960,13 +5977,13 @@
         <v>120</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>110</v>
@@ -5980,16 +5997,16 @@
         <v>113</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E10" s="21" t="s">
         <v>101</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6000,16 +6017,16 @@
         <v>113</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E11" s="21" t="s">
         <v>101</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6020,10 +6037,10 @@
         <v>113</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E12" s="21" t="s">
         <v>122</v>
@@ -6040,16 +6057,16 @@
         <v>39</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6060,16 +6077,16 @@
         <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6418,7 +6435,7 @@
   <dimension ref="A1:F69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E17"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6473,7 +6490,7 @@
         <v>18</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D4" s="28" t="s">
         <v>87</v>
@@ -6493,16 +6510,16 @@
         <v>111</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6513,16 +6530,16 @@
         <v>113</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>203</v>
-      </c>
       <c r="E6" s="21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6533,16 +6550,16 @@
         <v>113</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6553,16 +6570,16 @@
         <v>113</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6573,16 +6590,16 @@
         <v>120</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D9" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="F9" s="9" t="s">
         <v>210</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6593,13 +6610,13 @@
         <v>113</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>118</v>
@@ -6613,13 +6630,13 @@
         <v>113</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>118</v>
@@ -6633,13 +6650,13 @@
         <v>113</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>123</v>
@@ -6653,16 +6670,16 @@
         <v>113</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6673,13 +6690,13 @@
         <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>3</v>
@@ -6693,16 +6710,16 @@
         <v>39</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7040,10 +7057,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F68"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7098,7 +7115,7 @@
         <v>18</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D4" s="28" t="s">
         <v>85</v>
@@ -7118,53 +7135,53 @@
         <v>111</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>101</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="8">
         <v>2</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>118</v>
+      <c r="B6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>553</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="8">
+      <c r="A7" s="7">
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>113</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D7" s="9" t="s">
+        <v>550</v>
+      </c>
+      <c r="E7" s="21" t="s">
         <v>181</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>182</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>118</v>
@@ -7178,16 +7195,16 @@
         <v>113</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>183</v>
+        <v>147</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>185</v>
+        <v>181</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7198,16 +7215,16 @@
         <v>113</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>197</v>
+        <v>181</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7218,36 +7235,36 @@
         <v>113</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>186</v>
+        <v>181</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="8">
+      <c r="A11" s="7">
         <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>113</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>190</v>
+        <v>221</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>186</v>
+        <v>556</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7258,16 +7275,16 @@
         <v>113</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>189</v>
-      </c>
       <c r="E12" s="21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>186</v>
+        <v>556</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7278,16 +7295,16 @@
         <v>113</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>197</v>
+        <v>181</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7298,76 +7315,88 @@
         <v>113</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>475</v>
+        <v>193</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="F14" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="7">
+        <v>11</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>216</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="8">
-        <v>11</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>537</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>549</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>425</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
     <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="7">
+      <c r="A16" s="8">
         <v>12</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>494</v>
+        <v>532</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>551</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="7"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="2"/>
+      <c r="A17" s="7">
+        <v>13</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>548</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>422</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>554</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="8"/>
+      <c r="A18" s="7"/>
       <c r="B18" s="3"/>
-      <c r="C18" s="1"/>
+      <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="21"/>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="2"/>
+      <c r="A19" s="8"/>
       <c r="B19" s="3"/>
       <c r="C19" s="1"/>
       <c r="D19" s="2"/>
@@ -7558,9 +7587,13 @@
       <c r="E42" s="21"/>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="2"/>
+      <c r="B43" s="3"/>
       <c r="C43" s="1"/>
+      <c r="D43" s="2"/>
       <c r="E43" s="21"/>
+      <c r="F43" s="2"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="C44" s="1"/>
@@ -7660,6 +7693,10 @@
     </row>
     <row r="68" spans="3:5" x14ac:dyDescent="0.15">
       <c r="C68" s="1"/>
+      <c r="E68" s="21"/>
+    </row>
+    <row r="69" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C69" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -7672,7 +7709,7 @@
   <dimension ref="A1:G69"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7726,7 +7763,7 @@
         <v>18</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>19</v>
@@ -7746,16 +7783,16 @@
         <v>54</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7766,13 +7803,13 @@
         <v>39</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>57</v>
@@ -7786,13 +7823,13 @@
         <v>39</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>69</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>56</v>
@@ -7806,13 +7843,13 @@
         <v>39</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>58</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>59</v>
@@ -7826,13 +7863,13 @@
         <v>39</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>61</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>60</v>
@@ -7846,13 +7883,13 @@
         <v>39</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>62</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>63</v>
@@ -7866,13 +7903,13 @@
         <v>39</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>64</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>65</v>
@@ -7886,13 +7923,13 @@
         <v>39</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>66</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>65</v>
@@ -7906,13 +7943,13 @@
         <v>39</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>65</v>
@@ -7926,13 +7963,13 @@
         <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>67</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>68</v>
@@ -7946,13 +7983,13 @@
         <v>39</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>65</v>
@@ -7966,13 +8003,13 @@
         <v>39</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>90</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>65</v>
@@ -7986,13 +8023,13 @@
         <v>39</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>71</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>55</v>
@@ -8009,10 +8046,10 @@
         <v>70</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>72</v>
@@ -8032,7 +8069,7 @@
         <v>74</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>59</v>
@@ -8046,13 +8083,13 @@
         <v>39</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>76</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>75</v>
@@ -8096,7 +8133,7 @@
       </c>
       <c r="F22" s="2"/>
       <c r="G22" t="s">
-        <v>553</v>
+        <v>544</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -8110,14 +8147,14 @@
         <v>1</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" t="s">
-        <v>552</v>
+        <v>543</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -8128,13 +8165,13 @@
         <v>39</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>5</v>
@@ -8148,16 +8185,16 @@
         <v>39</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -8168,16 +8205,16 @@
         <v>39</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -8188,16 +8225,16 @@
         <v>39</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -8208,16 +8245,16 @@
         <v>39</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -8228,16 +8265,16 @@
         <v>39</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -8248,16 +8285,16 @@
         <v>39</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -8268,16 +8305,16 @@
         <v>39</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -8288,16 +8325,16 @@
         <v>39</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -8308,16 +8345,16 @@
         <v>39</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -8328,13 +8365,13 @@
         <v>39</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F34" s="2"/>
     </row>
@@ -8582,7 +8619,7 @@
         <v>18</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>19</v>
@@ -8602,16 +8639,16 @@
         <v>54</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>79</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -8622,7 +8659,7 @@
         <v>83</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>91</v>
@@ -8642,7 +8679,7 @@
         <v>39</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>99</v>
@@ -8662,7 +8699,7 @@
         <v>83</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>92</v>
@@ -8682,7 +8719,7 @@
         <v>83</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>98</v>
@@ -8722,7 +8759,7 @@
         <v>83</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>95</v>
@@ -8742,7 +8779,7 @@
         <v>83</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>102</v>
@@ -8762,7 +8799,7 @@
         <v>83</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>103</v>
@@ -8782,7 +8819,7 @@
         <v>83</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>104</v>
@@ -8843,7 +8880,7 @@
         <v>108</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="E17" s="21" t="s">
         <v>79</v>
@@ -8860,13 +8897,13 @@
         <v>39</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>117</v>
@@ -8880,16 +8917,16 @@
         <v>39</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -8900,16 +8937,16 @@
         <v>39</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -9226,8 +9263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9281,7 +9318,7 @@
         <v>18</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D4" s="15" t="s">
         <v>87</v>
@@ -9304,10 +9341,10 @@
         <v>125</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>126</v>
@@ -9327,7 +9364,7 @@
         <v>127</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>128</v>
@@ -9347,7 +9384,7 @@
         <v>129</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>130</v>
@@ -9367,7 +9404,7 @@
         <v>132</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>126</v>
@@ -9387,7 +9424,7 @@
         <v>133</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>126</v>
@@ -9401,13 +9438,13 @@
         <v>143</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>134</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>124</v>
@@ -9427,7 +9464,7 @@
         <v>135</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>136</v>
@@ -9447,7 +9484,7 @@
         <v>138</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>139</v>
@@ -9467,7 +9504,7 @@
         <v>140</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>118</v>
@@ -9487,7 +9524,7 @@
         <v>141</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>118</v>
@@ -9501,16 +9538,16 @@
         <v>39</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -9521,16 +9558,16 @@
         <v>39</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -9541,16 +9578,16 @@
         <v>39</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -9930,7 +9967,7 @@
         <v>18</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D4" s="28" t="s">
         <v>85</v>
@@ -10421,7 +10458,7 @@
         <v>18</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D4" s="28" t="s">
         <v>87</v>
@@ -10859,7 +10896,7 @@
   <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10910,10 +10947,10 @@
         <v>16</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D4" s="26" t="s">
         <v>19</v>
@@ -10930,19 +10967,19 @@
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>114</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="E5" s="21" t="s">
         <v>101</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -10950,19 +10987,19 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>115</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E6" s="21" t="s">
         <v>101</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -10970,13 +11007,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>116</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E7" s="21" t="s">
         <v>101</v>
@@ -10990,13 +11027,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>119</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E8" s="21" t="s">
         <v>101</v>
@@ -11010,19 +11047,19 @@
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>93</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E9" s="21" t="s">
         <v>101</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11030,19 +11067,19 @@
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>97</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E10" s="21" t="s">
         <v>101</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11050,19 +11087,19 @@
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="E11" s="21" t="s">
         <v>101</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11070,19 +11107,19 @@
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="E12" s="21" t="s">
         <v>101</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11090,19 +11127,19 @@
         <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E13" s="21" t="s">
         <v>101</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11113,16 +11150,16 @@
         <v>113</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E14" s="21" t="s">
         <v>101</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11130,19 +11167,19 @@
         <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="E15" s="21" t="s">
         <v>101</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11150,19 +11187,19 @@
         <v>12</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="E16" s="21" t="s">
         <v>101</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11170,13 +11207,13 @@
         <v>13</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E17" s="21" t="s">
         <v>122</v>
@@ -11190,16 +11227,16 @@
         <v>14</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F18" s="2"/>
     </row>
@@ -11208,19 +11245,19 @@
         <v>15</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="E19" s="21" t="s">
         <v>101</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11228,19 +11265,19 @@
         <v>16</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="E20" s="21" t="s">
         <v>101</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11248,19 +11285,19 @@
         <v>17</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E21" s="21" t="s">
         <v>101</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11271,16 +11308,16 @@
         <v>113</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="E22" s="21" t="s">
         <v>101</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11288,19 +11325,19 @@
         <v>19</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E23" s="21" t="s">
         <v>101</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11308,19 +11345,19 @@
         <v>20</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E24" s="21" t="s">
         <v>101</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11328,19 +11365,19 @@
         <v>21</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E25" s="21" t="s">
         <v>101</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11348,19 +11385,19 @@
         <v>22</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E26" s="21" t="s">
         <v>101</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11368,19 +11405,19 @@
         <v>23</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E27" s="21" t="s">
         <v>101</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11388,16 +11425,16 @@
         <v>24</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F28" s="2"/>
     </row>
@@ -11406,16 +11443,16 @@
         <v>25</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F29" s="2"/>
     </row>
@@ -11424,16 +11461,16 @@
         <v>26</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F30" s="2"/>
     </row>
@@ -11445,13 +11482,13 @@
         <v>113</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F31" s="2"/>
     </row>
@@ -11460,19 +11497,19 @@
         <v>28</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E32" s="21" t="s">
         <v>101</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11483,16 +11520,16 @@
         <v>113</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E33" s="21" t="s">
         <v>101</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11500,19 +11537,19 @@
         <v>30</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="E34" s="21" t="s">
         <v>101</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11523,10 +11560,10 @@
         <v>113</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E35" s="21" t="s">
         <v>122</v>
@@ -11543,16 +11580,16 @@
         <v>39</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11563,16 +11600,16 @@
         <v>39</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11583,16 +11620,16 @@
         <v>39</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="E38" s="21" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11603,16 +11640,16 @@
         <v>39</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>496</v>
+        <v>557</v>
       </c>
       <c r="D39" s="38" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="E39" s="21" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>461</v>
+        <v>558</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11623,16 +11660,16 @@
         <v>39</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="D40" s="38" t="s">
+        <v>501</v>
+      </c>
+      <c r="E40" s="21" t="s">
+        <v>422</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>497</v>
-      </c>
-      <c r="D40" s="38" t="s">
-        <v>505</v>
-      </c>
-      <c r="E40" s="21" t="s">
-        <v>425</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11643,16 +11680,16 @@
         <v>39</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="D41" s="38" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="E41" s="21" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11663,16 +11700,16 @@
         <v>39</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="D42" s="38" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="E42" s="21" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11855,7 +11892,7 @@
   <dimension ref="A1:F69"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11908,7 +11945,7 @@
         <v>18</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D4" s="28" t="s">
         <v>87</v>
@@ -11928,16 +11965,16 @@
         <v>111</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>101</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11948,10 +11985,10 @@
         <v>113</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="E6" s="21" t="s">
         <v>101</v>
@@ -11968,10 +12005,10 @@
         <v>113</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="E7" s="21" t="s">
         <v>101</v>
@@ -11988,16 +12025,16 @@
         <v>113</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>338</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>341</v>
       </c>
       <c r="E8" s="21" t="s">
         <v>101</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12008,16 +12045,16 @@
         <v>120</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E9" s="21" t="s">
         <v>101</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12028,13 +12065,13 @@
         <v>113</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F10" s="9"/>
     </row>
@@ -12046,13 +12083,13 @@
         <v>113</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F11" s="9"/>
     </row>
@@ -12064,16 +12101,16 @@
         <v>113</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E12" s="21" t="s">
         <v>101</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12084,16 +12121,16 @@
         <v>113</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="E13" s="21" t="s">
         <v>101</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12104,16 +12141,16 @@
         <v>113</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E14" s="21" t="s">
         <v>101</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12124,16 +12161,16 @@
         <v>113</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="E15" s="21" t="s">
         <v>101</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12144,16 +12181,16 @@
         <v>113</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="E16" s="21" t="s">
         <v>101</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12164,16 +12201,16 @@
         <v>112</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="E17" s="21" t="s">
         <v>101</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12184,16 +12221,16 @@
         <v>113</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E18" s="21" t="s">
         <v>101</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12204,16 +12241,16 @@
         <v>113</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E19" s="21" t="s">
         <v>101</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12224,16 +12261,16 @@
         <v>113</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="E20" s="21" t="s">
         <v>101</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12244,16 +12281,16 @@
         <v>113</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E21" s="21" t="s">
         <v>101</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12264,10 +12301,10 @@
         <v>113</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E22" s="21" t="s">
         <v>122</v>
@@ -12284,13 +12321,13 @@
         <v>39</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>3</v>
@@ -12304,16 +12341,16 @@
         <v>39</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12324,16 +12361,16 @@
         <v>39</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>517</v>
+        <v>559</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>461</v>
+        <v>558</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12344,16 +12381,16 @@
         <v>39</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12364,16 +12401,16 @@
         <v>38</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12671,7 +12708,7 @@
         <v>18</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D4" s="29" t="s">
         <v>19</v>
@@ -12691,16 +12728,16 @@
         <v>111</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>101</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12711,10 +12748,10 @@
         <v>113</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E6" s="21" t="s">
         <v>101</v>
@@ -12731,16 +12768,16 @@
         <v>113</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E7" s="21" t="s">
         <v>101</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12751,16 +12788,16 @@
         <v>113</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E8" s="21" t="s">
         <v>101</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12771,16 +12808,16 @@
         <v>120</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E9" s="21" t="s">
         <v>101</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12791,16 +12828,16 @@
         <v>113</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E10" s="21" t="s">
         <v>101</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12811,16 +12848,16 @@
         <v>113</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E11" s="21" t="s">
         <v>101</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12831,13 +12868,13 @@
         <v>113</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F12" s="9"/>
     </row>
@@ -12849,16 +12886,16 @@
         <v>113</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E13" s="21" t="s">
         <v>101</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12869,16 +12906,16 @@
         <v>113</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E14" s="21" t="s">
         <v>101</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12889,16 +12926,16 @@
         <v>113</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E15" s="21" t="s">
         <v>101</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12909,16 +12946,16 @@
         <v>113</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E16" s="21" t="s">
         <v>101</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12929,16 +12966,16 @@
         <v>113</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E17" s="21" t="s">
         <v>101</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12949,16 +12986,16 @@
         <v>113</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E18" s="21" t="s">
         <v>122</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12969,13 +13006,13 @@
         <v>113</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F19" s="2"/>
     </row>
@@ -12987,16 +13024,16 @@
         <v>113</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E20" s="21" t="s">
         <v>122</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13007,13 +13044,13 @@
         <v>39</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>3</v>
@@ -13027,16 +13064,16 @@
         <v>39</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13047,16 +13084,16 @@
         <v>39</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>422</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>523</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>527</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>425</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">

--- a/testData/testData.xlsx
+++ b/testData/testData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="934" activeTab="12"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="934" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="GetAccount" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="581">
   <si>
     <t>post</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -431,24 +431,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{
- "method": "GetChainInfo",
- "params": {
-  "chainIds":"-5"
- }
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "method": "GetChainInfo",
- "params": {
-  "chainIds":"1.99"
- }
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>请求方法正确，chainIds为数组格式</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -461,15 +443,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{
- "method": "GetChainInfo",
- "params": {
-  "chainIds":"2"
- }
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>chainIds输入任意字符</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -523,15 +496,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{
- "method": "GetChainInfo",
- "params": {
-  "chainIds":5
- }
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>正常请求查询指定链委员会成员</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -749,20 +713,6 @@
   </si>
   <si>
     <t>input信息为空</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "method": "CallTransaction",
- "params": {
-  "chainId": "1000000",
-  "from": "0x2c7536e3605d9c16a7a3d7b1898e529396a65c23",
-  "to": "0xedc868540d9e0137ad9d1dd1be9309f38ea76f20",
-  "nonce": "1",
-  "value": "0",
-  "input": "0x6d4ce63c"
- }
-}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2899,10 +2849,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{"Transaction":{"chainId":0,"from":"0x2c7536e3605d9c16a7a3d7b1898e529396a65c23","to":"0xedc868540d9e0137ad9d1dd1be9309f38ea76f20","nonce":0,"value":0,"input":"0x6d4ce63c","hash":"","timestamp":0},"root":"","status":1,"logs":"","transactionHash":"0x4972d6be2cde1bcc312195c7a575c33fe424520147616a828d94b97e940b4e35","contractAddress":"0x0000000000000000000000000000000000000000","out":"0x","blockHeight":0}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>{
  "method": "GetBlockTxs",
  "params": {
@@ -2949,20 +2895,6 @@
   </si>
   <si>
     <t>用于调用合约的，结果见output</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "method": "CallTransaction",
- "params": {
-  "chainId": 2,
-  "from": "0x2c7536e3605d9c16a7a3d7b1898e529396a65c23",
-  "to": "0xedc868540d9e0137ad9d1dd1be9309f38ea76f20",
-  "nonce": "1",
-  "value": "0",
-  "input": "0x6d4ce63c"
- }
-}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2988,20 +2920,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{
- "method": "CallTransaction",
- "params": {
-  "chainId": "2",
-  "from": "0x2c7536e3605d9c16a7a3d7b1898e529396a65c23",
-  "to": "0x862d51477c161c607ec583cbe56f7e7009e00ac8",
-  "nonce": "514",
-  "value": "0",
-  "input": "0x608060405234801561001057600080fd5b50610106806100206000396000f3fe6080604052600436106043576000357c0100000000000000000000000000000000000000000000000000000000900480636d4ce63c146048578063c6888fa1146070575b600080fd5b348015605357600080fd5b50605a60bb565b6040518082815260200191505060405180910390f35b348015607b57600080fd5b5060a560048036036020811015609057600080fd5b810190808035906020019092919050505060c4565b6040518082815260200191505060405180910390f35b60008054905090565b600060078202600081905550600054905091905056fea165627a7a72305820e63207980ff1fcc762991d1089137344660dbf817d519e3232d9d69224a44e280029"
- }
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>{"Transaction":{"chainId":0,"from":"0x2c7536e3605d9c16a7a3d7b1898e529396a65c23","to":"0x862d51477c161c607ec583cbe56f7e7009e00ac8","nonce":0,"value":0,"input":"0x608060405234801561001057600080fd5b50610106806100206000396000f3fe6080604052600436106043576000357c0100000000000000000000000000000000000000000000000000000000900480636d4ce63c146048578063c6888fa1146070575b600080fd5b348015605357600080fd5b50605a60bb565b6040518082815260200191505060405180910390f35b348015607b57600080fd5b5060a560048036036020811015609057600080fd5b810190808035906020019092919050505060c4565b6040518082815260200191505060405180910390f35b60008054905090565b600060078202600081905550600054905091905056fea165627a7a72305820e63207980ff1fcc762991d1089137344660dbf817d519e3232d9d69224a44e280029","hash":"","timestamp":0},"root":"","status":1,"logs":"","transactionHash":"0x95e0739ca76a171fe7777e3d3e204f00f4191ae7549d0d57f703fff2b3e2cc85","contractAddress":"0x0000000000000000000000000000000000000000","out":"0x","blockHeight":0}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3170,22 +3088,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>500</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求：请求返回状态码为200，返回错误信息如{"errMsg":"height type is string"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求：请求返回状态码为200，返回错误信息如{"errMsg":"page type is string"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求：请求返回状态码为200，返回错误信息如{"errMsg":"size type is string"</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>{
  "method": "GetStats",
  "params": {
@@ -3377,20 +3279,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{
- "method": "CallTransaction",
- "params": {
-  "chainId": "",
-  "from": "0x2c7536e3605d9c16a7a3d7b1898e529396a65c23",
-  "to": "0xedc868540d9e0137ad9d1dd1be9309f38ea76f20",
-  "nonce": "1",
-  "value": "0",
-  "input": "0x6d4ce63c"
- }
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>请求方法正确，合约符合solidity编码规范</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3405,10 +3293,6 @@
   "contract": "\pragma solidity &gt;= 0.4.22;contract test {function multiply(uint a) public returns(uint d) {return a * 7;}}"
  }
 }</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>chainId输入为空、小数点、负数、超过最大值、类型错误等，均需做相关提示信息</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -3578,24 +3462,6 @@
   </si>
   <si>
     <t>收币账户地址为空，input信息为空</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "method": "SendTx",
- "params": {
- "chainId": "3",
- "fromChainId": "3",
- "toChainId": "3",
- "from": "0x2c7536e3605d9c16a7a3d7b1898e529396a65c23",
- "nonce": "204",
- "to": "",
- "input": "",
- "value": "300",
- "sig": "0xeca84bf256f0f3d79eaa10365b8b9e71f54f7b31e0c6983f57df5eb76702b76034f48999f20c70ab9a2a3b6de79d82750c5c1b935a34f63b8db3a06c3723ab341b",
- "pub": "0x043d85aa2a649fa5fd421988cebff58d7173f7b563b8a9594e92bcf3e9f5e43037c3463121af51aacc8a8cf2d8cfcc6fa717b774fc0aceec04d7185c87e279c1f6"
- }
-}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -3690,23 +3556,106 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{"TXhash":"0x1030c3c41bae41667dd95d8bff069f972fb2cfcd645edc75a3a13fc190ac9a6c"}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求：当input和to均为空时，未做错误提醒，仍正常生成交易hash，需后台增加判断</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>{"errMsg":"param \"from\" is must","errCode":4104}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>提示信息有误，正常提示信息为：{"errMsg":"param \"to\" is must","errCode":4105}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>提示信息有误，正常提示信息为：{"errMsg":"param \"nonce\" is must","errCode":4105}</t>
+    <t>{"errMsg":"param \"fromChainId\" is must","errCode":4108}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "method": "GetTransactions",
+ "params": {
+  "chainId":"2",
+"address":"0x2c7536e3605d9c16a7a3d7b1898e529396a65c23", 
+  "startHeight": "68127", 
+  "endHeight": "68127"
+ }
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"errMsg":"endHeight should be greater than startHeight","errCode":4107}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询的起始区块高度大于当前最新高度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "method": "GetBlockHeader",
+ "params": {"chainId":"2", "height":16113}
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"errMsg":"height type is string","errCode":4113}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "method": "GetBlockTxs",
+ "params": {
+ "chainId":"2",
+ "height":"16113",
+ "page": "193",
+ "size": 2
+ }
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"errMsg":"size type is string","errCode":4115}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "method": "GetBlockTxs",
+ "params": {
+ "chainId":"2",
+ "height":"16113",
+ "page": 193,
+ "size": "2"
+ }
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"errMsg":"page type is string","errCode":4114}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "method": "GetBlockTxs",
+ "params": {
+ "chainId":"2",
+ "height":16113,
+ "page": "193",
+ "size": "2"
+ }
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"errMsg":"height type is string","errCode":4113}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "method": "GetTransactions",
+ "params": {
+  "chainId":"2",
+"address":"0x2c7536e3605d9c16a7a3d7b1898e529396a65c23", 
+  "startHeight": "88888888888", 
+  "endHeight": "99999999999999"
+ }
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"Transaction":{"chainId":0,"from":"0x2c7536e3605d9c16a7a3d7b1898e529396a65c23","to":"0xedc868540d9e0137ad9d1dd1be9309f38ea76f20","nonce":0,"value":0,"input":"0x6d4ce63c","hash":"","timestamp":0},"root":"","status":1,"logs":"","transactionHash":"0x4972d6be2cde1bcc312195c7a575c33fe424520147616a828d94b97e940b4e35","contractAddress":"0x0000000000000000000000000000000000000000","out":"0x","blockHeight":0}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -3723,6 +3672,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>提示信息有误，正常提示信息为：{"errMsg":"param \"nonce\" is must","errCode":4105}：实际传参与nonce无关</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>{
  "method": "CallTransaction",
  "params": {
@@ -3736,90 +3689,49 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{"errMsg":"param \"fromChainId\" is must","errCode":4108}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "method": "GetTransactions",
- "params": {
-  "chainId":"2",
-"address":"0x2c7536e3605d9c16a7a3d7b1898e529396a65c23", 
-  "startHeight": "68127", 
-  "endHeight": "68127"
- }
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"errMsg":"endHeight should be greater than startHeight","errCode":4107}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "method": "GetTransactions",
- "params": {
-  "chainId":"2",
-"address":"0x2c7536e3605d9c16a7a3d7b1898e529396a65c23", 
-  "startHeight": "88888888888", 
-  "endHeight": "99999999999999"
- }
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询的起始区块高度大于当前最新高度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "method": "GetBlockHeader",
- "params": {"chainId":"2", "height":16113}
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"errMsg":"height type is string","errCode":4113}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "method": "GetBlockTxs",
- "params": {
- "chainId":"2",
- "height":16113,
- "page": "193",
- "size": "2"
- }
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "method": "GetBlockTxs",
- "params": {
- "chainId":"2",
- "height":"16113",
- "page": 193,
- "size": "2"
- }
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "method": "GetBlockTxs",
- "params": {
- "chainId":"2",
- "height":"16113",
- "page": "193",
- "size": 2
- }
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>chainId输入为非数组等其他类型字符时，接口返回结果与chainId为空数组的结果一致（即查询所有链的链结构），此处代码需做chainId输入值的判断和验证，返回相应错误及错误code码</t>
+    <t>{
+ "method": "CallTransaction",
+ "params": {
+  "chainId": "1000000",
+  "from": "0x2c7536e3605d9c16a7a3d7b1898e529396a65c23",
+  "to": "0xedc868540d9e0137ad9d1dd1be9309f38ea76f20",
+  "nonce": "1",
+  "value": "0",
+  "input": "0x6d4ce63c"
+ }
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "method": "CallTransaction",
+ "params": {
+  "chainId": 2,
+  "from": "0x2c7536e3605d9c16a7a3d7b1898e529396a65c23",
+  "to": "0xedc868540d9e0137ad9d1dd1be9309f38ea76f20",
+  "nonce": "1",
+  "value": "0",
+  "input": "0x6d4ce63c"
+ }
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "method": "SendTx",
+ "params": {
+ "chainId": "3",
+ "fromChainId": "3",
+ "toChainId": "3",
+ "from": "0x2c7536e3605d9c16a7a3d7b1898e529396a65c23",
+ "nonce": "204",
+ "to": "",
+ "input": "",
+ "value": "300",
+ "sig": "0xeca84bf256f0f3d79eaa10365b8b9e71f54f7b31e0c6983f57df5eb76702b76034f48999f20c70ab9a2a3b6de79d82750c5c1b935a34f63b8db3a06c3723ab341b",
+ "pub": "0x043d85aa2a649fa5fd421988cebff58d7173f7b563b8a9594e92bcf3e9f5e43037c3463121af51aacc8a8cf2d8cfcc6fa717b774fc0aceec04d7185c87e279c1f6"
+ }
+}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -3829,6 +3741,82 @@
   "chainIds":"akjlda"
  }
 }</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"errMsg":"chainIds must be is int array","errCode":4102}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "method": "GetChainInfo",
+ "params": {
+  "chainIds":5
+ }
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "method": "GetChainInfo",
+ "params": {
+  "chainIds":"1.99"
+ }
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "method": "GetChainInfo",
+ "params": {
+  "chainIds":"-5"
+ }
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "method": "GetChainInfo",
+ "params": {
+  "chainIds":"2"
+ }
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "method": "CallTransaction",
+ "params": {
+  "chainId": "",
+  "from": "0x2c7536e3605d9c16a7a3d7b1898e529396a65c23",
+  "to": "0xedc868540d9e0137ad9d1dd1be9309f38ea76f20",
+  "nonce": "1",
+  "value": "0",
+  "input": "0x6d4ce63c"
+ }
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "method": "CallTransaction",
+ "params": {
+  "chainId": "2",
+  "from": "0x2c7536e3605d9c16a7a3d7b1898e529396a65c23",
+  "to": "0x862d51477c161c607ec583cbe56f7e7009e00ac8",
+  "nonce": "514",
+  "value": "0",
+  "input": "0x608060405234801561001057600080fd5b50610106806100206000396000f3fe6080604052600436106043576000357c0100000000000000000000000000000000000000000000000000000000900480636d4ce63c146048578063c6888fa1146070575b600080fd5b348015605357600080fd5b50605a60bb565b6040518082815260200191505060405180910390f35b348015607b57600080fd5b5060a560048036036020811015609057600080fd5b810190808035906020019092919050505060c4565b6040518082815260200191505060405180910390f35b60008054905090565b600060078202600081905550600054905091905056fea165627a7a72305820e63207980ff1fcc762991d1089137344660dbf817d519e3232d9d69224a44e280029"
+ }
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"errMsg":"\"to\" and \"input\" cannot both be empty","errCode":5003}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chainId字段待去掉，请求参数与chainId无关</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3836,7 +3824,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3887,6 +3875,15 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -4074,7 +4071,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -4086,8 +4083,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4221,15 +4221,39 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="5" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="5" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="差" xfId="3" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="解释性文本" xfId="5" builtinId="53"/>
     <cellStyle name="警告文本" xfId="4" builtinId="11"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4532,7 +4556,7 @@
   <dimension ref="A1:G70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4599,7 +4623,7 @@
         <v>35</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4613,13 +4637,13 @@
         <v>87</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>37</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>529</v>
+        <v>515</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4630,16 +4654,16 @@
         <v>33</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="E6" s="21" t="s">
         <v>38</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4650,16 +4674,16 @@
         <v>33</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="E7" s="21" t="s">
         <v>37</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G7" s="41"/>
     </row>
@@ -4671,16 +4695,16 @@
         <v>32</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G8" s="41"/>
     </row>
@@ -4695,13 +4719,13 @@
         <v>88</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="E9" s="21" t="s">
         <v>37</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4715,13 +4739,13 @@
         <v>89</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="E10" s="21" t="s">
         <v>37</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4735,13 +4759,13 @@
         <v>90</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="E11" s="21" t="s">
         <v>37</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4755,13 +4779,13 @@
         <v>91</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="E12" s="21" t="s">
         <v>37</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4772,16 +4796,16 @@
         <v>32</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="E13" s="21" t="s">
         <v>37</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="G13" s="42"/>
     </row>
@@ -4796,13 +4820,13 @@
         <v>93</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="E14" s="21" t="s">
         <v>37</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4813,16 +4837,16 @@
         <v>32</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="E15" s="21" t="s">
         <v>37</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="G15" s="42"/>
     </row>
@@ -4834,16 +4858,16 @@
         <v>32</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="G16" s="41"/>
     </row>
@@ -4858,13 +4882,13 @@
         <v>94</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="E17" s="21" t="s">
         <v>37</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4878,13 +4902,13 @@
         <v>95</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="E18" s="21" t="s">
         <v>37</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4895,16 +4919,16 @@
         <v>32</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="E19" s="21" t="s">
         <v>37</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4915,16 +4939,16 @@
         <v>32</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E20" s="21" t="s">
         <v>39</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4935,16 +4959,16 @@
         <v>32</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4955,16 +4979,16 @@
         <v>32</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4975,16 +4999,16 @@
         <v>32</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5376,7 +5400,7 @@
   <dimension ref="A1:G72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5442,7 +5466,7 @@
         <v>50</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5453,16 +5477,16 @@
         <v>57</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>54</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5476,13 +5500,13 @@
         <v>67</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="E6" s="21" t="s">
         <v>54</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5493,16 +5517,16 @@
         <v>58</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="E7" s="20" t="s">
         <v>53</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5513,16 +5537,16 @@
         <v>58</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="E8" s="21" t="s">
         <v>53</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5533,16 +5557,16 @@
         <v>61</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="E9" s="21" t="s">
         <v>54</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5553,16 +5577,16 @@
         <v>58</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="E10" s="21" t="s">
         <v>54</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5573,16 +5597,16 @@
         <v>58</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="E11" s="21" t="s">
         <v>54</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5593,16 +5617,16 @@
         <v>58</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="E12" s="21" t="s">
         <v>54</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5613,16 +5637,16 @@
         <v>58</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="E13" s="21" t="s">
         <v>54</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5633,16 +5657,16 @@
         <v>58</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="E14" s="21" t="s">
         <v>37</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5653,18 +5677,18 @@
         <v>32</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>579</v>
+        <v>561</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>490</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="44" t="s">
-        <v>491</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="G15" s="44"/>
     </row>
     <row r="16" spans="1:7" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="8">
@@ -5674,18 +5698,18 @@
         <v>32</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>580</v>
+        <v>559</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>490</v>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="44" t="s">
-        <v>492</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="G16" s="44"/>
     </row>
     <row r="17" spans="1:7" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="7">
@@ -5695,18 +5719,18 @@
         <v>32</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>581</v>
+        <v>557</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>490</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="44" t="s">
-        <v>493</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="G17" s="44"/>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="8">
@@ -5716,16 +5740,16 @@
         <v>32</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="E18" s="21" t="s">
         <v>63</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5736,16 +5760,16 @@
         <v>32</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5756,16 +5780,16 @@
         <v>32</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5776,16 +5800,16 @@
         <v>32</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5796,16 +5820,16 @@
         <v>32</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5816,16 +5840,16 @@
         <v>32</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6191,7 +6215,7 @@
         <v>50</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6202,16 +6226,16 @@
         <v>57</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>54</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>549</v>
+        <v>535</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6222,16 +6246,16 @@
         <v>58</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E6" s="21" t="s">
         <v>54</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6242,16 +6266,16 @@
         <v>58</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E7" s="21" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6262,16 +6286,16 @@
         <v>58</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E8" s="21" t="s">
         <v>54</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6282,16 +6306,16 @@
         <v>61</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="E9" s="21" t="s">
         <v>37</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6302,16 +6326,16 @@
         <v>58</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="E10" s="21" t="s">
         <v>54</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6322,16 +6346,16 @@
         <v>58</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E11" s="21" t="s">
         <v>54</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6342,16 +6366,16 @@
         <v>58</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="E12" s="21" t="s">
         <v>63</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6362,16 +6386,16 @@
         <v>32</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6382,16 +6406,16 @@
         <v>32</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6807,7 +6831,7 @@
         <v>50</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6818,16 +6842,16 @@
         <v>57</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>96</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>550</v>
+        <v>536</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6838,16 +6862,16 @@
         <v>58</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E6" s="21" t="s">
         <v>96</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>496</v>
+        <v>484</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6858,16 +6882,16 @@
         <v>58</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="E7" s="21" t="s">
         <v>96</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6878,16 +6902,16 @@
         <v>58</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="E8" s="21" t="s">
         <v>96</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6898,16 +6922,16 @@
         <v>61</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6918,16 +6942,16 @@
         <v>58</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="E10" s="21" t="s">
         <v>96</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6938,16 +6962,16 @@
         <v>58</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="E11" s="21" t="s">
         <v>96</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6958,16 +6982,16 @@
         <v>58</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>506</v>
+        <v>494</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="G12" s="39"/>
     </row>
@@ -6979,16 +7003,16 @@
         <v>58</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>507</v>
+        <v>495</v>
       </c>
       <c r="E13" s="21" t="s">
         <v>96</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>508</v>
+        <v>496</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6999,16 +7023,16 @@
         <v>32</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>227</v>
-      </c>
       <c r="E14" s="21" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7019,16 +7043,16 @@
         <v>32</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>509</v>
+        <v>497</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7368,8 +7392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7436,7 +7460,7 @@
         <v>13</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7447,16 +7471,16 @@
         <v>57</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>54</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7467,16 +7491,16 @@
         <v>31</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>510</v>
+        <v>498</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7490,14 +7514,15 @@
         <v>69</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="E7" s="21" t="s">
         <v>96</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>240</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="G7" s="13"/>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="8">
@@ -7510,14 +7535,15 @@
         <v>70</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="E8" s="21" t="s">
         <v>96</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>240</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="G8" s="13"/>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="7">
@@ -7530,14 +7556,15 @@
         <v>97</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="E9" s="21" t="s">
         <v>96</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>513</v>
-      </c>
+        <v>501</v>
+      </c>
+      <c r="G9" s="13"/>
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8">
@@ -7547,20 +7574,18 @@
         <v>58</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="E10" s="21" t="s">
         <v>96</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>410</v>
-      </c>
-      <c r="G10" s="49" t="s">
-        <v>582</v>
-      </c>
+        <v>572</v>
+      </c>
+      <c r="G10" s="56"/>
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7">
@@ -7570,18 +7595,18 @@
         <v>58</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>118</v>
+        <v>573</v>
       </c>
       <c r="E11" s="21" t="s">
         <v>96</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>410</v>
-      </c>
-      <c r="G11" s="49"/>
+        <v>572</v>
+      </c>
+      <c r="G11" s="56"/>
     </row>
     <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="8">
@@ -7594,15 +7619,15 @@
         <v>98</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>101</v>
+        <v>574</v>
       </c>
       <c r="E12" s="21" t="s">
         <v>96</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>410</v>
-      </c>
-      <c r="G12" s="49"/>
+        <v>572</v>
+      </c>
+      <c r="G12" s="56"/>
     </row>
     <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7">
@@ -7615,15 +7640,15 @@
         <v>99</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>100</v>
+        <v>575</v>
       </c>
       <c r="E13" s="21" t="s">
         <v>96</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>410</v>
-      </c>
-      <c r="G13" s="49"/>
+        <v>572</v>
+      </c>
+      <c r="G13" s="56"/>
     </row>
     <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="8">
@@ -7633,18 +7658,18 @@
         <v>58</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>105</v>
+        <v>576</v>
       </c>
       <c r="E14" s="21" t="s">
         <v>96</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>410</v>
-      </c>
-      <c r="G14" s="49"/>
+        <v>572</v>
+      </c>
+      <c r="G14" s="56"/>
     </row>
     <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="7">
@@ -7654,16 +7679,16 @@
         <v>58</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="G15" s="39"/>
     </row>
@@ -7675,19 +7700,20 @@
         <v>32</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>235</v>
+      </c>
+      <c r="G16" s="13"/>
+    </row>
+    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="7">
         <v>13</v>
       </c>
@@ -7695,19 +7721,20 @@
         <v>32</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>504</v>
+      </c>
+      <c r="G17" s="13"/>
+    </row>
+    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="7"/>
       <c r="B18" s="3"/>
       <c r="C18" s="2"/>
@@ -7715,7 +7742,7 @@
       <c r="E18" s="21"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="8"/>
       <c r="B19" s="3"/>
       <c r="C19" s="1"/>
@@ -7723,7 +7750,7 @@
       <c r="E19" s="21"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
       <c r="B20" s="3"/>
       <c r="C20" s="1"/>
@@ -7731,7 +7758,7 @@
       <c r="E20" s="21"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
       <c r="B21" s="3"/>
       <c r="C21" s="1"/>
@@ -7739,7 +7766,7 @@
       <c r="E21" s="21"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2"/>
       <c r="B22" s="3"/>
       <c r="C22" s="1"/>
@@ -7747,7 +7774,7 @@
       <c r="E22" s="21"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2"/>
       <c r="B23" s="3"/>
       <c r="C23" s="1"/>
@@ -7755,7 +7782,7 @@
       <c r="E23" s="21"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="2"/>
       <c r="B24" s="3"/>
       <c r="C24" s="1"/>
@@ -7763,7 +7790,7 @@
       <c r="E24" s="21"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2"/>
       <c r="B25" s="3"/>
       <c r="C25" s="1"/>
@@ -7771,7 +7798,7 @@
       <c r="E25" s="21"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="2"/>
       <c r="B26" s="3"/>
       <c r="C26" s="1"/>
@@ -7779,7 +7806,7 @@
       <c r="E26" s="21"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2"/>
       <c r="B27" s="3"/>
       <c r="C27" s="1"/>
@@ -7787,7 +7814,7 @@
       <c r="E27" s="21"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2"/>
       <c r="B28" s="3"/>
       <c r="C28" s="1"/>
@@ -7795,7 +7822,7 @@
       <c r="E28" s="21"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2"/>
       <c r="B29" s="3"/>
       <c r="C29" s="1"/>
@@ -7803,7 +7830,7 @@
       <c r="E29" s="21"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2"/>
       <c r="B30" s="3"/>
       <c r="C30" s="1"/>
@@ -7811,7 +7838,7 @@
       <c r="E30" s="21"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2"/>
       <c r="B31" s="3"/>
       <c r="C31" s="1"/>
@@ -7819,7 +7846,7 @@
       <c r="E31" s="21"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2"/>
       <c r="B32" s="3"/>
       <c r="C32" s="1"/>
@@ -8019,9 +8046,6 @@
       <c r="C69" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="G10:G14"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8031,8 +8055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8099,7 +8123,7 @@
         <v>13</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -8113,13 +8137,13 @@
         <v>81</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="G5" s="44"/>
     </row>
@@ -8134,13 +8158,13 @@
         <v>74</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="G6" s="44"/>
     </row>
@@ -8152,13 +8176,13 @@
         <v>32</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>43</v>
@@ -8176,13 +8200,13 @@
         <v>82</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="G8" s="44"/>
     </row>
@@ -8194,13 +8218,13 @@
         <v>32</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>44</v>
@@ -8218,10 +8242,10 @@
         <v>83</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>45</v>
@@ -8236,19 +8260,19 @@
         <v>32</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>552</v>
+        <v>538</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>562</v>
+        <v>547</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F11" s="40" t="s">
-        <v>561</v>
+        <v>546</v>
       </c>
       <c r="G11" s="44" t="s">
-        <v>563</v>
+        <v>548</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -8262,16 +8286,16 @@
         <v>84</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F12" s="40" t="s">
-        <v>561</v>
+        <v>546</v>
       </c>
       <c r="G12" s="44" t="s">
-        <v>563</v>
+        <v>548</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -8282,19 +8306,19 @@
         <v>32</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>553</v>
+        <v>539</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>564</v>
+        <v>549</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F13" s="40" t="s">
-        <v>561</v>
+        <v>546</v>
       </c>
       <c r="G13" s="44" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -8308,13 +8332,13 @@
         <v>85</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="G14" s="44"/>
     </row>
@@ -8329,13 +8353,13 @@
         <v>86</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="G15" s="44"/>
     </row>
@@ -8347,19 +8371,19 @@
         <v>32</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>556</v>
+        <v>541</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>558</v>
+        <v>543</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F16" s="40" t="s">
-        <v>557</v>
+        <v>542</v>
       </c>
       <c r="G16" s="44" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -8370,20 +8394,18 @@
         <v>32</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>554</v>
+        <v>540</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>555</v>
+        <v>570</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>565</v>
-      </c>
-      <c r="G17" s="44" t="s">
-        <v>566</v>
-      </c>
+        <v>579</v>
+      </c>
+      <c r="G17" s="44"/>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="8">
@@ -8393,16 +8415,16 @@
         <v>31</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="G18" s="44"/>
     </row>
@@ -8414,16 +8436,16 @@
         <v>32</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="G19" s="44"/>
     </row>
@@ -8435,16 +8457,16 @@
         <v>32</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="E20" s="21" t="s">
         <v>53</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G20" s="44"/>
     </row>
@@ -8456,16 +8478,16 @@
         <v>32</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="E21" s="21" t="s">
         <v>53</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="G21" s="44"/>
     </row>
@@ -8477,16 +8499,16 @@
         <v>32</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>414</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>418</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>420</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>419</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>423</v>
       </c>
       <c r="G22" s="44"/>
     </row>
@@ -8498,16 +8520,16 @@
         <v>32</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="E23" s="21" t="s">
         <v>46</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="G23" s="44"/>
     </row>
@@ -8519,16 +8541,16 @@
         <v>31</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="E24" s="21" t="s">
         <v>53</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="G24" s="44"/>
     </row>
@@ -8540,16 +8562,16 @@
         <v>32</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="G25" s="44"/>
     </row>
@@ -8561,16 +8583,16 @@
         <v>32</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G26" s="44"/>
     </row>
@@ -8582,16 +8604,16 @@
         <v>32</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="G27" s="44"/>
     </row>
@@ -8603,16 +8625,16 @@
         <v>32</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>531</v>
+        <v>517</v>
       </c>
       <c r="G28" s="44"/>
     </row>
@@ -8624,16 +8646,16 @@
         <v>32</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>559</v>
+        <v>544</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>560</v>
+        <v>545</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>572</v>
+        <v>551</v>
       </c>
       <c r="G29" s="44"/>
     </row>
@@ -8645,16 +8667,16 @@
         <v>32</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="G30" s="44"/>
     </row>
@@ -8666,16 +8688,16 @@
         <v>32</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>567</v>
+        <v>550</v>
       </c>
       <c r="G31" s="44"/>
     </row>
@@ -8687,16 +8709,16 @@
         <v>32</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="G32" s="44"/>
     </row>
@@ -8708,16 +8730,16 @@
         <v>32</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="G33" s="44"/>
     </row>
@@ -8729,16 +8751,16 @@
         <v>32</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="G34" s="44"/>
     </row>
@@ -8750,16 +8772,16 @@
         <v>32</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="G35" s="44"/>
     </row>
@@ -8771,16 +8793,16 @@
         <v>32</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>533</v>
+        <v>519</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>532</v>
+        <v>518</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>534</v>
+        <v>520</v>
       </c>
       <c r="G36" s="44"/>
     </row>
@@ -8942,7 +8964,7 @@
         <v>13</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -8956,13 +8978,13 @@
         <v>73</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>46</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="G5" s="44"/>
     </row>
@@ -8977,13 +8999,13 @@
         <v>74</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="E6" s="21" t="s">
         <v>46</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="G6" s="44"/>
     </row>
@@ -8998,13 +9020,13 @@
         <v>75</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E7" s="21" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="G7" s="44"/>
     </row>
@@ -9019,13 +9041,13 @@
         <v>76</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="E8" s="21" t="s">
         <v>46</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="G8" s="44"/>
     </row>
@@ -9040,13 +9062,13 @@
         <v>77</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="E9" s="21" t="s">
         <v>37</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
       <c r="G9" s="44"/>
     </row>
@@ -9061,13 +9083,13 @@
         <v>62</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E10" s="21" t="s">
         <v>46</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="G10" s="44"/>
     </row>
@@ -9082,13 +9104,13 @@
         <v>78</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="E11" s="21" t="s">
         <v>46</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="G11" s="44"/>
     </row>
@@ -9103,13 +9125,13 @@
         <v>79</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="E12" s="21" t="s">
         <v>46</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="G12" s="44"/>
     </row>
@@ -9121,16 +9143,16 @@
         <v>47</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="E13" s="21" t="s">
         <v>48</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="G13" s="44"/>
     </row>
@@ -9145,13 +9167,13 @@
         <v>80</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="E14" s="21" t="s">
         <v>37</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="G14" s="44"/>
     </row>
@@ -9166,13 +9188,13 @@
         <v>1</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="E15" s="21" t="s">
         <v>46</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="G15" s="44"/>
     </row>
@@ -9193,7 +9215,7 @@
         <v>46</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="G16" s="44"/>
     </row>
@@ -9205,16 +9227,16 @@
         <v>32</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="G17" s="44"/>
     </row>
@@ -9226,16 +9248,16 @@
         <v>32</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G18" s="44"/>
     </row>
@@ -9247,16 +9269,16 @@
         <v>32</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="G19" s="44"/>
     </row>
@@ -9577,7 +9599,7 @@
   <dimension ref="A1:G64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9644,7 +9666,7 @@
         <v>50</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -9655,16 +9677,16 @@
         <v>65</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>524</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>537</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>191</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -9675,16 +9697,16 @@
         <v>66</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -9698,13 +9720,13 @@
         <v>4</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -9718,13 +9740,13 @@
         <v>64</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -9738,13 +9760,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -9758,13 +9780,13 @@
         <v>6</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -9775,16 +9797,16 @@
         <v>32</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -9795,16 +9817,16 @@
         <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -10197,7 +10219,7 @@
         <v>50</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -10692,7 +10714,7 @@
         <v>50</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11118,10 +11140,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G64"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11146,7 +11168,7 @@
       <c r="E1" s="18"/>
       <c r="F1" s="2"/>
       <c r="G1" s="45" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -11176,7 +11198,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>68</v>
@@ -11191,7 +11213,7 @@
         <v>13</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11199,19 +11221,19 @@
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>464</v>
+        <v>578</v>
       </c>
       <c r="E5" s="21" t="s">
         <v>54</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11219,19 +11241,19 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>59</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="E6" s="21" t="s">
         <v>54</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11239,127 +11261,127 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>60</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E7" s="21" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="8">
+      <c r="A8" s="49">
         <v>4</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="50" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>510</v>
+      </c>
+      <c r="D8" s="57" t="s">
+        <v>577</v>
+      </c>
+      <c r="E8" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="57" t="s">
+        <v>297</v>
+      </c>
+      <c r="G8" s="58" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="49">
+        <v>5</v>
+      </c>
+      <c r="B9" s="50" t="s">
+        <v>145</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="57" t="s">
+        <v>298</v>
+      </c>
+      <c r="E9" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="G9" s="58"/>
+    </row>
+    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="49">
+        <v>6</v>
+      </c>
+      <c r="B10" s="50" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="57" t="s">
+        <v>568</v>
+      </c>
+      <c r="E10" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="G10" s="58"/>
+    </row>
+    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="49">
+        <v>7</v>
+      </c>
+      <c r="B11" s="50" t="s">
+        <v>145</v>
+      </c>
+      <c r="C11" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="57" t="s">
+        <v>165</v>
+      </c>
+      <c r="E11" s="53" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="57" t="s">
         <v>522</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>523</v>
-      </c>
-      <c r="E8" s="21" t="s">
+      <c r="G11" s="58"/>
+    </row>
+    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="49">
+        <v>8</v>
+      </c>
+      <c r="B12" s="50" t="s">
+        <v>145</v>
+      </c>
+      <c r="C12" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="D12" s="57" t="s">
+        <v>569</v>
+      </c>
+      <c r="E12" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="9" t="s">
-        <v>302</v>
-      </c>
-      <c r="G8" s="49" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="8">
-        <v>5</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="G9" s="49"/>
-    </row>
-    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="8">
-        <v>6</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="G10" s="49"/>
-    </row>
-    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="8">
-        <v>7</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>536</v>
-      </c>
-      <c r="G11" s="49"/>
-    </row>
-    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="8">
-        <v>8</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>461</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="G12" s="49"/>
+      <c r="F12" s="50" t="s">
+        <v>516</v>
+      </c>
+      <c r="G12" s="58"/>
     </row>
     <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="8">
@@ -11369,16 +11391,16 @@
         <v>58</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="E13" s="21" t="s">
         <v>54</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11386,19 +11408,19 @@
         <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="E14" s="21" t="s">
         <v>54</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11406,19 +11428,19 @@
         <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="E15" s="21" t="s">
         <v>54</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="G15" s="43"/>
     </row>
@@ -11427,19 +11449,19 @@
         <v>12</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="E16" s="21" t="s">
         <v>63</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="G16" s="43"/>
     </row>
@@ -11448,19 +11470,19 @@
         <v>13</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="E17" s="21" t="s">
         <v>37</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11468,19 +11490,19 @@
         <v>14</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="E18" s="21" t="s">
         <v>54</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11488,19 +11510,19 @@
         <v>15</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="E19" s="21" t="s">
         <v>54</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11508,19 +11530,19 @@
         <v>16</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="E20" s="21" t="s">
         <v>54</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11531,16 +11553,16 @@
         <v>58</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="E21" s="21" t="s">
         <v>54</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11548,19 +11570,19 @@
         <v>18</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="E22" s="21" t="s">
         <v>54</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11568,19 +11590,19 @@
         <v>19</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E23" s="21" t="s">
         <v>54</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11588,19 +11610,19 @@
         <v>20</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E24" s="21" t="s">
         <v>54</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11608,19 +11630,19 @@
         <v>21</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E25" s="21" t="s">
         <v>54</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11628,19 +11650,19 @@
         <v>22</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E26" s="21" t="s">
         <v>54</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11648,19 +11670,19 @@
         <v>23</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="E27" s="21" t="s">
         <v>37</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11668,19 +11690,19 @@
         <v>24</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="E28" s="21" t="s">
         <v>37</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11688,19 +11710,19 @@
         <v>25</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>543</v>
+        <v>529</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="E29" s="21" t="s">
         <v>37</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
       <c r="G29" s="46"/>
     </row>
@@ -11712,16 +11734,16 @@
         <v>58</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="E30" s="21" t="s">
         <v>37</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11729,19 +11751,19 @@
         <v>27</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="E31" s="21" t="s">
         <v>54</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>546</v>
+        <v>532</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11752,39 +11774,39 @@
         <v>58</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E32" s="21" t="s">
         <v>54</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="8">
         <v>29</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="E33" s="21" t="s">
         <v>54</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="8">
         <v>30</v>
       </c>
@@ -11792,19 +11814,19 @@
         <v>58</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="E34" s="21" t="s">
         <v>63</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="8">
         <v>31</v>
       </c>
@@ -11812,40 +11834,41 @@
         <v>32</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="8">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="49">
         <v>32</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>545</v>
-      </c>
-      <c r="E36" s="21" t="s">
-        <v>191</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="G36" s="44"/>
-    </row>
-    <row r="37" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C36" s="51" t="s">
+        <v>459</v>
+      </c>
+      <c r="D36" s="57" t="s">
+        <v>531</v>
+      </c>
+      <c r="E36" s="53" t="s">
+        <v>186</v>
+      </c>
+      <c r="F36" s="50" t="s">
+        <v>457</v>
+      </c>
+      <c r="G36" s="54"/>
+      <c r="H36" s="55"/>
+    </row>
+    <row r="37" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="8">
         <v>33</v>
       </c>
@@ -11853,19 +11876,19 @@
         <v>32</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="8">
         <v>34</v>
       </c>
@@ -11873,45 +11896,43 @@
         <v>32</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="D38" s="38" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="E38" s="21" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="G38" s="44" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="8">
+        <v>320</v>
+      </c>
+      <c r="G38" s="44"/>
+    </row>
+    <row r="39" spans="1:8" s="55" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="49">
         <v>35</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="D39" s="38" t="s">
-        <v>570</v>
-      </c>
-      <c r="E39" s="21" t="s">
-        <v>191</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="G39" s="44" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C39" s="51" t="s">
+        <v>461</v>
+      </c>
+      <c r="D39" s="52" t="s">
+        <v>565</v>
+      </c>
+      <c r="E39" s="53" t="s">
+        <v>186</v>
+      </c>
+      <c r="F39" s="51" t="s">
+        <v>564</v>
+      </c>
+      <c r="G39" s="54" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="8">
         <v>36</v>
       </c>
@@ -11919,19 +11940,19 @@
         <v>32</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D40" s="38" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="E40" s="21" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="8">
         <v>37</v>
       </c>
@@ -11939,19 +11960,19 @@
         <v>32</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D41" s="38" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="E41" s="21" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -11959,7 +11980,7 @@
       <c r="E42" s="21"/>
       <c r="F42" s="1"/>
     </row>
-    <row r="43" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -11967,7 +11988,7 @@
       <c r="E43" s="21"/>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -11975,7 +11996,7 @@
       <c r="E44" s="21"/>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -11983,7 +12004,7 @@
       <c r="E45" s="21"/>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -11991,7 +12012,7 @@
       <c r="E46" s="21"/>
       <c r="F46" s="1"/>
     </row>
-    <row r="47" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -11999,7 +12020,7 @@
       <c r="E47" s="21"/>
       <c r="F47" s="1"/>
     </row>
-    <row r="48" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -12200,7 +12221,7 @@
         <v>50</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12211,16 +12232,16 @@
         <v>57</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>54</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12231,16 +12252,16 @@
         <v>32</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="E6" s="21" t="s">
         <v>54</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12251,16 +12272,16 @@
         <v>58</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="E7" s="21" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12271,16 +12292,16 @@
         <v>32</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="E8" s="21" t="s">
         <v>54</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12291,16 +12312,16 @@
         <v>32</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="E9" s="21" t="s">
         <v>37</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="G9" s="42"/>
     </row>
@@ -12312,16 +12333,16 @@
         <v>32</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="E10" s="21" t="s">
         <v>37</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="G10" s="42"/>
     </row>
@@ -12333,16 +12354,16 @@
         <v>32</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="E11" s="21" t="s">
         <v>54</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12353,16 +12374,16 @@
         <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="E12" s="21" t="s">
         <v>54</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12373,16 +12394,16 @@
         <v>32</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="E13" s="21" t="s">
         <v>54</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12393,16 +12414,16 @@
         <v>32</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="E14" s="21" t="s">
         <v>54</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12413,16 +12434,16 @@
         <v>32</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="E15" s="21" t="s">
         <v>54</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12433,16 +12454,16 @@
         <v>32</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="E16" s="21" t="s">
         <v>54</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12453,19 +12474,19 @@
         <v>32</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>576</v>
+        <v>554</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="E17" s="21" t="s">
         <v>54</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="G17" s="42" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12476,16 +12497,16 @@
         <v>32</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="E18" s="21" t="s">
         <v>54</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="G18" s="42"/>
     </row>
@@ -12497,16 +12518,16 @@
         <v>32</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="E19" s="21" t="s">
         <v>54</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12517,16 +12538,16 @@
         <v>32</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>573</v>
+        <v>552</v>
       </c>
       <c r="E20" s="21" t="s">
         <v>54</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>574</v>
+        <v>553</v>
       </c>
       <c r="G20" s="42"/>
     </row>
@@ -12538,16 +12559,16 @@
         <v>32</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="E21" s="21" t="s">
         <v>63</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12558,16 +12579,16 @@
         <v>32</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12578,16 +12599,16 @@
         <v>32</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="G23" s="42"/>
     </row>
@@ -12599,16 +12620,16 @@
         <v>32</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>540</v>
+        <v>526</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12619,16 +12640,16 @@
         <v>32</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12639,16 +12660,16 @@
         <v>32</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12959,7 +12980,7 @@
         <v>50</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12970,16 +12991,16 @@
         <v>57</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>54</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12990,16 +13011,16 @@
         <v>58</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="E6" s="21" t="s">
         <v>54</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13010,16 +13031,16 @@
         <v>58</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="E7" s="21" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13033,13 +13054,13 @@
         <v>88</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="E8" s="21" t="s">
         <v>54</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13053,13 +13074,13 @@
         <v>89</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="E9" s="21" t="s">
         <v>54</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13073,13 +13094,13 @@
         <v>90</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="E10" s="21" t="s">
         <v>54</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13093,13 +13114,13 @@
         <v>91</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="E11" s="21" t="s">
         <v>54</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13113,13 +13134,13 @@
         <v>92</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="G12" s="44"/>
     </row>
@@ -13131,16 +13152,16 @@
         <v>58</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="E13" s="21" t="s">
         <v>54</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13151,16 +13172,16 @@
         <v>58</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E14" s="21" t="s">
         <v>54</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13171,16 +13192,16 @@
         <v>58</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="E15" s="21" t="s">
         <v>54</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13191,16 +13212,16 @@
         <v>58</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="E16" s="21" t="s">
         <v>54</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13211,16 +13232,16 @@
         <v>58</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="E17" s="21" t="s">
         <v>54</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13231,16 +13252,16 @@
         <v>58</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="E18" s="21" t="s">
         <v>63</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13251,16 +13272,16 @@
         <v>58</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>577</v>
+        <v>555</v>
       </c>
       <c r="E19" s="21" t="s">
         <v>37</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>578</v>
+        <v>556</v>
       </c>
       <c r="G19" s="48"/>
     </row>
@@ -13272,16 +13293,16 @@
         <v>58</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="E20" s="21" t="s">
         <v>63</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13292,16 +13313,16 @@
         <v>32</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13312,16 +13333,16 @@
         <v>32</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13332,16 +13353,16 @@
         <v>32</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">

--- a/testData/testData.xlsx
+++ b/testData/testData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="934" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="934"/>
   </bookViews>
   <sheets>
     <sheet name="GetAccount" sheetId="1" r:id="rId1"/>
@@ -3366,10 +3366,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{"errMsg":"strconv.Atoi: parsing \"&amp;、&gt;、\": invalid syntax","errCode":5003}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>{
  "method": "CallTransaction",
  "params": {
@@ -3416,10 +3412,6 @@
   </si>
   <si>
     <t>{"errMsg":"param \"input\" is empty","errCode":4110}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"method":"GetAccount","params":{"chainId":"&amp;、&gt;、","address":"0x2c7536e3605d9c16a7a3d7b1898e529396a65c23"}}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -3817,6 +3809,14 @@
   </si>
   <si>
     <t>chainId字段待去掉，请求参数与chainId无关</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"errMsg":"strconv.Atoi: parsing \"&amp;、&gt;、\": invalid syntax","errCode":5003}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"method":"GetAccount","params":{"chainId":"&amp;、&gt;、","address":"0x2c7536e3605d9c16a7a3d7b1898e529396a65c23"}}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4555,8 +4555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4820,13 +4820,13 @@
         <v>93</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>533</v>
+        <v>580</v>
       </c>
       <c r="E14" s="21" t="s">
         <v>37</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>527</v>
+        <v>579</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5680,13 +5680,13 @@
         <v>479</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E15" s="21" t="s">
         <v>53</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="G15" s="44"/>
     </row>
@@ -5701,13 +5701,13 @@
         <v>480</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E16" s="21" t="s">
         <v>53</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="G16" s="44"/>
     </row>
@@ -5722,13 +5722,13 @@
         <v>481</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E17" s="21" t="s">
         <v>53</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G17" s="44"/>
     </row>
@@ -6235,7 +6235,7 @@
         <v>54</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6851,7 +6851,7 @@
         <v>96</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7577,13 +7577,13 @@
         <v>103</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="E10" s="21" t="s">
         <v>96</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G10" s="56"/>
     </row>
@@ -7598,13 +7598,13 @@
         <v>101</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E11" s="21" t="s">
         <v>96</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G11" s="56"/>
     </row>
@@ -7619,13 +7619,13 @@
         <v>98</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E12" s="21" t="s">
         <v>96</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G12" s="56"/>
     </row>
@@ -7640,13 +7640,13 @@
         <v>99</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E13" s="21" t="s">
         <v>96</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G13" s="56"/>
     </row>
@@ -7661,13 +7661,13 @@
         <v>102</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="E14" s="21" t="s">
         <v>96</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G14" s="56"/>
     </row>
@@ -8260,19 +8260,19 @@
         <v>32</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E11" s="21" t="s">
         <v>184</v>
       </c>
       <c r="F11" s="40" t="s">
+        <v>544</v>
+      </c>
+      <c r="G11" s="44" t="s">
         <v>546</v>
-      </c>
-      <c r="G11" s="44" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -8286,16 +8286,16 @@
         <v>84</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E12" s="21" t="s">
         <v>184</v>
       </c>
       <c r="F12" s="40" t="s">
+        <v>544</v>
+      </c>
+      <c r="G12" s="44" t="s">
         <v>546</v>
-      </c>
-      <c r="G12" s="44" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -8306,16 +8306,16 @@
         <v>32</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E13" s="21" t="s">
         <v>184</v>
       </c>
       <c r="F13" s="40" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G13" s="44" t="s">
         <v>428</v>
@@ -8371,16 +8371,16 @@
         <v>32</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>541</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>543</v>
       </c>
       <c r="E16" s="21" t="s">
         <v>184</v>
       </c>
       <c r="F16" s="40" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G16" s="44" t="s">
         <v>439</v>
@@ -8394,16 +8394,16 @@
         <v>32</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="E17" s="21" t="s">
         <v>184</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="G17" s="44"/>
     </row>
@@ -8646,16 +8646,16 @@
         <v>32</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E29" s="21" t="s">
         <v>186</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="G29" s="44"/>
     </row>
@@ -8697,7 +8697,7 @@
         <v>186</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="G31" s="44"/>
     </row>
@@ -11142,7 +11142,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -11227,7 +11227,7 @@
         <v>448</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E5" s="21" t="s">
         <v>54</v>
@@ -11287,7 +11287,7 @@
         <v>510</v>
       </c>
       <c r="D8" s="57" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E8" s="53" t="s">
         <v>54</v>
@@ -11296,7 +11296,7 @@
         <v>297</v>
       </c>
       <c r="G8" s="58" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11331,7 +11331,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="57" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="E10" s="53" t="s">
         <v>54</v>
@@ -11373,7 +11373,7 @@
         <v>146</v>
       </c>
       <c r="D12" s="57" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E12" s="53" t="s">
         <v>54</v>
@@ -11713,16 +11713,16 @@
         <v>145</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="D29" s="9" t="s">
         <v>529</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>530</v>
       </c>
       <c r="E29" s="21" t="s">
         <v>37</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G29" s="46"/>
     </row>
@@ -11757,13 +11757,13 @@
         <v>164</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E31" s="21" t="s">
         <v>54</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11857,7 +11857,7 @@
         <v>459</v>
       </c>
       <c r="D36" s="57" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E36" s="53" t="s">
         <v>186</v>
@@ -11899,7 +11899,7 @@
         <v>230</v>
       </c>
       <c r="D38" s="38" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="E38" s="21" t="s">
         <v>186</v>
@@ -11920,16 +11920,16 @@
         <v>461</v>
       </c>
       <c r="D39" s="52" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E39" s="53" t="s">
         <v>186</v>
       </c>
       <c r="F39" s="51" t="s">
+        <v>562</v>
+      </c>
+      <c r="G39" s="54" t="s">
         <v>564</v>
-      </c>
-      <c r="G39" s="54" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12474,10 +12474,10 @@
         <v>32</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E17" s="21" t="s">
         <v>54</v>
@@ -12541,13 +12541,13 @@
         <v>474</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E20" s="21" t="s">
         <v>54</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="G20" s="42"/>
     </row>
@@ -13275,13 +13275,13 @@
         <v>471</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E19" s="21" t="s">
         <v>37</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="G19" s="48"/>
     </row>

--- a/testData/testData.xlsx
+++ b/testData/testData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="934"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="934" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="GetAccount" sheetId="1" r:id="rId1"/>
@@ -1390,16 +1390,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{
- "method": "GetTransactionByHash",
- "params": {
- "chainId": "2",
-"hash":"0x757d024b44022050eec2da63ce83e9a0746ea03bc36ac21d564d7317cb4cc6a2"
- }
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>{"Transaction":{"chainID":2,"from":"0x2c7536e3605d9c16a7a3d7b1898e529396a65c23","input":"0x","nonce":246,"to":"0x2c7536e3605d9c16a7a3d7b1898e529396a452a3","value":300},"blockHeight":63391,"contractAddress":"0x0000000000000000000000000000000000000000","logs":null,"out":"0x","root":null,"status":1,"transactionHash":"0x0000000000000000000000000000000000000000000000000000000000000000"}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1996,10 +1986,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>null</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>输入的startHeight与当前最新区块做对比，并做相应提示</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2496,24 +2482,6 @@
   </si>
   <si>
     <t>{"method":"GetAccount","params":{"chainId":"2","address":""}}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "method": "SendTx",
- "params": {
-    "chainId": "2",
-    "fromChainId": "2",
-    "toChainId": "2",
-    "from": "0x2c7536e3605d9c16a7a3d7b1898e529396a65c23",
-    "nonce": "246",
-    "to": "0x2c7536e3605d9c16a7a3d7b1898e529396a452a3",
-    "input": "",
-    "value": "300",
-  "sig": "0x5fe74329231ac65069a8ac986905c34c17cd00455b0fab739f0d565803272c6e72ed1415d65b47be9a036227669c95eb6e275b37b6149ca143a091ffb584138b1c",
-  "pub": "0x043d85aa2a649fa5fd421988cebff58d7173f7b563b8a9594e92bcf3e9f5e43037c3463121af51aacc8a8cf2d8cfcc6fa717b774fc0aceec04d7185c87e279c1f6"
- }
-}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2877,19 +2845,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">{
- "method": "GetTransactions",
- "params": {
- "chainId":"2",
- "address":"0x2c7536e3605d9c16a7a3d7b1898e529396a65c23", 
- "startHeight": "68100", 
- "endHeight": "68150"
- }
-}
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>[{"chainId":2,"from":"0x2c7536e3605d9c16a7a3d7b1898e529396a65c23","to":"0x133c5bfef5d486052b061b44af113f20057341a8","nonce":410,"value":0,"input":"0xb96fbc0f0000000000000000000000000000000000000000000000000000000000000020000000000000000000000000000000000000000000000000000000000000005700000000000000000000000000000000000000000000000000000000c136f42e000000000000000000000000000000000000000000000000000000000000008000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000015323031392d30372d30332031393a33333a30352e300000000000000000000000","hash":"0x0f1c3ed301e22e01b8ca44716d09e95e6abda06f001ae444516a7e9f5312759f","timestamp":1563443584},{"chainId":2,"from":"0x2c7536e3605d9c16a7a3d7b1898e529396a65c23","to":"0x2c7536e3605d9c16a7a3d7b1898e529396a452a3","nonce":411,"value":300,"input":"0x","hash":"0x6e0f233572113c1fd2c8cb0e06b3f1d6b6dd2e3900d66583efc606f1ab8a3f29","timestamp":1563443626},{"chainId":2,"from":"0x2c7536e3605d9c16a7a3d7b1898e529396a65c23","to":"0x133c5bfef5d486052b061b44af113f20057341a8","nonce":412,"value":0,"input":"0xb96fbc0f0000000000000000000000000000000000000000000000000000000000000020000000000000000000000000000000000000000000000000000000000000005700000000000000000000000000000000000000000000000000000000bc365a32000000000000000000000000000000000000000000000000000000000000008000000000000000000000000000000000000000000000000000000000000000010000000000000000000000000000000000000000000000000000000000000015323031392d30372d30332031393a33323a32322e300000000000000000000000","hash":"0x738b316e0690c52680841fe014c5b8c45955aa861f0ac32f81c45ad788ddcf9c","timestamp":1563443643}]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3427,24 +3382,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{
- "method": "SendTx",
- "params": {
-  "chainId": "3",
-  "fromChainId": "3",
-  "toChainId": "3",
-  "from": "0x2c7536e3605d9c16a7a3d7b1898e529396a65c23",
-  "nonce": "204",
-  "to": "0xa561712AD5d1Ba59Ac1F962124b8b9d316cb544e",
-  "input": "",
-  "value": "",
-  "sig": "0x92c6b494b39c48f5b7b964fa740159af5fd6fe7f787893979e8aec16e9eb7df26a6df0c133cfac62cda9d7248c3163cb9d084ad57f05deec6dc5190ab821e5561b",
-  "pub": "0x043d85aa2a649fa5fd421988cebff58d7173f7b563b8a9594e92bcf3e9f5e43037c3463121af51aacc8a8cf2d8cfcc6fa717b774fc0aceec04d7185c87e279c1f6"
- }
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>转账金额包含小数点</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -3508,6 +3445,288 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>需求：修改后台返回提示信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "method": "SendTx",
+ "params": {
+  "chainId": "3",
+  "fromChainId": "2",
+  "toChainId": "3",
+  "from": "0x2c7536e3605d9c16a7a3d7b1898e529396a65c23",
+  "nonce": "204",
+  "to": "0xa561712AD5d1Ba59Ac1F962124b8b9d316cb544e",
+  "input": "",
+  "value": "50",
+  "sig": "0x216c24950dd856e94d875c47e5d2945e0baf370b3cacc5884770b187be55867405c730b6b0653f4c24719b631ce8f191b7a79038623cc0ec7e9dd6bcd8cde3a31b",
+  "pub": "0x043d85aa2a649fa5fd421988cebff58d7173f7b563b8a9594e92bcf3e9f5e43037c3463121af51aacc8a8cf2d8cfcc6fa717b774fc0aceec04d7185c87e279c1f6"
+ }
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"errMsg":"param \"from\" is must","errCode":4104}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"errMsg":"param \"fromChainId\" is must","errCode":4108}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "method": "GetTransactions",
+ "params": {
+  "chainId":"2",
+"address":"0x2c7536e3605d9c16a7a3d7b1898e529396a65c23", 
+  "startHeight": "68127", 
+  "endHeight": "68127"
+ }
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"errMsg":"endHeight should be greater than startHeight","errCode":4107}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询的起始区块高度大于当前最新高度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "method": "GetBlockHeader",
+ "params": {"chainId":"2", "height":16113}
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"errMsg":"height type is string","errCode":4113}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "method": "GetBlockTxs",
+ "params": {
+ "chainId":"2",
+ "height":"16113",
+ "page": "193",
+ "size": 2
+ }
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"errMsg":"size type is string","errCode":4115}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "method": "GetBlockTxs",
+ "params": {
+ "chainId":"2",
+ "height":"16113",
+ "page": 193,
+ "size": "2"
+ }
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"errMsg":"page type is string","errCode":4114}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "method": "GetBlockTxs",
+ "params": {
+ "chainId":"2",
+ "height":16113,
+ "page": "193",
+ "size": "2"
+ }
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"errMsg":"height type is string","errCode":4113}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"Transaction":{"chainId":0,"from":"0x2c7536e3605d9c16a7a3d7b1898e529396a65c23","to":"0xedc868540d9e0137ad9d1dd1be9309f38ea76f20","nonce":0,"value":0,"input":"0x6d4ce63c","hash":"","timestamp":0},"root":"","status":1,"logs":"","transactionHash":"0x4972d6be2cde1bcc312195c7a575c33fe424520147616a828d94b97e940b4e35","contractAddress":"0x0000000000000000000000000000000000000000","out":"0x","blockHeight":0}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "method": "CallTransaction",
+ "params": {
+  "chainId": "2",
+  "from": "0x2c7536e3605d9c16a7a3d7b1898e529396a65c23",
+  "to": "0xedc868540d9e0137ad9d1dd1be9309f38ea76f20",
+  "value": "0",
+  "input": "0x6d4ce63c"
+ }
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示信息有误，正常提示信息为：{"errMsg":"param \"nonce\" is must","errCode":4105}：实际传参与nonce无关</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "method": "CallTransaction",
+ "params": {
+  "chainId": "2",
+  "from": "0x2c7536e3605d9c16a7a3d7b1898e529396a65c23",
+  "nonce": "1",
+  "value": "0",
+  "input": "0x6d4ce63c"
+ }
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "method": "CallTransaction",
+ "params": {
+  "chainId": "1000000",
+  "from": "0x2c7536e3605d9c16a7a3d7b1898e529396a65c23",
+  "to": "0xedc868540d9e0137ad9d1dd1be9309f38ea76f20",
+  "nonce": "1",
+  "value": "0",
+  "input": "0x6d4ce63c"
+ }
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "method": "CallTransaction",
+ "params": {
+  "chainId": 2,
+  "from": "0x2c7536e3605d9c16a7a3d7b1898e529396a65c23",
+  "to": "0xedc868540d9e0137ad9d1dd1be9309f38ea76f20",
+  "nonce": "1",
+  "value": "0",
+  "input": "0x6d4ce63c"
+ }
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "method": "SendTx",
+ "params": {
+ "chainId": "3",
+ "fromChainId": "3",
+ "toChainId": "3",
+ "from": "0x2c7536e3605d9c16a7a3d7b1898e529396a65c23",
+ "nonce": "204",
+ "to": "",
+ "input": "",
+ "value": "300",
+ "sig": "0xeca84bf256f0f3d79eaa10365b8b9e71f54f7b31e0c6983f57df5eb76702b76034f48999f20c70ab9a2a3b6de79d82750c5c1b935a34f63b8db3a06c3723ab341b",
+ "pub": "0x043d85aa2a649fa5fd421988cebff58d7173f7b563b8a9594e92bcf3e9f5e43037c3463121af51aacc8a8cf2d8cfcc6fa717b774fc0aceec04d7185c87e279c1f6"
+ }
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "method": "GetChainInfo",
+ "params": {
+  "chainIds":"akjlda"
+ }
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"errMsg":"chainIds must be is int array","errCode":4102}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "method": "GetChainInfo",
+ "params": {
+  "chainIds":5
+ }
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "method": "GetChainInfo",
+ "params": {
+  "chainIds":"1.99"
+ }
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "method": "GetChainInfo",
+ "params": {
+  "chainIds":"-5"
+ }
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "method": "GetChainInfo",
+ "params": {
+  "chainIds":"2"
+ }
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "method": "CallTransaction",
+ "params": {
+  "chainId": "",
+  "from": "0x2c7536e3605d9c16a7a3d7b1898e529396a65c23",
+  "to": "0xedc868540d9e0137ad9d1dd1be9309f38ea76f20",
+  "nonce": "1",
+  "value": "0",
+  "input": "0x6d4ce63c"
+ }
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "method": "CallTransaction",
+ "params": {
+  "chainId": "2",
+  "from": "0x2c7536e3605d9c16a7a3d7b1898e529396a65c23",
+  "to": "0x862d51477c161c607ec583cbe56f7e7009e00ac8",
+  "nonce": "514",
+  "value": "0",
+  "input": "0x608060405234801561001057600080fd5b50610106806100206000396000f3fe6080604052600436106043576000357c0100000000000000000000000000000000000000000000000000000000900480636d4ce63c146048578063c6888fa1146070575b600080fd5b348015605357600080fd5b50605a60bb565b6040518082815260200191505060405180910390f35b348015607b57600080fd5b5060a560048036036020811015609057600080fd5b810190808035906020019092919050505060c4565b6040518082815260200191505060405180910390f35b60008054905090565b600060078202600081905550600054905091905056fea165627a7a72305820e63207980ff1fcc762991d1089137344660dbf817d519e3232d9d69224a44e280029"
+ }
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"errMsg":"\"to\" and \"input\" cannot both be empty","errCode":5003}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>chainId字段待去掉，请求参数与chainId无关</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"errMsg":"strconv.Atoi: parsing \"&amp;、&gt;、\": invalid syntax","errCode":5003}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"method":"GetAccount","params":{"chainId":"&amp;、&gt;、","address":"0x2c7536e3605d9c16a7a3d7b1898e529396a65c23"}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>{
     "method": "SendTx",
     "params": {
@@ -3526,112 +3745,21 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>需求：修改后台返回提示信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>{
  "method": "SendTx",
  "params": {
   "chainId": "3",
-  "fromChainId": "2",
+  "fromChainId": "3",
   "toChainId": "3",
   "from": "0x2c7536e3605d9c16a7a3d7b1898e529396a65c23",
   "nonce": "204",
   "to": "0xa561712AD5d1Ba59Ac1F962124b8b9d316cb544e",
   "input": "",
-  "value": "50",
-  "sig": "0x216c24950dd856e94d875c47e5d2945e0baf370b3cacc5884770b187be55867405c730b6b0653f4c24719b631ce8f191b7a79038623cc0ec7e9dd6bcd8cde3a31b",
+  "value": "",
+  "sig": "0x92c6b494b39c48f5b7b964fa740159af5fd6fe7f787893979e8aec16e9eb7df26a6df0c133cfac62cda9d7248c3163cb9d084ad57f05deec6dc5190ab821e5561b",
   "pub": "0x043d85aa2a649fa5fd421988cebff58d7173f7b563b8a9594e92bcf3e9f5e43037c3463121af51aacc8a8cf2d8cfcc6fa717b774fc0aceec04d7185c87e279c1f6"
  }
 }</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"errMsg":"param \"from\" is must","errCode":4104}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"errMsg":"param \"fromChainId\" is must","errCode":4108}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "method": "GetTransactions",
- "params": {
-  "chainId":"2",
-"address":"0x2c7536e3605d9c16a7a3d7b1898e529396a65c23", 
-  "startHeight": "68127", 
-  "endHeight": "68127"
- }
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"errMsg":"endHeight should be greater than startHeight","errCode":4107}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询的起始区块高度大于当前最新高度</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "method": "GetBlockHeader",
- "params": {"chainId":"2", "height":16113}
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"errMsg":"height type is string","errCode":4113}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "method": "GetBlockTxs",
- "params": {
- "chainId":"2",
- "height":"16113",
- "page": "193",
- "size": 2
- }
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"errMsg":"size type is string","errCode":4115}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "method": "GetBlockTxs",
- "params": {
- "chainId":"2",
- "height":"16113",
- "page": 193,
- "size": "2"
- }
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"errMsg":"page type is string","errCode":4114}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "method": "GetBlockTxs",
- "params": {
- "chainId":"2",
- "height":16113,
- "page": "193",
- "size": "2"
- }
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"errMsg":"height type is string","errCode":4113}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -3647,63 +3775,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{"Transaction":{"chainId":0,"from":"0x2c7536e3605d9c16a7a3d7b1898e529396a65c23","to":"0xedc868540d9e0137ad9d1dd1be9309f38ea76f20","nonce":0,"value":0,"input":"0x6d4ce63c","hash":"","timestamp":0},"root":"","status":1,"logs":"","transactionHash":"0x4972d6be2cde1bcc312195c7a575c33fe424520147616a828d94b97e940b4e35","contractAddress":"0x0000000000000000000000000000000000000000","out":"0x","blockHeight":0}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "method": "CallTransaction",
- "params": {
-  "chainId": "2",
-  "from": "0x2c7536e3605d9c16a7a3d7b1898e529396a65c23",
-  "to": "0xedc868540d9e0137ad9d1dd1be9309f38ea76f20",
-  "value": "0",
-  "input": "0x6d4ce63c"
- }
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>提示信息有误，正常提示信息为：{"errMsg":"param \"nonce\" is must","errCode":4105}：实际传参与nonce无关</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "method": "CallTransaction",
- "params": {
-  "chainId": "2",
-  "from": "0x2c7536e3605d9c16a7a3d7b1898e529396a65c23",
-  "nonce": "1",
-  "value": "0",
-  "input": "0x6d4ce63c"
- }
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "method": "CallTransaction",
- "params": {
-  "chainId": "1000000",
-  "from": "0x2c7536e3605d9c16a7a3d7b1898e529396a65c23",
-  "to": "0xedc868540d9e0137ad9d1dd1be9309f38ea76f20",
-  "nonce": "1",
-  "value": "0",
-  "input": "0x6d4ce63c"
- }
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "method": "CallTransaction",
- "params": {
-  "chainId": 2,
-  "from": "0x2c7536e3605d9c16a7a3d7b1898e529396a65c23",
-  "to": "0xedc868540d9e0137ad9d1dd1be9309f38ea76f20",
-  "nonce": "1",
-  "value": "0",
-  "input": "0x6d4ce63c"
+    <t>null</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "method": "GetTransactionByHash",
+ "params": {
+ "chainId": "2",
+"hash":"0x757d024b44022050eec2da63ce83e9a0746ea03bc36ac21d564d7317cb4cc6a2"
  }
 }</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3712,111 +3792,30 @@
     <t>{
  "method": "SendTx",
  "params": {
- "chainId": "3",
- "fromChainId": "3",
- "toChainId": "3",
- "from": "0x2c7536e3605d9c16a7a3d7b1898e529396a65c23",
- "nonce": "204",
- "to": "",
- "input": "",
- "value": "300",
- "sig": "0xeca84bf256f0f3d79eaa10365b8b9e71f54f7b31e0c6983f57df5eb76702b76034f48999f20c70ab9a2a3b6de79d82750c5c1b935a34f63b8db3a06c3723ab341b",
- "pub": "0x043d85aa2a649fa5fd421988cebff58d7173f7b563b8a9594e92bcf3e9f5e43037c3463121af51aacc8a8cf2d8cfcc6fa717b774fc0aceec04d7185c87e279c1f6"
- }
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "method": "GetChainInfo",
- "params": {
-  "chainIds":"akjlda"
- }
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"errMsg":"chainIds must be is int array","errCode":4102}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "method": "GetChainInfo",
- "params": {
-  "chainIds":5
- }
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "method": "GetChainInfo",
- "params": {
-  "chainIds":"1.99"
- }
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "method": "GetChainInfo",
- "params": {
-  "chainIds":"-5"
- }
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "method": "GetChainInfo",
- "params": {
-  "chainIds":"2"
- }
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "method": "CallTransaction",
- "params": {
-  "chainId": "",
-  "from": "0x2c7536e3605d9c16a7a3d7b1898e529396a65c23",
-  "to": "0xedc868540d9e0137ad9d1dd1be9309f38ea76f20",
-  "nonce": "1",
-  "value": "0",
-  "input": "0x6d4ce63c"
- }
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "method": "CallTransaction",
- "params": {
-  "chainId": "2",
-  "from": "0x2c7536e3605d9c16a7a3d7b1898e529396a65c23",
-  "to": "0x862d51477c161c607ec583cbe56f7e7009e00ac8",
-  "nonce": "514",
-  "value": "0",
-  "input": "0x608060405234801561001057600080fd5b50610106806100206000396000f3fe6080604052600436106043576000357c0100000000000000000000000000000000000000000000000000000000900480636d4ce63c146048578063c6888fa1146070575b600080fd5b348015605357600080fd5b50605a60bb565b6040518082815260200191505060405180910390f35b348015607b57600080fd5b5060a560048036036020811015609057600080fd5b810190808035906020019092919050505060c4565b6040518082815260200191505060405180910390f35b60008054905090565b600060078202600081905550600054905091905056fea165627a7a72305820e63207980ff1fcc762991d1089137344660dbf817d519e3232d9d69224a44e280029"
- }
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"errMsg":"\"to\" and \"input\" cannot both be empty","errCode":5003}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>chainId字段待去掉，请求参数与chainId无关</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"errMsg":"strconv.Atoi: parsing \"&amp;、&gt;、\": invalid syntax","errCode":5003}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"method":"GetAccount","params":{"chainId":"&amp;、&gt;、","address":"0x2c7536e3605d9c16a7a3d7b1898e529396a65c23"}}</t>
+    "chainId": "2",
+    "fromChainId": "2",
+    "toChainId": "2",
+    "from": "0x2c7536e3605d9c16a7a3d7b1898e529396a65c23",
+    "nonce": "246",
+    "to": "0x2c7536e3605d9c16a7a3d7b1898e529396a452a3",
+    "input": "",
+    "value": "300",
+  "sig": "0x5fe74329231ac65069a8ac986905c34c17cd00455b0fab739f0d565803272c6e72ed1415d65b47be9a036227669c95eb6e275b37b6149ca143a091ffb584138b1c",
+  "pub": "0x043d85aa2a649fa5fd421988cebff58d7173f7b563b8a9594e92bcf3e9f5e43037c3463121af51aacc8a8cf2d8cfcc6fa717b774fc0aceec04d7185c87e279c1f6"
+ }
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "method": "GetTransactions",
+ "params": {
+ "chainId":"2",
+ "address":"0x2c7536e3605d9c16a7a3d7b1898e529396a65c23", 
+ "startHeight": "68100", 
+ "endHeight": "68150"
+ }
+}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -4555,7 +4554,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -4623,7 +4622,7 @@
         <v>35</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4643,7 +4642,7 @@
         <v>37</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4759,13 +4758,13 @@
         <v>90</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="E11" s="21" t="s">
         <v>37</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4796,16 +4795,16 @@
         <v>32</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E13" s="21" t="s">
         <v>37</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="G13" s="42"/>
     </row>
@@ -4820,13 +4819,13 @@
         <v>93</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="E14" s="21" t="s">
         <v>37</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -4837,16 +4836,16 @@
         <v>32</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="E15" s="21" t="s">
         <v>37</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="G15" s="42"/>
     </row>
@@ -4882,7 +4881,7 @@
         <v>94</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E17" s="21" t="s">
         <v>37</v>
@@ -4922,7 +4921,7 @@
         <v>185</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E19" s="21" t="s">
         <v>37</v>
@@ -5400,7 +5399,7 @@
   <dimension ref="A1:G72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5466,7 +5465,7 @@
         <v>50</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5480,13 +5479,13 @@
         <v>126</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>54</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5500,7 +5499,7 @@
         <v>67</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E6" s="21" t="s">
         <v>54</v>
@@ -5520,7 +5519,7 @@
         <v>118</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E7" s="20" t="s">
         <v>53</v>
@@ -5537,16 +5536,16 @@
         <v>58</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E8" s="21" t="s">
         <v>53</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5560,13 +5559,13 @@
         <v>127</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E9" s="21" t="s">
         <v>54</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5580,13 +5579,13 @@
         <v>128</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E10" s="21" t="s">
         <v>54</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5600,13 +5599,13 @@
         <v>129</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E11" s="21" t="s">
         <v>54</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5620,13 +5619,13 @@
         <v>130</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E12" s="21" t="s">
         <v>54</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5640,13 +5639,13 @@
         <v>131</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E13" s="21" t="s">
         <v>54</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5657,16 +5656,16 @@
         <v>58</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="E14" s="21" t="s">
         <v>37</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5677,16 +5676,16 @@
         <v>32</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="E15" s="21" t="s">
         <v>53</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="G15" s="44"/>
     </row>
@@ -5698,16 +5697,16 @@
         <v>32</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="E16" s="21" t="s">
         <v>53</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="G16" s="44"/>
     </row>
@@ -5719,16 +5718,16 @@
         <v>32</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="E17" s="21" t="s">
         <v>53</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="G17" s="44"/>
     </row>
@@ -5743,7 +5742,7 @@
         <v>203</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E18" s="21" t="s">
         <v>63</v>
@@ -5763,7 +5762,7 @@
         <v>217</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E19" s="21" t="s">
         <v>186</v>
@@ -5783,13 +5782,13 @@
         <v>208</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E20" s="21" t="s">
         <v>186</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5803,13 +5802,13 @@
         <v>215</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E21" s="21" t="s">
         <v>186</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5823,13 +5822,13 @@
         <v>218</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E22" s="21" t="s">
         <v>186</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -5843,13 +5842,13 @@
         <v>219</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E23" s="21" t="s">
         <v>186</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6215,7 +6214,7 @@
         <v>50</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6229,13 +6228,13 @@
         <v>115</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>54</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6255,7 +6254,7 @@
         <v>54</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6275,7 +6274,7 @@
         <v>54</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6295,7 +6294,7 @@
         <v>54</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6309,13 +6308,13 @@
         <v>122</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="E9" s="21" t="s">
         <v>37</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6329,13 +6328,13 @@
         <v>123</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E10" s="21" t="s">
         <v>54</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6355,7 +6354,7 @@
         <v>54</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6369,7 +6368,7 @@
         <v>203</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E12" s="21" t="s">
         <v>63</v>
@@ -6409,13 +6408,13 @@
         <v>208</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E14" s="21" t="s">
         <v>186</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6831,7 +6830,7 @@
         <v>50</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6845,13 +6844,13 @@
         <v>106</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>96</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6871,7 +6870,7 @@
         <v>96</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6885,13 +6884,13 @@
         <v>107</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="E7" s="21" t="s">
         <v>96</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6905,13 +6904,13 @@
         <v>108</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="E8" s="21" t="s">
         <v>96</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6925,13 +6924,13 @@
         <v>109</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="E9" s="21" t="s">
         <v>110</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -6945,7 +6944,7 @@
         <v>111</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="E10" s="21" t="s">
         <v>96</v>
@@ -6965,7 +6964,7 @@
         <v>112</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="E11" s="21" t="s">
         <v>96</v>
@@ -6982,10 +6981,10 @@
         <v>58</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="E12" s="21" t="s">
         <v>113</v>
@@ -7006,13 +7005,13 @@
         <v>114</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="E13" s="21" t="s">
         <v>96</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7052,7 +7051,7 @@
         <v>186</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7460,7 +7459,7 @@
         <v>13</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7474,13 +7473,13 @@
         <v>100</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>54</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7494,13 +7493,13 @@
         <v>227</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="E6" s="20" t="s">
         <v>228</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -7535,7 +7534,7 @@
         <v>70</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="E8" s="21" t="s">
         <v>96</v>
@@ -7556,13 +7555,13 @@
         <v>97</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E9" s="21" t="s">
         <v>96</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="G9" s="13"/>
     </row>
@@ -7577,13 +7576,13 @@
         <v>103</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="E10" s="21" t="s">
         <v>96</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="G10" s="56"/>
     </row>
@@ -7598,13 +7597,13 @@
         <v>101</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="E11" s="21" t="s">
         <v>96</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="G11" s="56"/>
     </row>
@@ -7619,13 +7618,13 @@
         <v>98</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="E12" s="21" t="s">
         <v>96</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="G12" s="56"/>
     </row>
@@ -7640,13 +7639,13 @@
         <v>99</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="E13" s="21" t="s">
         <v>96</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="G13" s="56"/>
     </row>
@@ -7661,13 +7660,13 @@
         <v>102</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="E14" s="21" t="s">
         <v>96</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="G14" s="56"/>
     </row>
@@ -7682,7 +7681,7 @@
         <v>203</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="E15" s="21" t="s">
         <v>113</v>
@@ -7724,13 +7723,13 @@
         <v>208</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="E17" s="21" t="s">
         <v>186</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="G17" s="13"/>
     </row>
@@ -8055,8 +8054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8123,7 +8122,7 @@
         <v>13</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -8137,7 +8136,7 @@
         <v>81</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>411</v>
+        <v>579</v>
       </c>
       <c r="E5" s="21" t="s">
         <v>184</v>
@@ -8179,7 +8178,7 @@
         <v>255</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="E7" s="21" t="s">
         <v>184</v>
@@ -8218,10 +8217,10 @@
         <v>32</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="E9" s="21" t="s">
         <v>184</v>
@@ -8260,19 +8259,19 @@
         <v>32</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>545</v>
+        <v>574</v>
       </c>
       <c r="E11" s="21" t="s">
         <v>184</v>
       </c>
       <c r="F11" s="40" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="G11" s="44" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -8286,16 +8285,16 @@
         <v>84</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>535</v>
+        <v>575</v>
       </c>
       <c r="E12" s="21" t="s">
         <v>184</v>
       </c>
       <c r="F12" s="40" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="G12" s="44" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -8306,19 +8305,19 @@
         <v>32</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="E13" s="21" t="s">
         <v>184</v>
       </c>
       <c r="F13" s="40" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="G13" s="44" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -8332,7 +8331,7 @@
         <v>85</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="E14" s="21" t="s">
         <v>184</v>
@@ -8353,13 +8352,13 @@
         <v>86</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E15" s="21" t="s">
         <v>184</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="G15" s="44"/>
     </row>
@@ -8371,19 +8370,19 @@
         <v>32</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="E16" s="21" t="s">
         <v>184</v>
       </c>
       <c r="F16" s="40" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="G16" s="44" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -8394,16 +8393,16 @@
         <v>32</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="E17" s="21" t="s">
         <v>184</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="G17" s="44"/>
     </row>
@@ -8415,16 +8414,16 @@
         <v>31</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="E18" s="21" t="s">
         <v>184</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="G18" s="44"/>
     </row>
@@ -8436,16 +8435,16 @@
         <v>32</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="E19" s="21" t="s">
         <v>184</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="G19" s="44"/>
     </row>
@@ -8457,16 +8456,16 @@
         <v>32</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="E20" s="21" t="s">
         <v>53</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="G20" s="44"/>
     </row>
@@ -8481,7 +8480,7 @@
         <v>191</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="E21" s="21" t="s">
         <v>53</v>
@@ -8499,16 +8498,16 @@
         <v>32</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D22" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>411</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>415</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>414</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>418</v>
       </c>
       <c r="G22" s="44"/>
     </row>
@@ -8520,16 +8519,16 @@
         <v>32</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E23" s="21" t="s">
         <v>46</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="G23" s="44"/>
     </row>
@@ -8541,16 +8540,16 @@
         <v>31</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="E24" s="21" t="s">
         <v>53</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="G24" s="44"/>
     </row>
@@ -8562,16 +8561,16 @@
         <v>32</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="G25" s="44"/>
     </row>
@@ -8583,16 +8582,16 @@
         <v>32</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="E26" s="21" t="s">
         <v>192</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="G26" s="44"/>
     </row>
@@ -8634,7 +8633,7 @@
         <v>186</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="G28" s="44"/>
     </row>
@@ -8646,16 +8645,16 @@
         <v>32</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="E29" s="21" t="s">
         <v>186</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="G29" s="44"/>
     </row>
@@ -8697,7 +8696,7 @@
         <v>186</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="G31" s="44"/>
     </row>
@@ -8718,7 +8717,7 @@
         <v>186</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G32" s="44"/>
     </row>
@@ -8754,13 +8753,13 @@
         <v>200</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E34" s="21" t="s">
         <v>186</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="G34" s="44"/>
     </row>
@@ -8781,7 +8780,7 @@
         <v>186</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="G35" s="44"/>
     </row>
@@ -8796,13 +8795,13 @@
         <v>202</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="G36" s="44"/>
     </row>
@@ -8898,7 +8897,7 @@
   <dimension ref="A1:G68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8964,7 +8963,7 @@
         <v>13</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -8978,13 +8977,13 @@
         <v>73</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>274</v>
+        <v>578</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>46</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G5" s="44"/>
     </row>
@@ -8999,7 +8998,7 @@
         <v>74</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E6" s="21" t="s">
         <v>46</v>
@@ -9020,7 +9019,7 @@
         <v>75</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E7" s="21" t="s">
         <v>54</v>
@@ -9041,7 +9040,7 @@
         <v>76</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E8" s="21" t="s">
         <v>46</v>
@@ -9062,13 +9061,13 @@
         <v>77</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E9" s="21" t="s">
         <v>37</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="G9" s="44"/>
     </row>
@@ -9083,7 +9082,7 @@
         <v>62</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E10" s="21" t="s">
         <v>46</v>
@@ -9104,13 +9103,13 @@
         <v>78</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="E11" s="21" t="s">
         <v>46</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="G11" s="44"/>
     </row>
@@ -9125,13 +9124,13 @@
         <v>79</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E12" s="21" t="s">
         <v>46</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="G12" s="44"/>
     </row>
@@ -9146,7 +9145,7 @@
         <v>203</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E13" s="21" t="s">
         <v>48</v>
@@ -9167,13 +9166,13 @@
         <v>80</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E14" s="21" t="s">
         <v>37</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="G14" s="44"/>
     </row>
@@ -9194,7 +9193,7 @@
         <v>46</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="G15" s="44"/>
     </row>
@@ -9230,13 +9229,13 @@
         <v>204</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E17" s="21" t="s">
         <v>186</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G17" s="44"/>
     </row>
@@ -9251,13 +9250,13 @@
         <v>205</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E18" s="21" t="s">
         <v>186</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G18" s="44"/>
     </row>
@@ -9272,13 +9271,13 @@
         <v>206</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E19" s="21" t="s">
         <v>186</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G19" s="44"/>
     </row>
@@ -9666,7 +9665,7 @@
         <v>50</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -9677,16 +9676,16 @@
         <v>65</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>186</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -9697,10 +9696,10 @@
         <v>66</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="E6" s="21" t="s">
         <v>192</v>
@@ -9726,7 +9725,7 @@
         <v>186</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -9740,13 +9739,13 @@
         <v>64</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E8" s="21" t="s">
         <v>186</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -9760,7 +9759,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E9" s="21" t="s">
         <v>186</v>
@@ -9780,7 +9779,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E10" s="21" t="s">
         <v>186</v>
@@ -9800,7 +9799,7 @@
         <v>204</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E11" s="21" t="s">
         <v>186</v>
@@ -9820,13 +9819,13 @@
         <v>207</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E12" s="21" t="s">
         <v>186</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -10219,7 +10218,7 @@
         <v>50</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -10714,7 +10713,7 @@
         <v>50</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11142,7 +11141,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -11168,7 +11167,7 @@
       <c r="E1" s="18"/>
       <c r="F1" s="2"/>
       <c r="G1" s="45" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -11213,7 +11212,7 @@
         <v>13</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11224,16 +11223,16 @@
         <v>143</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="E5" s="21" t="s">
         <v>54</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11247,7 +11246,7 @@
         <v>59</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="E6" s="21" t="s">
         <v>54</v>
@@ -11267,7 +11266,7 @@
         <v>60</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E7" s="21" t="s">
         <v>54</v>
@@ -11284,19 +11283,19 @@
         <v>145</v>
       </c>
       <c r="C8" s="50" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="D8" s="57" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="E8" s="53" t="s">
         <v>54</v>
       </c>
       <c r="F8" s="57" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G8" s="58" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11310,7 +11309,7 @@
         <v>52</v>
       </c>
       <c r="D9" s="57" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E9" s="53" t="s">
         <v>54</v>
@@ -11331,7 +11330,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="57" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="E10" s="53" t="s">
         <v>54</v>
@@ -11358,7 +11357,7 @@
         <v>54</v>
       </c>
       <c r="F11" s="57" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="G11" s="58"/>
     </row>
@@ -11373,13 +11372,13 @@
         <v>146</v>
       </c>
       <c r="D12" s="57" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="E12" s="53" t="s">
         <v>54</v>
       </c>
       <c r="F12" s="50" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="G12" s="58"/>
     </row>
@@ -11394,13 +11393,13 @@
         <v>149</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E13" s="21" t="s">
         <v>54</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11414,13 +11413,13 @@
         <v>150</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E14" s="21" t="s">
         <v>54</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11434,13 +11433,13 @@
         <v>152</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E15" s="21" t="s">
         <v>54</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G15" s="43"/>
     </row>
@@ -11455,7 +11454,7 @@
         <v>153</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E16" s="21" t="s">
         <v>63</v>
@@ -11476,13 +11475,13 @@
         <v>151</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E17" s="21" t="s">
         <v>37</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11496,13 +11495,13 @@
         <v>159</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E18" s="21" t="s">
         <v>54</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11516,13 +11515,13 @@
         <v>154</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E19" s="21" t="s">
         <v>54</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11536,13 +11535,13 @@
         <v>147</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E20" s="21" t="s">
         <v>54</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11556,13 +11555,13 @@
         <v>148</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="E21" s="21" t="s">
         <v>54</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11676,13 +11675,13 @@
         <v>161</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E27" s="21" t="s">
         <v>37</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11696,13 +11695,13 @@
         <v>162</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E28" s="21" t="s">
         <v>37</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11713,16 +11712,16 @@
         <v>145</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="E29" s="21" t="s">
         <v>37</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="G29" s="46"/>
     </row>
@@ -11737,13 +11736,13 @@
         <v>163</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E30" s="21" t="s">
         <v>37</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11757,13 +11756,13 @@
         <v>164</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="E31" s="21" t="s">
         <v>54</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11797,13 +11796,13 @@
         <v>182</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E33" s="21" t="s">
         <v>54</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11817,13 +11816,13 @@
         <v>203</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E34" s="21" t="s">
         <v>63</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11837,13 +11836,13 @@
         <v>204</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E35" s="21" t="s">
         <v>186</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11854,16 +11853,16 @@
         <v>32</v>
       </c>
       <c r="C36" s="51" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D36" s="57" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="E36" s="53" t="s">
         <v>186</v>
       </c>
       <c r="F36" s="50" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="G36" s="54"/>
       <c r="H36" s="55"/>
@@ -11879,7 +11878,7 @@
         <v>209</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E37" s="21" t="s">
         <v>186</v>
@@ -11899,13 +11898,13 @@
         <v>230</v>
       </c>
       <c r="D38" s="38" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="E38" s="21" t="s">
         <v>186</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G38" s="44"/>
     </row>
@@ -11917,19 +11916,19 @@
         <v>32</v>
       </c>
       <c r="C39" s="51" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D39" s="52" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="E39" s="53" t="s">
         <v>186</v>
       </c>
       <c r="F39" s="51" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="G39" s="54" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11943,13 +11942,13 @@
         <v>210</v>
       </c>
       <c r="D40" s="38" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E40" s="21" t="s">
         <v>186</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -11963,7 +11962,7 @@
         <v>211</v>
       </c>
       <c r="D41" s="38" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E41" s="21" t="s">
         <v>186</v>
@@ -12154,8 +12153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12221,7 +12220,7 @@
         <v>50</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12232,16 +12231,16 @@
         <v>57</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>452</v>
+        <v>580</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>54</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12255,7 +12254,7 @@
         <v>133</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E6" s="21" t="s">
         <v>54</v>
@@ -12275,7 +12274,7 @@
         <v>134</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E7" s="21" t="s">
         <v>54</v>
@@ -12295,13 +12294,13 @@
         <v>120</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E8" s="21" t="s">
         <v>54</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12315,13 +12314,13 @@
         <v>166</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="E9" s="21" t="s">
         <v>37</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="G9" s="42"/>
     </row>
@@ -12333,16 +12332,16 @@
         <v>32</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="E10" s="21" t="s">
         <v>37</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="G10" s="42"/>
     </row>
@@ -12357,13 +12356,13 @@
         <v>167</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E11" s="21" t="s">
         <v>54</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12377,13 +12376,13 @@
         <v>168</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E12" s="21" t="s">
         <v>54</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12397,7 +12396,7 @@
         <v>169</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E13" s="21" t="s">
         <v>54</v>
@@ -12417,7 +12416,7 @@
         <v>170</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E14" s="21" t="s">
         <v>54</v>
@@ -12437,7 +12436,7 @@
         <v>171</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E15" s="21" t="s">
         <v>54</v>
@@ -12454,16 +12453,16 @@
         <v>32</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E16" s="21" t="s">
         <v>54</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12474,19 +12473,19 @@
         <v>32</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>561</v>
+        <v>576</v>
       </c>
       <c r="E17" s="21" t="s">
         <v>54</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>339</v>
+        <v>577</v>
       </c>
       <c r="G17" s="42" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12500,13 +12499,13 @@
         <v>172</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="E18" s="21" t="s">
         <v>54</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G18" s="42"/>
     </row>
@@ -12518,10 +12517,10 @@
         <v>32</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E19" s="21" t="s">
         <v>54</v>
@@ -12538,16 +12537,16 @@
         <v>32</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="E20" s="21" t="s">
         <v>54</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="G20" s="42"/>
     </row>
@@ -12562,7 +12561,7 @@
         <v>203</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E21" s="21" t="s">
         <v>63</v>
@@ -12582,7 +12581,7 @@
         <v>204</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E22" s="21" t="s">
         <v>186</v>
@@ -12602,13 +12601,13 @@
         <v>205</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E23" s="21" t="s">
         <v>186</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="G23" s="42"/>
     </row>
@@ -12623,13 +12622,13 @@
         <v>212</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E24" s="21" t="s">
         <v>186</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12643,13 +12642,13 @@
         <v>213</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E25" s="21" t="s">
         <v>186</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12663,13 +12662,13 @@
         <v>214</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E26" s="21" t="s">
         <v>186</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12914,7 +12913,7 @@
   <dimension ref="A1:G69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12980,7 +12979,7 @@
         <v>50</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -12994,13 +12993,13 @@
         <v>132</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>54</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13014,7 +13013,7 @@
         <v>134</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E6" s="21" t="s">
         <v>54</v>
@@ -13034,7 +13033,7 @@
         <v>140</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E7" s="21" t="s">
         <v>54</v>
@@ -13054,13 +13053,13 @@
         <v>88</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E8" s="21" t="s">
         <v>54</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13074,13 +13073,13 @@
         <v>89</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E9" s="21" t="s">
         <v>54</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13094,13 +13093,13 @@
         <v>90</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E10" s="21" t="s">
         <v>54</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13114,7 +13113,7 @@
         <v>91</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E11" s="21" t="s">
         <v>54</v>
@@ -13134,13 +13133,13 @@
         <v>92</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="G12" s="44"/>
     </row>
@@ -13155,13 +13154,13 @@
         <v>141</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E13" s="21" t="s">
         <v>54</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13175,13 +13174,13 @@
         <v>135</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E14" s="21" t="s">
         <v>54</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13195,13 +13194,13 @@
         <v>136</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E15" s="21" t="s">
         <v>54</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13215,13 +13214,13 @@
         <v>137</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E16" s="21" t="s">
         <v>54</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13235,13 +13234,13 @@
         <v>138</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E17" s="21" t="s">
         <v>54</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13255,7 +13254,7 @@
         <v>139</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E18" s="21" t="s">
         <v>63</v>
@@ -13272,16 +13271,16 @@
         <v>58</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="E19" s="21" t="s">
         <v>37</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="G19" s="48"/>
     </row>
@@ -13296,7 +13295,7 @@
         <v>203</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E20" s="21" t="s">
         <v>63</v>
@@ -13336,13 +13335,13 @@
         <v>205</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E22" s="21" t="s">
         <v>186</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -13356,13 +13355,13 @@
         <v>215</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E23" s="21" t="s">
         <v>186</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
